--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Testcase Sprint 1" sheetId="1" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$218</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Testcase Sprint 1'!$A$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="760">
   <si>
     <t>Expected results</t>
   </si>
@@ -2785,15 +2785,6 @@
 Questions could be transferred to the Available list of dictionaries</t>
   </si>
   <si>
-    <t>Testcase: 96</t>
-  </si>
-  <si>
-    <t>testcase passed: 73 (chiếm 76%)</t>
-  </si>
-  <si>
-    <t>testcase failed: 21 (chiếm 22%)</t>
-  </si>
-  <si>
     <t>testcase block: 2 (chiếm 2%)</t>
   </si>
   <si>
@@ -2801,6 +2792,75 @@
   </si>
   <si>
     <t>testcase Failed: have solutions but not enough time, switch to Sprint next product improvements.</t>
+  </si>
+  <si>
+    <t>testcase failed: 20 (chiếm 22%)</t>
+  </si>
+  <si>
+    <t>Testcase: 94</t>
+  </si>
+  <si>
+    <t>testcase passed: 72 (chiếm 76%)</t>
+  </si>
+  <si>
+    <t>Show website notice incorrect account</t>
+  </si>
+  <si>
+    <t>Show website notice incorrect password</t>
+  </si>
+  <si>
+    <t>The site displays a message not enter account</t>
+  </si>
+  <si>
+    <t>The site displays a message not enter password</t>
+  </si>
+  <si>
+    <t>The site displays a message account or password incorrect</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In database available account 'Admin123', pass 'Admin123'
+1. Open web
+2. Enter account: 'Ad123456'
+3. Enter password: 'Admin123'
+4. Login</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In database available account 'Admin123', pass 'Admin123'
+1. Open web
+2. Enter account: 'Admin123'
+3. Enter password: 'Ad123456'
+4. Login</t>
+  </si>
+  <si>
+    <t>1. Open web
+2. Enter password: '123'
+3. Login</t>
+  </si>
+  <si>
+    <t>1. Open web
+2. Enter account: '123'
+3. Login</t>
+  </si>
+  <si>
+    <t>1. Open web
+2. Enter account: 'Administration123'
+3. Enter password: ''Admin123456'
+4. Login</t>
+  </si>
+  <si>
+    <t>Login with your account name incorrect</t>
+  </si>
+  <si>
+    <t>Login with your password incorrect</t>
+  </si>
+  <si>
+    <t>Show notification when empty accounts</t>
+  </si>
+  <si>
+    <t>Show notification when empty password</t>
+  </si>
+  <si>
+    <t>Help with account and password incorrect</t>
   </si>
 </sst>
 </file>
@@ -3180,7 +3240,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3390,6 +3450,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3401,42 +3467,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3450,8 +3480,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3459,7 +3522,63 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="128">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4617,7 +4736,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6080,11 +6199,11 @@
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -6504,13 +6623,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="str">
+      <c r="A5" s="82" t="str">
         <f>'Testcase Specification'!B11</f>
         <v>Login</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
@@ -6543,27 +6662,27 @@
         <v>90</v>
       </c>
       <c r="B8" s="43" t="str">
-        <f>'Testcase Specification'!C16</f>
+        <f>'Testcase Specification'!C20</f>
         <v>Check login session</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="str">
-        <f>'Testcase Specification'!B18</f>
+      <c r="A9" s="82" t="str">
+        <f>'Testcase Specification'!B22</f>
         <v>Change password</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="43" t="str">
-        <f>'Testcase Specification'!C19</f>
+        <f>'Testcase Specification'!C23</f>
         <v>Check password</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -6572,20 +6691,20 @@
       <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="str">
-        <f>'Testcase Specification'!B26</f>
+      <c r="A11" s="82" t="str">
+        <f>'Testcase Specification'!B30</f>
         <v>Register</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
     </row>
     <row r="12" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f>'Testcase Specification'!C27</f>
+        <f>'Testcase Specification'!C31</f>
         <v>Check register</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -6598,7 +6717,7 @@
         <v>133</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f>'Testcase Specification'!C36</f>
+        <f>'Testcase Specification'!C40</f>
         <v>Show notification</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -6607,20 +6726,20 @@
       <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="str">
-        <f>'Testcase Specification'!B45</f>
+      <c r="A14" s="82" t="str">
+        <f>'Testcase Specification'!B49</f>
         <v>View profile</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
     </row>
     <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B15" s="43" t="str">
-        <f>'Testcase Specification'!C46</f>
+        <f>'Testcase Specification'!C50</f>
         <v>Show user profile</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -6629,20 +6748,20 @@
       <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="str">
-        <f>'Testcase Specification'!B48</f>
+      <c r="A16" s="82" t="str">
+        <f>'Testcase Specification'!B52</f>
         <v>Show list question</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
     </row>
     <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>156</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f>'Testcase Specification'!C49</f>
+        <f>'Testcase Specification'!C53</f>
         <v>Pagging</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -6655,7 +6774,7 @@
         <v>164</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f>'Testcase Specification'!C82</f>
+        <f>'Testcase Specification'!C86</f>
         <v>Content of List question</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -6664,20 +6783,20 @@
       <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="str">
-        <f>'Testcase Specification'!B87</f>
+      <c r="A19" s="82" t="str">
+        <f>'Testcase Specification'!B91</f>
         <v>Search</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="43" t="str">
-        <f>'Testcase Specification'!C88</f>
+        <f>'Testcase Specification'!C92</f>
         <v>Check data</v>
       </c>
       <c r="C20" s="43" t="s">
@@ -6690,7 +6809,7 @@
         <v>190</v>
       </c>
       <c r="B21" s="43" t="str">
-        <f>'Testcase Specification'!C90</f>
+        <f>'Testcase Specification'!C94</f>
         <v>Implement search</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -6699,20 +6818,20 @@
       <c r="D21" s="43"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="str">
-        <f>'Testcase Specification'!B92</f>
+      <c r="A22" s="82" t="str">
+        <f>'Testcase Specification'!B96</f>
         <v>view question</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>193</v>
       </c>
       <c r="B23" s="43" t="str">
-        <f>'Testcase Specification'!C93</f>
+        <f>'Testcase Specification'!C97</f>
         <v>Show detail question</v>
       </c>
       <c r="C23" s="43" t="s">
@@ -6721,20 +6840,20 @@
       <c r="D23" s="43"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="str">
-        <f>'Testcase Specification'!B97</f>
+      <c r="A24" s="82" t="str">
+        <f>'Testcase Specification'!B101</f>
         <v>Send mail</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>197</v>
       </c>
       <c r="B25" s="43" t="str">
-        <f>'Testcase Specification'!C98</f>
+        <f>'Testcase Specification'!C102</f>
         <v xml:space="preserve">Send answer </v>
       </c>
       <c r="C25" s="43" t="s">
@@ -6743,20 +6862,20 @@
       <c r="D25" s="43"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="str">
-        <f>'Testcase Specification'!B101</f>
+      <c r="A26" s="82" t="str">
+        <f>'Testcase Specification'!B105</f>
         <v>Save question</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
     </row>
     <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>199</v>
       </c>
       <c r="B27" s="43" t="str">
-        <f>'Testcase Specification'!C102</f>
+        <f>'Testcase Specification'!C106</f>
         <v>Save question</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -6765,20 +6884,20 @@
       <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="str">
-        <f>'Testcase Specification'!B105</f>
+      <c r="A28" s="82" t="str">
+        <f>'Testcase Specification'!B109</f>
         <v>Dictionary</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
     </row>
     <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>201</v>
       </c>
       <c r="B29" s="43" t="str">
-        <f>'Testcase Specification'!C106</f>
+        <f>'Testcase Specification'!C110</f>
         <v>Show dict</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -6791,7 +6910,7 @@
         <v>322</v>
       </c>
       <c r="B30" s="43" t="str">
-        <f>'Testcase Specification'!C111</f>
+        <f>'Testcase Specification'!C115</f>
         <v>Paging for list-dictionary</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -6800,20 +6919,20 @@
       <c r="D30" s="43"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="80" t="str">
-        <f>'Testcase Specification'!B139</f>
+      <c r="A31" s="82" t="str">
+        <f>'Testcase Specification'!B143</f>
         <v>Insert-dict</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
     </row>
     <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>345</v>
       </c>
       <c r="B32" s="43" t="str">
-        <f>'Testcase Specification'!C140</f>
+        <f>'Testcase Specification'!C144</f>
         <v>put question into dict from list-save</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -6826,7 +6945,7 @@
         <v>362</v>
       </c>
       <c r="B33" s="43" t="str">
-        <f>'Testcase Specification'!C146</f>
+        <f>'Testcase Specification'!C150</f>
         <v>Insert dict on internet from list-dict (available)</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -6835,20 +6954,20 @@
       <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="str">
-        <f>'Testcase Specification'!B153</f>
+      <c r="A34" s="82" t="str">
+        <f>'Testcase Specification'!B157</f>
         <v>Drop-dict</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
     </row>
     <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>363</v>
       </c>
       <c r="B35" s="43" t="str">
-        <f>'Testcase Specification'!C154</f>
+        <f>'Testcase Specification'!C158</f>
         <v>drop-dict</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -6857,20 +6976,20 @@
       <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="str">
-        <f>'Testcase Specification'!B161</f>
+      <c r="A36" s="82" t="str">
+        <f>'Testcase Specification'!B165</f>
         <v>Delete question</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>366</v>
       </c>
       <c r="B37" s="43" t="str">
-        <f>'Testcase Specification'!C162</f>
+        <f>'Testcase Specification'!C166</f>
         <v>Delete question in list-unanswer</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -6883,7 +7002,7 @@
         <v>366</v>
       </c>
       <c r="B38" s="43" t="str">
-        <f>'Testcase Specification'!C168</f>
+        <f>'Testcase Specification'!C172</f>
         <v>Delete question in list-tempsave</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -6896,7 +7015,7 @@
         <v>386</v>
       </c>
       <c r="B39" s="43" t="str">
-        <f>'Testcase Specification'!C174</f>
+        <f>'Testcase Specification'!C178</f>
         <v>Delete question in list-saved</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -6905,20 +7024,20 @@
       <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="str">
-        <f>'Testcase Specification'!B180</f>
+      <c r="A40" s="82" t="str">
+        <f>'Testcase Specification'!B184</f>
         <v>Recover question</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>387</v>
       </c>
       <c r="B41" s="43" t="str">
-        <f>'Testcase Specification'!C181</f>
+        <f>'Testcase Specification'!C185</f>
         <v>Recover question from list-deleted</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -6931,7 +7050,7 @@
         <v>451</v>
       </c>
       <c r="B42" s="43" t="str">
-        <f>'Testcase Specification'!C197</f>
+        <f>'Testcase Specification'!C201</f>
         <v>Recover question from list-dict</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -6940,20 +7059,20 @@
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="80" t="str">
-        <f>'Testcase Specification'!B210</f>
+      <c r="A43" s="82" t="str">
+        <f>'Testcase Specification'!B214</f>
         <v>Create question</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
     </row>
     <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>496</v>
       </c>
       <c r="B44" s="43" t="str">
-        <f>'Testcase Specification'!C211</f>
+        <f>'Testcase Specification'!C215</f>
         <v>Create question</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -6962,12 +7081,12 @@
       <c r="D44" s="43"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
@@ -6982,12 +7101,12 @@
       <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
@@ -7002,12 +7121,12 @@
       <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
@@ -7029,6 +7148,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A26:D26"/>
@@ -7039,14 +7166,6 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7059,10 +7178,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:J220"/>
+  <dimension ref="A2:J224"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G225" sqref="G225"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -7071,92 +7190,92 @@
     <col min="3" max="3" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" style="39" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" style="39" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="94"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="55">
-        <f>COUNTIF(I13:I220,"&gt;a0")</f>
-        <v>43</v>
+        <f>COUNTIF(I13:I224,"&gt;a0")</f>
+        <v>47</v>
       </c>
       <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="94"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="55">
         <f>SUM(D5:D6)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" s="64"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="55">
         <f>D2-D3</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="95" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="95"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="55">
-        <f>COUNTIF(H12:H220,"Passed")</f>
-        <v>1</v>
+        <f>COUNTIF(H12:H224,"Passed")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="95" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="95"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="55">
-        <f>COUNTIF(H12:H220,"Failed")</f>
+        <f>COUNTIF(H12:H224,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="95" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="95"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="55">
-        <f>COUNTIF(H12:H220,"Block")</f>
+        <f>COUNTIF(H12:H224,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="96" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="56">
         <f>1-(D4/D2)</f>
-        <v>2.3255813953488413E-2</v>
+        <v>0.12765957446808507</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -7258,1467 +7377,1499 @@
       <c r="I14" s="51"/>
       <c r="J14" s="52"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76" t="s">
-        <v>536</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>536</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>536</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>536</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>536</v>
-      </c>
-      <c r="H15" s="76" t="s">
-        <v>536</v>
-      </c>
-      <c r="I15" s="76" t="s">
-        <v>536</v>
+    <row r="15" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B15" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="47">
+        <v>60</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>755</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="76" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="47">
+        <v>61</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>756</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="77"/>
+    </row>
+    <row r="17" spans="2:10" ht="75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B17" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="47">
+        <v>62</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>757</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="77"/>
+    </row>
+    <row r="18" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B18" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="47">
+        <v>63</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>758</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>748</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="77"/>
+    </row>
+    <row r="19" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="47">
+        <v>46</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>759</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>754</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>749</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="47"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C20" s="50" t="s">
         <v>535</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+    </row>
+    <row r="21" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C21" s="47">
         <v>47</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D21" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E21" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F21" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G21" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="33" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="62" t="s">
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="62" t="s">
         <v>517</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C23" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-    </row>
-    <row r="20" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B20" s="84" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+    </row>
+    <row r="24" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B24" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C24" s="87">
         <v>65</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D24" s="90" t="s">
         <v>563</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E24" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="84" t="s">
+      <c r="F24" s="33"/>
+      <c r="G24" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="87" t="s">
+      <c r="H24" s="41"/>
+      <c r="I24" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="J20" s="46"/>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="33" t="s">
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="33" t="s">
+      <c r="F25" s="33"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="46"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="33" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="46"/>
-    </row>
-    <row r="24" spans="2:10" ht="210" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="33" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="2:10" ht="210" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F28" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="G24" s="86"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="46"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="62" t="s">
+      <c r="G28" s="89"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="62" t="s">
         <v>518</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C31" s="50" t="s">
         <v>538</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="52"/>
-    </row>
-    <row r="28" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B28" s="84" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
+    </row>
+    <row r="32" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B32" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C32" s="87">
         <v>73</v>
       </c>
-      <c r="D28" s="90" t="s">
+      <c r="D32" s="90" t="s">
         <v>579</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E32" s="65" t="s">
         <v>571</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="84" t="s">
+      <c r="F32" s="33"/>
+      <c r="G32" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="87" t="s">
+      <c r="H32" s="75"/>
+      <c r="I32" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="65" t="s">
-        <v>572</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="72" t="s">
-        <v>573</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="G30" s="85"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="46"/>
-    </row>
-    <row r="31" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="G31" s="85"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="46"/>
-    </row>
-    <row r="32" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="72" t="s">
-        <v>575</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="88"/>
       <c r="J32" s="46"/>
     </row>
-    <row r="33" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
+    <row r="33" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="91"/>
       <c r="E33" s="65" t="s">
+        <v>572</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="46"/>
+    </row>
+    <row r="34" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="G34" s="88"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="46"/>
+    </row>
+    <row r="35" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="G35" s="88"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="72" t="s">
+        <v>575</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="G36" s="88"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="46"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="65" t="s">
         <v>576</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="46"/>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="65" t="s">
-        <v>577</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="G34" s="85"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="46"/>
-    </row>
-    <row r="35" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="65" t="s">
-        <v>578</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="G35" s="86"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>539</v>
-      </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="52"/>
-    </row>
-    <row r="37" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B37" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="84">
-        <v>77</v>
-      </c>
-      <c r="D37" s="90" t="s">
-        <v>584</v>
-      </c>
-      <c r="E37" s="65" t="s">
-        <v>585</v>
-      </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="87" t="s">
-        <v>140</v>
-      </c>
+      <c r="G37" s="88"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="94"/>
       <c r="J37" s="46"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="91"/>
       <c r="E38" s="65" t="s">
-        <v>572</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="88"/>
+        <v>577</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="G38" s="88"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="94"/>
       <c r="J38" s="46"/>
     </row>
-    <row r="39" spans="2:10" ht="33" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="91"/>
+    <row r="39" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="65" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="G39" s="85"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="88"/>
+        <v>583</v>
+      </c>
+      <c r="G39" s="89"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="95"/>
       <c r="J39" s="46"/>
     </row>
-    <row r="40" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="G40" s="85"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="46"/>
+    <row r="40" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>539</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="52"/>
     </row>
     <row r="41" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="91"/>
+      <c r="B41" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="87">
+        <v>77</v>
+      </c>
+      <c r="D41" s="90" t="s">
+        <v>584</v>
+      </c>
       <c r="E41" s="65" t="s">
-        <v>587</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="G41" s="85"/>
+        <v>585</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="87" t="s">
+        <v>97</v>
+      </c>
       <c r="H41" s="41"/>
-      <c r="I41" s="88"/>
+      <c r="I41" s="93" t="s">
+        <v>140</v>
+      </c>
       <c r="J41" s="46"/>
     </row>
-    <row r="42" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
+    <row r="42" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="91"/>
       <c r="E42" s="65" t="s">
-        <v>588</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="G42" s="85"/>
+        <v>572</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="88"/>
       <c r="H42" s="41"/>
-      <c r="I42" s="88"/>
+      <c r="I42" s="94"/>
       <c r="J42" s="46"/>
     </row>
-    <row r="43" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
+    <row r="43" spans="2:10" ht="33" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="91"/>
       <c r="E43" s="65" t="s">
+        <v>586</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="G43" s="88"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="46"/>
+    </row>
+    <row r="44" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="65" t="s">
+        <v>565</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="G44" s="88"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="46"/>
+    </row>
+    <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="65" t="s">
+        <v>587</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="G45" s="88"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="46"/>
+    </row>
+    <row r="46" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="65" t="s">
+        <v>588</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="G46" s="88"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="46"/>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="65" t="s">
         <v>577</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F47" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="46"/>
-    </row>
-    <row r="44" spans="2:10" ht="51" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="65" t="s">
+      <c r="G47" s="88"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48" spans="2:10" ht="51" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="65" t="s">
         <v>578</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F48" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="G44" s="86"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="46"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="62" t="s">
+      <c r="G48" s="89"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="46"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="62" t="s">
         <v>519</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-    </row>
-    <row r="46" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="49" t="s">
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+    </row>
+    <row r="50" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C50" s="50" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
-    </row>
-    <row r="47" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B47" s="46" t="s">
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="52"/>
+    </row>
+    <row r="51" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B51" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C51" s="47">
         <v>85</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D51" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E51" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F51" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G51" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="33" t="s">
+      <c r="H51" s="41"/>
+      <c r="I51" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J47" s="46"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="62" t="s">
+      <c r="J51" s="46"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-    </row>
-    <row r="49" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="49" t="s">
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+    </row>
+    <row r="53" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="97" t="s">
+      <c r="C53" s="78" t="s">
         <v>541</v>
       </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="52"/>
-    </row>
-    <row r="50" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B50" s="84" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="52"/>
+    </row>
+    <row r="54" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B54" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="84">
+      <c r="C54" s="87">
         <v>50</v>
       </c>
-      <c r="D50" s="90" t="s">
+      <c r="D54" s="90" t="s">
         <v>597</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E54" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="F50" s="33"/>
-      <c r="G50" s="84" t="s">
+      <c r="F54" s="33"/>
+      <c r="G54" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="81"/>
-      <c r="I50" s="87" t="s">
+      <c r="H54" s="96"/>
+      <c r="I54" s="93" t="s">
         <v>460</v>
       </c>
-      <c r="J50" s="46"/>
-    </row>
-    <row r="51" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="G51" s="85"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="46"/>
-    </row>
-    <row r="52" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="G52" s="85"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="46"/>
-    </row>
-    <row r="53" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="G53" s="85"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="46"/>
-    </row>
-    <row r="54" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="G54" s="85"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="88"/>
       <c r="J54" s="46"/>
     </row>
     <row r="55" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="91"/>
       <c r="E55" s="33" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G55" s="85"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="88"/>
+        <v>615</v>
+      </c>
+      <c r="G55" s="88"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="94"/>
       <c r="J55" s="46"/>
     </row>
-    <row r="56" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
+    <row r="56" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B56" s="88"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="91"/>
       <c r="E56" s="33" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G56" s="85"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="88"/>
+        <v>616</v>
+      </c>
+      <c r="G56" s="88"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="94"/>
       <c r="J56" s="46"/>
     </row>
-    <row r="57" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="92"/>
+    <row r="57" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B57" s="88"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="33" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G57" s="86"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="89"/>
+        <v>617</v>
+      </c>
+      <c r="G57" s="88"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="94"/>
       <c r="J57" s="46"/>
     </row>
-    <row r="58" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B58" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="84">
-        <v>86</v>
-      </c>
-      <c r="D58" s="90" t="s">
-        <v>598</v>
-      </c>
+    <row r="58" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H58" s="81"/>
-      <c r="I58" s="87" t="s">
-        <v>460</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="G58" s="88"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="94"/>
       <c r="J58" s="46"/>
     </row>
     <row r="59" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="91"/>
       <c r="E59" s="33" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="G59" s="85"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="88"/>
+        <v>619</v>
+      </c>
+      <c r="G59" s="88"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="94"/>
       <c r="J59" s="46"/>
     </row>
-    <row r="60" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
+    <row r="60" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
       <c r="D60" s="91"/>
       <c r="E60" s="33" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="G60" s="85"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="88"/>
+        <v>620</v>
+      </c>
+      <c r="G60" s="88"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="94"/>
       <c r="J60" s="46"/>
     </row>
-    <row r="61" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="91"/>
+    <row r="61" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="92"/>
       <c r="E61" s="33" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="G61" s="85"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="88"/>
+        <v>621</v>
+      </c>
+      <c r="G61" s="89"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="95"/>
       <c r="J61" s="46"/>
     </row>
-    <row r="62" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="91"/>
+    <row r="62" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B62" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="87">
+        <v>86</v>
+      </c>
+      <c r="D62" s="90" t="s">
+        <v>598</v>
+      </c>
       <c r="E62" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="G62" s="85"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="88"/>
+        <v>608</v>
+      </c>
+      <c r="F62" s="33"/>
+      <c r="G62" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="96"/>
+      <c r="I62" s="93" t="s">
+        <v>460</v>
+      </c>
       <c r="J62" s="46"/>
     </row>
     <row r="63" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="91"/>
       <c r="E63" s="33" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G63" s="85"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="88"/>
+        <v>615</v>
+      </c>
+      <c r="G63" s="88"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="94"/>
       <c r="J63" s="46"/>
     </row>
-    <row r="64" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
+    <row r="64" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="91"/>
       <c r="E64" s="33" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G64" s="85"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="88"/>
+        <v>616</v>
+      </c>
+      <c r="G64" s="88"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="94"/>
       <c r="J64" s="46"/>
     </row>
-    <row r="65" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="92"/>
+    <row r="65" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B65" s="88"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="91"/>
       <c r="E65" s="33" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G65" s="86"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="89"/>
+        <v>617</v>
+      </c>
+      <c r="G65" s="88"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="94"/>
       <c r="J65" s="46"/>
     </row>
-    <row r="66" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B66" s="84" t="s">
-        <v>291</v>
-      </c>
-      <c r="C66" s="84">
-        <v>87</v>
-      </c>
-      <c r="D66" s="90" t="s">
-        <v>599</v>
-      </c>
+    <row r="66" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="91"/>
       <c r="E66" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H66" s="81"/>
-      <c r="I66" s="87" t="s">
-        <v>460</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="G66" s="88"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="94"/>
       <c r="J66" s="46"/>
     </row>
-    <row r="67" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
+    <row r="67" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B67" s="88"/>
+      <c r="C67" s="88"/>
       <c r="D67" s="91"/>
       <c r="E67" s="33" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="G67" s="85"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="88"/>
+        <v>619</v>
+      </c>
+      <c r="G67" s="88"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="94"/>
       <c r="J67" s="46"/>
     </row>
-    <row r="68" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
+    <row r="68" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
       <c r="D68" s="91"/>
       <c r="E68" s="33" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="G68" s="85"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="88"/>
+        <v>620</v>
+      </c>
+      <c r="G68" s="88"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="94"/>
       <c r="J68" s="46"/>
     </row>
-    <row r="69" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="85"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="91"/>
+    <row r="69" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B69" s="89"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="92"/>
       <c r="E69" s="33" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="G69" s="85"/>
-      <c r="H69" s="82"/>
-      <c r="I69" s="88"/>
+        <v>621</v>
+      </c>
+      <c r="G69" s="89"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="95"/>
       <c r="J69" s="46"/>
     </row>
-    <row r="70" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="91"/>
+    <row r="70" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B70" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" s="87">
+        <v>87</v>
+      </c>
+      <c r="D70" s="90" t="s">
+        <v>599</v>
+      </c>
       <c r="E70" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="G70" s="85"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="88"/>
+        <v>609</v>
+      </c>
+      <c r="F70" s="33"/>
+      <c r="G70" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" s="96"/>
+      <c r="I70" s="93" t="s">
+        <v>460</v>
+      </c>
       <c r="J70" s="46"/>
     </row>
     <row r="71" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="88"/>
       <c r="D71" s="91"/>
       <c r="E71" s="33" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G71" s="85"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="88"/>
+        <v>615</v>
+      </c>
+      <c r="G71" s="88"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="94"/>
       <c r="J71" s="46"/>
     </row>
-    <row r="72" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
+    <row r="72" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="91"/>
       <c r="E72" s="33" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G72" s="85"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="88"/>
+        <v>616</v>
+      </c>
+      <c r="G72" s="88"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="94"/>
       <c r="J72" s="46"/>
     </row>
-    <row r="73" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="92"/>
+    <row r="73" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B73" s="88"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="91"/>
       <c r="E73" s="33" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G73" s="86"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="89"/>
+        <v>617</v>
+      </c>
+      <c r="G73" s="88"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="94"/>
       <c r="J73" s="46"/>
     </row>
-    <row r="74" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B74" s="84" t="s">
-        <v>315</v>
-      </c>
-      <c r="C74" s="84">
-        <v>88</v>
-      </c>
-      <c r="D74" s="90" t="s">
-        <v>600</v>
-      </c>
+    <row r="74" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B74" s="88"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="91"/>
       <c r="E74" s="33" t="s">
-        <v>610</v>
-      </c>
-      <c r="F74" s="33"/>
-      <c r="G74" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H74" s="81"/>
-      <c r="I74" s="87" t="s">
-        <v>460</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="G74" s="88"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="94"/>
       <c r="J74" s="46"/>
     </row>
     <row r="75" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
       <c r="D75" s="91"/>
       <c r="E75" s="33" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="G75" s="85"/>
-      <c r="H75" s="82"/>
-      <c r="I75" s="88"/>
+        <v>619</v>
+      </c>
+      <c r="G75" s="88"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="94"/>
       <c r="J75" s="46"/>
     </row>
-    <row r="76" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B76" s="85"/>
-      <c r="C76" s="85"/>
+    <row r="76" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B76" s="88"/>
+      <c r="C76" s="88"/>
       <c r="D76" s="91"/>
       <c r="E76" s="33" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="G76" s="85"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="88"/>
+        <v>620</v>
+      </c>
+      <c r="G76" s="88"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="94"/>
       <c r="J76" s="46"/>
     </row>
-    <row r="77" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="91"/>
+    <row r="77" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="92"/>
       <c r="E77" s="33" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="G77" s="85"/>
-      <c r="H77" s="82"/>
-      <c r="I77" s="88"/>
+        <v>621</v>
+      </c>
+      <c r="G77" s="89"/>
+      <c r="H77" s="98"/>
+      <c r="I77" s="95"/>
       <c r="J77" s="46"/>
     </row>
-    <row r="78" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="91"/>
+    <row r="78" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B78" s="87" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="87">
+        <v>88</v>
+      </c>
+      <c r="D78" s="90" t="s">
+        <v>600</v>
+      </c>
       <c r="E78" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="G78" s="85"/>
-      <c r="H78" s="82"/>
-      <c r="I78" s="88"/>
+        <v>610</v>
+      </c>
+      <c r="F78" s="33"/>
+      <c r="G78" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H78" s="96"/>
+      <c r="I78" s="93" t="s">
+        <v>460</v>
+      </c>
       <c r="J78" s="46"/>
     </row>
     <row r="79" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="88"/>
       <c r="D79" s="91"/>
       <c r="E79" s="33" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G79" s="85"/>
-      <c r="H79" s="82"/>
-      <c r="I79" s="88"/>
+        <v>615</v>
+      </c>
+      <c r="G79" s="88"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="94"/>
       <c r="J79" s="46"/>
     </row>
-    <row r="80" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
+    <row r="80" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
       <c r="D80" s="91"/>
       <c r="E80" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="G80" s="88"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="46"/>
+    </row>
+    <row r="81" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B81" s="88"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="G81" s="88"/>
+      <c r="H81" s="97"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="46"/>
+    </row>
+    <row r="82" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B82" s="88"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="F82" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="G82" s="88"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="94"/>
+      <c r="J82" s="46"/>
+    </row>
+    <row r="83" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B83" s="88"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="G83" s="88"/>
+      <c r="H83" s="97"/>
+      <c r="I83" s="94"/>
+      <c r="J83" s="46"/>
+    </row>
+    <row r="84" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B84" s="88"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F84" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="G80" s="85"/>
-      <c r="H80" s="82"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="46"/>
-    </row>
-    <row r="81" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B81" s="86"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="33" t="s">
+      <c r="G84" s="88"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="94"/>
+      <c r="J84" s="46"/>
+    </row>
+    <row r="85" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B85" s="89"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="F81" s="33" t="s">
+      <c r="F85" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="G81" s="86"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="89"/>
-      <c r="J81" s="46"/>
-    </row>
-    <row r="82" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="49" t="s">
+      <c r="G85" s="89"/>
+      <c r="H85" s="98"/>
+      <c r="I85" s="95"/>
+      <c r="J85" s="46"/>
+    </row>
+    <row r="86" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="61" t="s">
+      <c r="C86" s="61" t="s">
         <v>542</v>
       </c>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="51"/>
-      <c r="J82" s="52"/>
-    </row>
-    <row r="83" spans="2:10" ht="123.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B83" s="46" t="s">
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="52"/>
+    </row>
+    <row r="87" spans="2:10" ht="123.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B87" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C87" s="47">
         <v>51</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D87" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E87" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F87" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="G83" s="46" t="s">
+      <c r="G87" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H83" s="41"/>
-      <c r="I83" s="33" t="s">
+      <c r="H87" s="41"/>
+      <c r="I87" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J83" s="46"/>
-    </row>
-    <row r="84" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B84" s="46" t="s">
+      <c r="J87" s="46"/>
+    </row>
+    <row r="88" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B88" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="47">
+      <c r="C88" s="47">
         <v>52</v>
       </c>
-      <c r="D84" s="33" t="s">
+      <c r="D88" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="E84" s="33" t="s">
+      <c r="E88" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="F84" s="33" t="s">
+      <c r="F88" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="G84" s="46" t="s">
+      <c r="G88" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H84" s="41"/>
-      <c r="I84" s="33" t="s">
+      <c r="H88" s="41"/>
+      <c r="I88" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J84" s="46"/>
-    </row>
-    <row r="85" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B85" s="46" t="s">
+      <c r="J88" s="46"/>
+    </row>
+    <row r="89" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B89" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="47">
+      <c r="C89" s="47">
         <v>53</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D89" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="E85" s="33" t="s">
+      <c r="E89" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="F85" s="33" t="s">
+      <c r="F89" s="33" t="s">
         <v>622</v>
-      </c>
-      <c r="G85" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H85" s="41"/>
-      <c r="I85" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J85" s="46"/>
-    </row>
-    <row r="86" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B86" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="C86" s="47">
-        <v>93</v>
-      </c>
-      <c r="D86" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G86" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H86" s="41"/>
-      <c r="I86" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J86" s="46"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="62" t="s">
-        <v>521</v>
-      </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-    </row>
-    <row r="88" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" s="61" t="s">
-        <v>543</v>
-      </c>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="51"/>
-      <c r="J88" s="52"/>
-    </row>
-    <row r="89" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B89" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C89" s="47">
-        <v>54</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="F89" s="63" t="s">
-        <v>633</v>
       </c>
       <c r="G89" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H89" s="41"/>
       <c r="I89" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J89" s="46"/>
+    </row>
+    <row r="90" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B90" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" s="47">
+        <v>93</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="G90" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H90" s="41"/>
+      <c r="I90" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J90" s="46"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+    </row>
+    <row r="92" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="61" t="s">
+        <v>543</v>
+      </c>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="52"/>
+    </row>
+    <row r="93" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B93" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="47">
+        <v>54</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="F93" s="63" t="s">
+        <v>633</v>
+      </c>
+      <c r="G93" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H93" s="41"/>
+      <c r="I93" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J89" s="46"/>
-    </row>
-    <row r="90" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="49" t="s">
+      <c r="J93" s="46"/>
+    </row>
+    <row r="94" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="C90" s="61" t="s">
+      <c r="C94" s="61" t="s">
         <v>544</v>
       </c>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="51"/>
-      <c r="J90" s="52"/>
-    </row>
-    <row r="91" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B91" s="46" t="s">
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="52"/>
+    </row>
+    <row r="95" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B95" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="47">
+      <c r="C95" s="47">
         <v>55</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D95" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="E91" s="33" t="s">
+      <c r="E95" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="F91" s="33" t="s">
+      <c r="F95" s="33" t="s">
         <v>636</v>
-      </c>
-      <c r="G91" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H91" s="41"/>
-      <c r="I91" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J91" s="46"/>
-    </row>
-    <row r="92" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="62" t="s">
-        <v>522</v>
-      </c>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-    </row>
-    <row r="93" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="C93" s="61" t="s">
-        <v>545</v>
-      </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="51"/>
-      <c r="G93" s="51"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="51"/>
-      <c r="J93" s="52"/>
-    </row>
-    <row r="94" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B94" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C94" s="47">
-        <v>57</v>
-      </c>
-      <c r="D94" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="F94" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="G94" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H94" s="41"/>
-      <c r="I94" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J94" s="46"/>
-    </row>
-    <row r="95" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B95" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="47">
-        <v>58</v>
-      </c>
-      <c r="D95" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>637</v>
       </c>
       <c r="G95" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H95" s="41"/>
       <c r="I95" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J95" s="46"/>
+    </row>
+    <row r="96" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="62" t="s">
+        <v>522</v>
+      </c>
+      <c r="C96" s="62"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="62"/>
+    </row>
+    <row r="97" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="61" t="s">
+        <v>545</v>
+      </c>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="52"/>
+    </row>
+    <row r="98" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B98" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="47">
+        <v>57</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>641</v>
+      </c>
+      <c r="F98" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="G98" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H98" s="41"/>
+      <c r="I98" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J95" s="46"/>
-    </row>
-    <row r="96" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B96" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" s="47">
-        <v>59</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="E96" s="33" t="s">
-        <v>643</v>
-      </c>
-      <c r="F96" s="33" t="s">
+      <c r="J98" s="46"/>
+    </row>
+    <row r="99" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B99" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="47">
+        <v>58</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>639</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="F99" s="33" t="s">
         <v>637</v>
-      </c>
-      <c r="G96" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H96" s="41"/>
-      <c r="I96" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J96" s="46"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="62" t="s">
-        <v>523</v>
-      </c>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="62"/>
-    </row>
-    <row r="98" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="C98" s="61" t="s">
-        <v>546</v>
-      </c>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="52"/>
-    </row>
-    <row r="99" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B99" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C99" s="47">
-        <v>95</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>644</v>
       </c>
       <c r="G99" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H99" s="41"/>
       <c r="I99" s="33" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="J99" s="46"/>
     </row>
-    <row r="100" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B100" s="46" t="s">
-        <v>471</v>
+        <v>196</v>
       </c>
       <c r="C100" s="47">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>163</v>
+        <v>640</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="G100" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H100" s="41"/>
       <c r="I100" s="33" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="J100" s="46"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="62" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C101" s="62"/>
       <c r="D101" s="62"/>
@@ -8731,10 +8882,10 @@
     </row>
     <row r="102" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B102" s="49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C102" s="61" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="D102" s="51"/>
       <c r="E102" s="51"/>
@@ -8744,21 +8895,21 @@
       <c r="I102" s="51"/>
       <c r="J102" s="52"/>
     </row>
-    <row r="103" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B103" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C103" s="47">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F103" s="33" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G103" s="46" t="s">
         <v>97</v>
@@ -8769,21 +8920,21 @@
       </c>
       <c r="J103" s="46"/>
     </row>
-    <row r="104" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B104" s="46" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C104" s="47">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>651</v>
+        <v>163</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>649</v>
-      </c>
-      <c r="F104" s="63" t="s">
-        <v>653</v>
+        <v>648</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>645</v>
       </c>
       <c r="G104" s="46" t="s">
         <v>97</v>
@@ -8796,7 +8947,7 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="62" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C105" s="62"/>
       <c r="D105" s="62"/>
@@ -8809,10 +8960,10 @@
     </row>
     <row r="106" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B106" s="49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C106" s="61" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="D106" s="51"/>
       <c r="E106" s="51"/>
@@ -8822,1684 +8973,1714 @@
       <c r="I106" s="51"/>
       <c r="J106" s="52"/>
     </row>
-    <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B107" s="46" t="s">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c r="C107" s="47">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="G107" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H107" s="41"/>
       <c r="I107" s="33" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="J107" s="46"/>
     </row>
-    <row r="108" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B108" s="46" t="s">
-        <v>308</v>
+        <v>473</v>
       </c>
       <c r="C108" s="47">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>661</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>622</v>
+        <v>649</v>
+      </c>
+      <c r="F108" s="63" t="s">
+        <v>653</v>
       </c>
       <c r="G108" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H108" s="41"/>
       <c r="I108" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="46"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="62" t="s">
+        <v>525</v>
+      </c>
+      <c r="C109" s="62"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="62"/>
+    </row>
+    <row r="110" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C110" s="61" t="s">
+        <v>547</v>
+      </c>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="52"/>
+    </row>
+    <row r="111" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B111" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" s="47">
+        <v>99</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="F111" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="G111" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H111" s="41"/>
+      <c r="I111" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="J108" s="46"/>
-    </row>
-    <row r="109" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B109" s="46" t="s">
+      <c r="J111" s="46"/>
+    </row>
+    <row r="112" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B112" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="C112" s="47">
+        <v>100</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="E112" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="G112" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H112" s="41"/>
+      <c r="I112" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J112" s="46"/>
+    </row>
+    <row r="113" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B113" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="C109" s="47">
+      <c r="C113" s="47">
         <v>100</v>
       </c>
-      <c r="D109" s="33" t="s">
+      <c r="D113" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="E109" s="33" t="s">
+      <c r="E113" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="F109" s="33" t="s">
+      <c r="F113" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="G109" s="46" t="s">
+      <c r="G113" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H109" s="41"/>
-      <c r="I109" s="33" t="s">
+      <c r="H113" s="41"/>
+      <c r="I113" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="J109" s="46"/>
-    </row>
-    <row r="110" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B110" s="46" t="s">
+      <c r="J113" s="46"/>
+    </row>
+    <row r="114" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B114" s="46" t="s">
         <v>657</v>
       </c>
-      <c r="C110" s="47">
+      <c r="C114" s="47">
         <v>101</v>
       </c>
-      <c r="D110" s="33" t="s">
+      <c r="D114" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="E110" s="33" t="s">
+      <c r="E114" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="F110" s="33" t="s">
+      <c r="F114" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="G110" s="46" t="s">
+      <c r="G114" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H110" s="41"/>
-      <c r="I110" s="33" t="s">
+      <c r="H114" s="41"/>
+      <c r="I114" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="J110" s="46"/>
-    </row>
-    <row r="111" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="49" t="s">
+      <c r="J114" s="46"/>
+    </row>
+    <row r="115" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="C111" s="61" t="s">
+      <c r="C115" s="61" t="s">
         <v>548</v>
       </c>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="51"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="51"/>
-      <c r="J111" s="52"/>
-    </row>
-    <row r="112" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B112" s="84" t="s">
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="52"/>
+    </row>
+    <row r="116" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B116" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="C112" s="87">
+      <c r="C116" s="93">
         <v>102</v>
       </c>
-      <c r="D112" s="90" t="s">
+      <c r="D116" s="90" t="s">
         <v>513</v>
       </c>
-      <c r="E112" s="33" t="s">
+      <c r="E116" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="F112" s="33"/>
-      <c r="G112" s="84" t="s">
+      <c r="F116" s="33"/>
+      <c r="G116" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H112" s="81"/>
-      <c r="I112" s="87" t="s">
+      <c r="H116" s="96"/>
+      <c r="I116" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="J112" s="46"/>
-    </row>
-    <row r="113" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B113" s="85"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="91"/>
-      <c r="E113" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F113" s="33"/>
-      <c r="G113" s="85"/>
-      <c r="H113" s="82"/>
-      <c r="I113" s="88"/>
-      <c r="J113" s="46"/>
-    </row>
-    <row r="114" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B114" s="85"/>
-      <c r="C114" s="88"/>
-      <c r="D114" s="91"/>
-      <c r="E114" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="F114" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="G114" s="85"/>
-      <c r="H114" s="82"/>
-      <c r="I114" s="88"/>
-      <c r="J114" s="46"/>
-    </row>
-    <row r="115" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B115" s="85"/>
-      <c r="C115" s="88"/>
-      <c r="D115" s="91"/>
-      <c r="E115" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="F115" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="G115" s="85"/>
-      <c r="H115" s="82"/>
-      <c r="I115" s="88"/>
-      <c r="J115" s="46"/>
-    </row>
-    <row r="116" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B116" s="85"/>
-      <c r="C116" s="88"/>
-      <c r="D116" s="91"/>
-      <c r="E116" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F116" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="G116" s="85"/>
-      <c r="H116" s="82"/>
-      <c r="I116" s="88"/>
       <c r="J116" s="46"/>
     </row>
     <row r="117" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B117" s="85"/>
-      <c r="C117" s="88"/>
+      <c r="B117" s="88"/>
+      <c r="C117" s="94"/>
       <c r="D117" s="91"/>
       <c r="E117" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F117" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="G117" s="85"/>
-      <c r="H117" s="82"/>
-      <c r="I117" s="88"/>
+        <v>659</v>
+      </c>
+      <c r="F117" s="33"/>
+      <c r="G117" s="88"/>
+      <c r="H117" s="97"/>
+      <c r="I117" s="94"/>
       <c r="J117" s="46"/>
     </row>
     <row r="118" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B118" s="85"/>
-      <c r="C118" s="88"/>
+      <c r="B118" s="88"/>
+      <c r="C118" s="94"/>
       <c r="D118" s="91"/>
       <c r="E118" s="33" t="s">
-        <v>604</v>
+        <v>663</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="G118" s="85"/>
-      <c r="H118" s="82"/>
-      <c r="I118" s="88"/>
+        <v>508</v>
+      </c>
+      <c r="G118" s="88"/>
+      <c r="H118" s="97"/>
+      <c r="I118" s="94"/>
       <c r="J118" s="46"/>
     </row>
-    <row r="119" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B119" s="85"/>
-      <c r="C119" s="88"/>
+    <row r="119" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B119" s="88"/>
+      <c r="C119" s="94"/>
       <c r="D119" s="91"/>
       <c r="E119" s="33" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G119" s="85"/>
-      <c r="H119" s="82"/>
-      <c r="I119" s="88"/>
+        <v>509</v>
+      </c>
+      <c r="G119" s="88"/>
+      <c r="H119" s="97"/>
+      <c r="I119" s="94"/>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B120" s="86"/>
-      <c r="C120" s="89"/>
-      <c r="D120" s="92"/>
+    <row r="120" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B120" s="88"/>
+      <c r="C120" s="94"/>
+      <c r="D120" s="91"/>
       <c r="E120" s="33" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G120" s="86"/>
-      <c r="H120" s="83"/>
-      <c r="I120" s="89"/>
+        <v>510</v>
+      </c>
+      <c r="G120" s="88"/>
+      <c r="H120" s="97"/>
+      <c r="I120" s="94"/>
       <c r="J120" s="46"/>
     </row>
-    <row r="121" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B121" s="84" t="s">
-        <v>340</v>
-      </c>
-      <c r="D121" s="90" t="s">
-        <v>514</v>
-      </c>
+    <row r="121" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B121" s="88"/>
+      <c r="C121" s="94"/>
+      <c r="D121" s="91"/>
       <c r="E121" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F121" s="33"/>
-      <c r="G121" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H121" s="81"/>
-      <c r="I121" s="87" t="s">
-        <v>140</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="F121" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="G121" s="88"/>
+      <c r="H121" s="97"/>
+      <c r="I121" s="94"/>
       <c r="J121" s="46"/>
     </row>
-    <row r="122" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B122" s="85"/>
+    <row r="122" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B122" s="88"/>
+      <c r="C122" s="94"/>
       <c r="D122" s="91"/>
       <c r="E122" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F122" s="33"/>
-      <c r="G122" s="85"/>
-      <c r="H122" s="82"/>
-      <c r="I122" s="88"/>
+        <v>604</v>
+      </c>
+      <c r="F122" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="G122" s="88"/>
+      <c r="H122" s="97"/>
+      <c r="I122" s="94"/>
       <c r="J122" s="46"/>
     </row>
-    <row r="123" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B123" s="85"/>
+    <row r="123" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B123" s="88"/>
+      <c r="C123" s="94"/>
       <c r="D123" s="91"/>
       <c r="E123" s="33" t="s">
-        <v>663</v>
+        <v>605</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="G123" s="85"/>
-      <c r="H123" s="82"/>
-      <c r="I123" s="88"/>
+        <v>620</v>
+      </c>
+      <c r="G123" s="88"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="94"/>
       <c r="J123" s="46"/>
     </row>
-    <row r="124" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B124" s="85"/>
-      <c r="D124" s="91"/>
+    <row r="124" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B124" s="89"/>
+      <c r="C124" s="95"/>
+      <c r="D124" s="92"/>
       <c r="E124" s="33" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="G124" s="85"/>
-      <c r="H124" s="82"/>
-      <c r="I124" s="88"/>
+        <v>621</v>
+      </c>
+      <c r="G124" s="89"/>
+      <c r="H124" s="98"/>
+      <c r="I124" s="95"/>
       <c r="J124" s="46"/>
     </row>
-    <row r="125" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B125" s="85"/>
-      <c r="D125" s="91"/>
+    <row r="125" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B125" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="D125" s="90" t="s">
+        <v>514</v>
+      </c>
       <c r="E125" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="G125" s="85"/>
-      <c r="H125" s="82"/>
-      <c r="I125" s="88"/>
+        <v>607</v>
+      </c>
+      <c r="F125" s="33"/>
+      <c r="G125" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H125" s="96"/>
+      <c r="I125" s="93" t="s">
+        <v>140</v>
+      </c>
       <c r="J125" s="46"/>
     </row>
     <row r="126" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B126" s="85"/>
+      <c r="B126" s="88"/>
       <c r="D126" s="91"/>
       <c r="E126" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F126" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="G126" s="85"/>
-      <c r="H126" s="82"/>
-      <c r="I126" s="88"/>
+        <v>659</v>
+      </c>
+      <c r="F126" s="33"/>
+      <c r="G126" s="88"/>
+      <c r="H126" s="97"/>
+      <c r="I126" s="94"/>
       <c r="J126" s="46"/>
     </row>
     <row r="127" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B127" s="85"/>
+      <c r="B127" s="88"/>
       <c r="D127" s="91"/>
       <c r="E127" s="33" t="s">
-        <v>604</v>
+        <v>663</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="G127" s="85"/>
-      <c r="H127" s="82"/>
-      <c r="I127" s="88"/>
+        <v>508</v>
+      </c>
+      <c r="G127" s="88"/>
+      <c r="H127" s="97"/>
+      <c r="I127" s="94"/>
       <c r="J127" s="46"/>
     </row>
-    <row r="128" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B128" s="85"/>
+    <row r="128" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B128" s="88"/>
       <c r="D128" s="91"/>
       <c r="E128" s="33" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G128" s="85"/>
-      <c r="H128" s="82"/>
-      <c r="I128" s="88"/>
+        <v>509</v>
+      </c>
+      <c r="G128" s="88"/>
+      <c r="H128" s="97"/>
+      <c r="I128" s="94"/>
       <c r="J128" s="46"/>
     </row>
-    <row r="129" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B129" s="86"/>
-      <c r="D129" s="92"/>
+    <row r="129" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B129" s="88"/>
+      <c r="D129" s="91"/>
       <c r="E129" s="33" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G129" s="86"/>
-      <c r="H129" s="83"/>
-      <c r="I129" s="89"/>
+        <v>510</v>
+      </c>
+      <c r="G129" s="88"/>
+      <c r="H129" s="97"/>
+      <c r="I129" s="94"/>
       <c r="J129" s="46"/>
     </row>
-    <row r="130" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B130" s="84" t="s">
-        <v>341</v>
-      </c>
-      <c r="C130" s="87">
-        <v>103</v>
-      </c>
-      <c r="D130" s="90" t="s">
-        <v>515</v>
-      </c>
+    <row r="130" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B130" s="88"/>
+      <c r="D130" s="91"/>
       <c r="E130" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F130" s="33"/>
-      <c r="G130" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H130" s="81"/>
-      <c r="I130" s="87" t="s">
-        <v>140</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="F130" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="G130" s="88"/>
+      <c r="H130" s="97"/>
+      <c r="I130" s="94"/>
       <c r="J130" s="46"/>
     </row>
     <row r="131" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B131" s="85"/>
-      <c r="C131" s="88"/>
+      <c r="B131" s="88"/>
       <c r="D131" s="91"/>
       <c r="E131" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F131" s="33"/>
-      <c r="G131" s="85"/>
-      <c r="H131" s="82"/>
-      <c r="I131" s="88"/>
+        <v>604</v>
+      </c>
+      <c r="F131" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="G131" s="88"/>
+      <c r="H131" s="97"/>
+      <c r="I131" s="94"/>
       <c r="J131" s="46"/>
     </row>
-    <row r="132" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B132" s="85"/>
-      <c r="C132" s="88"/>
+    <row r="132" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B132" s="88"/>
       <c r="D132" s="91"/>
       <c r="E132" s="33" t="s">
-        <v>663</v>
+        <v>605</v>
       </c>
       <c r="F132" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="G132" s="85"/>
-      <c r="H132" s="82"/>
-      <c r="I132" s="88"/>
+        <v>620</v>
+      </c>
+      <c r="G132" s="88"/>
+      <c r="H132" s="97"/>
+      <c r="I132" s="94"/>
       <c r="J132" s="46"/>
     </row>
-    <row r="133" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B133" s="85"/>
-      <c r="C133" s="88"/>
-      <c r="D133" s="91"/>
+    <row r="133" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B133" s="89"/>
+      <c r="D133" s="92"/>
       <c r="E133" s="33" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="G133" s="85"/>
-      <c r="H133" s="82"/>
-      <c r="I133" s="88"/>
+        <v>621</v>
+      </c>
+      <c r="G133" s="89"/>
+      <c r="H133" s="98"/>
+      <c r="I133" s="95"/>
       <c r="J133" s="46"/>
     </row>
-    <row r="134" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B134" s="85"/>
-      <c r="C134" s="88"/>
-      <c r="D134" s="91"/>
+    <row r="134" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B134" s="87" t="s">
+        <v>341</v>
+      </c>
+      <c r="C134" s="93">
+        <v>103</v>
+      </c>
+      <c r="D134" s="90" t="s">
+        <v>515</v>
+      </c>
       <c r="E134" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F134" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="G134" s="85"/>
-      <c r="H134" s="82"/>
-      <c r="I134" s="88"/>
+        <v>607</v>
+      </c>
+      <c r="F134" s="33"/>
+      <c r="G134" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H134" s="96"/>
+      <c r="I134" s="93" t="s">
+        <v>140</v>
+      </c>
       <c r="J134" s="46"/>
     </row>
     <row r="135" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B135" s="85"/>
-      <c r="C135" s="88"/>
+      <c r="B135" s="88"/>
+      <c r="C135" s="94"/>
       <c r="D135" s="91"/>
       <c r="E135" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="G135" s="85"/>
-      <c r="H135" s="82"/>
-      <c r="I135" s="88"/>
+        <v>659</v>
+      </c>
+      <c r="F135" s="33"/>
+      <c r="G135" s="88"/>
+      <c r="H135" s="97"/>
+      <c r="I135" s="94"/>
       <c r="J135" s="46"/>
     </row>
     <row r="136" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B136" s="85"/>
-      <c r="C136" s="88"/>
+      <c r="B136" s="88"/>
+      <c r="C136" s="94"/>
       <c r="D136" s="91"/>
       <c r="E136" s="33" t="s">
-        <v>604</v>
+        <v>663</v>
       </c>
       <c r="F136" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="G136" s="85"/>
-      <c r="H136" s="82"/>
-      <c r="I136" s="88"/>
+        <v>508</v>
+      </c>
+      <c r="G136" s="88"/>
+      <c r="H136" s="97"/>
+      <c r="I136" s="94"/>
       <c r="J136" s="46"/>
     </row>
-    <row r="137" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B137" s="85"/>
-      <c r="C137" s="88"/>
+    <row r="137" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B137" s="88"/>
+      <c r="C137" s="94"/>
       <c r="D137" s="91"/>
       <c r="E137" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="G137" s="88"/>
+      <c r="H137" s="97"/>
+      <c r="I137" s="94"/>
+      <c r="J137" s="46"/>
+    </row>
+    <row r="138" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B138" s="88"/>
+      <c r="C138" s="94"/>
+      <c r="D138" s="91"/>
+      <c r="E138" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="G138" s="88"/>
+      <c r="H138" s="97"/>
+      <c r="I138" s="94"/>
+      <c r="J138" s="46"/>
+    </row>
+    <row r="139" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B139" s="88"/>
+      <c r="C139" s="94"/>
+      <c r="D139" s="91"/>
+      <c r="E139" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="F139" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="G139" s="88"/>
+      <c r="H139" s="97"/>
+      <c r="I139" s="94"/>
+      <c r="J139" s="46"/>
+    </row>
+    <row r="140" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B140" s="88"/>
+      <c r="C140" s="94"/>
+      <c r="D140" s="91"/>
+      <c r="E140" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="F140" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="G140" s="88"/>
+      <c r="H140" s="97"/>
+      <c r="I140" s="94"/>
+      <c r="J140" s="46"/>
+    </row>
+    <row r="141" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B141" s="88"/>
+      <c r="C141" s="94"/>
+      <c r="D141" s="91"/>
+      <c r="E141" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="F137" s="33" t="s">
+      <c r="F141" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="G137" s="85"/>
-      <c r="H137" s="82"/>
-      <c r="I137" s="88"/>
-      <c r="J137" s="46"/>
-    </row>
-    <row r="138" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B138" s="86"/>
-      <c r="C138" s="89"/>
-      <c r="D138" s="92"/>
-      <c r="E138" s="33" t="s">
+      <c r="G141" s="88"/>
+      <c r="H141" s="97"/>
+      <c r="I141" s="94"/>
+      <c r="J141" s="46"/>
+    </row>
+    <row r="142" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B142" s="89"/>
+      <c r="C142" s="95"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="F138" s="33" t="s">
+      <c r="F142" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="G138" s="86"/>
-      <c r="H138" s="83"/>
-      <c r="I138" s="89"/>
-      <c r="J138" s="46"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="62" t="s">
+      <c r="G142" s="89"/>
+      <c r="H142" s="98"/>
+      <c r="I142" s="95"/>
+      <c r="J142" s="46"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="62" t="s">
         <v>526</v>
       </c>
-      <c r="C139" s="62"/>
-      <c r="D139" s="62"/>
-      <c r="E139" s="62"/>
-      <c r="F139" s="62"/>
-      <c r="G139" s="62"/>
-      <c r="H139" s="62"/>
-      <c r="I139" s="62"/>
-      <c r="J139" s="62"/>
-    </row>
-    <row r="140" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="49" t="s">
+      <c r="C143" s="62"/>
+      <c r="D143" s="62"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="62"/>
+      <c r="H143" s="62"/>
+      <c r="I143" s="62"/>
+      <c r="J143" s="62"/>
+    </row>
+    <row r="144" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="C140" s="61" t="s">
+      <c r="C144" s="61" t="s">
         <v>549</v>
       </c>
-      <c r="D140" s="51"/>
-      <c r="E140" s="51"/>
-      <c r="F140" s="51"/>
-      <c r="G140" s="51"/>
-      <c r="H140" s="51"/>
-      <c r="I140" s="51"/>
-      <c r="J140" s="52"/>
-    </row>
-    <row r="141" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B141" s="84" t="s">
+      <c r="D144" s="51"/>
+      <c r="E144" s="51"/>
+      <c r="F144" s="51"/>
+      <c r="G144" s="51"/>
+      <c r="H144" s="51"/>
+      <c r="I144" s="51"/>
+      <c r="J144" s="52"/>
+    </row>
+    <row r="145" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B145" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="C141" s="84"/>
-      <c r="D141" s="90" t="s">
+      <c r="C145" s="87"/>
+      <c r="D145" s="90" t="s">
         <v>664</v>
       </c>
-      <c r="E141" s="33" t="s">
+      <c r="E145" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="F141" s="33"/>
-      <c r="G141" s="84" t="s">
+      <c r="F145" s="33"/>
+      <c r="G145" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H141" s="81"/>
-      <c r="I141" s="87" t="s">
+      <c r="H145" s="96"/>
+      <c r="I145" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="J141" s="46"/>
-    </row>
-    <row r="142" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B142" s="85"/>
-      <c r="C142" s="85"/>
-      <c r="D142" s="91"/>
-      <c r="E142" s="33" t="s">
+      <c r="J145" s="46"/>
+    </row>
+    <row r="146" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B146" s="88"/>
+      <c r="C146" s="88"/>
+      <c r="D146" s="91"/>
+      <c r="E146" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="F142" s="33"/>
-      <c r="G142" s="85"/>
-      <c r="H142" s="82"/>
-      <c r="I142" s="88"/>
-      <c r="J142" s="46"/>
-    </row>
-    <row r="143" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B143" s="85"/>
-      <c r="C143" s="85"/>
-      <c r="D143" s="91"/>
-      <c r="E143" s="33" t="s">
+      <c r="F146" s="33"/>
+      <c r="G146" s="88"/>
+      <c r="H146" s="97"/>
+      <c r="I146" s="94"/>
+      <c r="J146" s="46"/>
+    </row>
+    <row r="147" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B147" s="88"/>
+      <c r="C147" s="88"/>
+      <c r="D147" s="91"/>
+      <c r="E147" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="F143" s="33"/>
-      <c r="G143" s="85"/>
-      <c r="H143" s="82"/>
-      <c r="I143" s="88"/>
-      <c r="J143" s="46"/>
-    </row>
-    <row r="144" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B144" s="85"/>
-      <c r="C144" s="85"/>
-      <c r="D144" s="91"/>
-      <c r="E144" s="33" t="s">
-        <v>669</v>
-      </c>
-      <c r="F144" s="33"/>
-      <c r="G144" s="85"/>
-      <c r="H144" s="82"/>
-      <c r="I144" s="88"/>
-      <c r="J144" s="46"/>
-    </row>
-    <row r="145" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B145" s="86"/>
-      <c r="C145" s="86"/>
-      <c r="D145" s="92"/>
-      <c r="E145" s="33" t="s">
-        <v>670</v>
-      </c>
-      <c r="F145" s="33" t="s">
-        <v>666</v>
-      </c>
-      <c r="G145" s="86"/>
-      <c r="H145" s="83"/>
-      <c r="I145" s="89"/>
-      <c r="J145" s="46"/>
-    </row>
-    <row r="146" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="49" t="s">
-        <v>362</v>
-      </c>
-      <c r="C146" s="61" t="s">
-        <v>550</v>
-      </c>
-      <c r="D146" s="51"/>
-      <c r="E146" s="51"/>
-      <c r="F146" s="51"/>
-      <c r="G146" s="51"/>
-      <c r="H146" s="51"/>
-      <c r="I146" s="51"/>
-      <c r="J146" s="52"/>
-    </row>
-    <row r="147" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B147" s="84" t="s">
-        <v>353</v>
-      </c>
-      <c r="C147" s="84"/>
-      <c r="D147" s="90" t="s">
-        <v>671</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>673</v>
-      </c>
       <c r="F147" s="33"/>
-      <c r="G147" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H147" s="81"/>
-      <c r="I147" s="87" t="s">
-        <v>460</v>
-      </c>
+      <c r="G147" s="88"/>
+      <c r="H147" s="97"/>
+      <c r="I147" s="94"/>
       <c r="J147" s="46"/>
     </row>
     <row r="148" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B148" s="85"/>
-      <c r="C148" s="85"/>
+      <c r="B148" s="88"/>
+      <c r="C148" s="88"/>
       <c r="D148" s="91"/>
       <c r="E148" s="33" t="s">
+        <v>669</v>
+      </c>
+      <c r="F148" s="33"/>
+      <c r="G148" s="88"/>
+      <c r="H148" s="97"/>
+      <c r="I148" s="94"/>
+      <c r="J148" s="46"/>
+    </row>
+    <row r="149" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B149" s="89"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="92"/>
+      <c r="E149" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="F149" s="33" t="s">
+        <v>666</v>
+      </c>
+      <c r="G149" s="89"/>
+      <c r="H149" s="98"/>
+      <c r="I149" s="95"/>
+      <c r="J149" s="46"/>
+    </row>
+    <row r="150" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="C150" s="61" t="s">
+        <v>550</v>
+      </c>
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="51"/>
+      <c r="G150" s="51"/>
+      <c r="H150" s="51"/>
+      <c r="I150" s="51"/>
+      <c r="J150" s="52"/>
+    </row>
+    <row r="151" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B151" s="87" t="s">
+        <v>353</v>
+      </c>
+      <c r="C151" s="87"/>
+      <c r="D151" s="90" t="s">
+        <v>671</v>
+      </c>
+      <c r="E151" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="F151" s="33"/>
+      <c r="G151" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H151" s="96"/>
+      <c r="I151" s="93" t="s">
+        <v>460</v>
+      </c>
+      <c r="J151" s="46"/>
+    </row>
+    <row r="152" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B152" s="88"/>
+      <c r="C152" s="88"/>
+      <c r="D152" s="91"/>
+      <c r="E152" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="F148" s="33"/>
-      <c r="G148" s="85"/>
-      <c r="H148" s="82"/>
-      <c r="I148" s="88"/>
-      <c r="J148" s="46"/>
-    </row>
-    <row r="149" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B149" s="85"/>
-      <c r="C149" s="85"/>
-      <c r="D149" s="91"/>
-      <c r="E149" s="33" t="s">
+      <c r="F152" s="33"/>
+      <c r="G152" s="88"/>
+      <c r="H152" s="97"/>
+      <c r="I152" s="94"/>
+      <c r="J152" s="46"/>
+    </row>
+    <row r="153" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B153" s="88"/>
+      <c r="C153" s="88"/>
+      <c r="D153" s="91"/>
+      <c r="E153" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="F149" s="33"/>
-      <c r="G149" s="85"/>
-      <c r="H149" s="82"/>
-      <c r="I149" s="88"/>
-      <c r="J149" s="46"/>
-    </row>
-    <row r="150" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B150" s="85"/>
-      <c r="C150" s="85"/>
-      <c r="D150" s="91"/>
-      <c r="E150" s="33" t="s">
+      <c r="F153" s="33"/>
+      <c r="G153" s="88"/>
+      <c r="H153" s="97"/>
+      <c r="I153" s="94"/>
+      <c r="J153" s="46"/>
+    </row>
+    <row r="154" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B154" s="88"/>
+      <c r="C154" s="88"/>
+      <c r="D154" s="91"/>
+      <c r="E154" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="F150" s="33"/>
-      <c r="G150" s="85"/>
-      <c r="H150" s="82"/>
-      <c r="I150" s="88"/>
-      <c r="J150" s="46"/>
-    </row>
-    <row r="151" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B151" s="85"/>
-      <c r="C151" s="85"/>
-      <c r="D151" s="91"/>
-      <c r="E151" s="33" t="s">
+      <c r="F154" s="33"/>
+      <c r="G154" s="88"/>
+      <c r="H154" s="97"/>
+      <c r="I154" s="94"/>
+      <c r="J154" s="46"/>
+    </row>
+    <row r="155" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B155" s="88"/>
+      <c r="C155" s="88"/>
+      <c r="D155" s="91"/>
+      <c r="E155" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="F151" s="33"/>
-      <c r="G151" s="85"/>
-      <c r="H151" s="82"/>
-      <c r="I151" s="88"/>
-      <c r="J151" s="46"/>
-    </row>
-    <row r="152" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B152" s="86"/>
-      <c r="C152" s="86"/>
-      <c r="D152" s="92"/>
-      <c r="E152" s="33" t="s">
+      <c r="F155" s="33"/>
+      <c r="G155" s="88"/>
+      <c r="H155" s="97"/>
+      <c r="I155" s="94"/>
+      <c r="J155" s="46"/>
+    </row>
+    <row r="156" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B156" s="89"/>
+      <c r="C156" s="89"/>
+      <c r="D156" s="92"/>
+      <c r="E156" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="F152" s="33" t="s">
+      <c r="F156" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="G152" s="86"/>
-      <c r="H152" s="83"/>
-      <c r="I152" s="89"/>
-      <c r="J152" s="46"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="62" t="s">
+      <c r="G156" s="89"/>
+      <c r="H156" s="98"/>
+      <c r="I156" s="95"/>
+      <c r="J156" s="46"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="62" t="s">
         <v>527</v>
       </c>
-      <c r="C153" s="62"/>
-      <c r="D153" s="62"/>
-      <c r="E153" s="62"/>
-      <c r="F153" s="62"/>
-      <c r="G153" s="62"/>
-      <c r="H153" s="62"/>
-      <c r="I153" s="62"/>
-      <c r="J153" s="62"/>
-    </row>
-    <row r="154" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="49" t="s">
+      <c r="C157" s="62"/>
+      <c r="D157" s="62"/>
+      <c r="E157" s="62"/>
+      <c r="F157" s="62"/>
+      <c r="G157" s="62"/>
+      <c r="H157" s="62"/>
+      <c r="I157" s="62"/>
+      <c r="J157" s="62"/>
+    </row>
+    <row r="158" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="C154" s="61" t="s">
+      <c r="C158" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="D154" s="51"/>
-      <c r="E154" s="51"/>
-      <c r="F154" s="51"/>
-      <c r="G154" s="51"/>
-      <c r="H154" s="51"/>
-      <c r="I154" s="51"/>
-      <c r="J154" s="52"/>
-    </row>
-    <row r="155" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B155" s="84" t="s">
+      <c r="D158" s="51"/>
+      <c r="E158" s="51"/>
+      <c r="F158" s="51"/>
+      <c r="G158" s="51"/>
+      <c r="H158" s="51"/>
+      <c r="I158" s="51"/>
+      <c r="J158" s="52"/>
+    </row>
+    <row r="159" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B159" s="87" t="s">
         <v>365</v>
       </c>
-      <c r="C155" s="84"/>
-      <c r="D155" s="90" t="s">
+      <c r="C159" s="87"/>
+      <c r="D159" s="90" t="s">
         <v>681</v>
       </c>
-      <c r="E155" s="33" t="s">
+      <c r="E159" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="F155" s="33"/>
-      <c r="G155" s="84" t="s">
+      <c r="F159" s="33"/>
+      <c r="G159" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H155" s="81"/>
-      <c r="I155" s="87" t="s">
+      <c r="H159" s="96"/>
+      <c r="I159" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="J155" s="46"/>
-    </row>
-    <row r="156" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B156" s="85"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="33" t="s">
+      <c r="J159" s="46"/>
+    </row>
+    <row r="160" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B160" s="88"/>
+      <c r="C160" s="88"/>
+      <c r="D160" s="91"/>
+      <c r="E160" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="F156" s="33"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="82"/>
-      <c r="I156" s="88"/>
-      <c r="J156" s="46"/>
-    </row>
-    <row r="157" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B157" s="85"/>
-      <c r="C157" s="85"/>
-      <c r="D157" s="91"/>
-      <c r="E157" s="33" t="s">
+      <c r="F160" s="33"/>
+      <c r="G160" s="88"/>
+      <c r="H160" s="97"/>
+      <c r="I160" s="94"/>
+      <c r="J160" s="46"/>
+    </row>
+    <row r="161" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B161" s="88"/>
+      <c r="C161" s="88"/>
+      <c r="D161" s="91"/>
+      <c r="E161" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="F157" s="33"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="82"/>
-      <c r="I157" s="88"/>
-      <c r="J157" s="46"/>
-    </row>
-    <row r="158" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B158" s="85"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="91"/>
-      <c r="E158" s="33" t="s">
+      <c r="F161" s="33"/>
+      <c r="G161" s="88"/>
+      <c r="H161" s="97"/>
+      <c r="I161" s="94"/>
+      <c r="J161" s="46"/>
+    </row>
+    <row r="162" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B162" s="88"/>
+      <c r="C162" s="88"/>
+      <c r="D162" s="91"/>
+      <c r="E162" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="F158" s="33"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="82"/>
-      <c r="I158" s="88"/>
-      <c r="J158" s="46"/>
-    </row>
-    <row r="159" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B159" s="85"/>
-      <c r="C159" s="85"/>
-      <c r="D159" s="91"/>
-      <c r="E159" s="33" t="s">
+      <c r="F162" s="33"/>
+      <c r="G162" s="88"/>
+      <c r="H162" s="97"/>
+      <c r="I162" s="94"/>
+      <c r="J162" s="46"/>
+    </row>
+    <row r="163" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B163" s="88"/>
+      <c r="C163" s="88"/>
+      <c r="D163" s="91"/>
+      <c r="E163" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="F159" s="33"/>
-      <c r="G159" s="85"/>
-      <c r="H159" s="82"/>
-      <c r="I159" s="88"/>
-      <c r="J159" s="46"/>
-    </row>
-    <row r="160" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B160" s="86"/>
-      <c r="C160" s="86"/>
-      <c r="D160" s="92"/>
-      <c r="E160" s="33" t="s">
+      <c r="F163" s="33"/>
+      <c r="G163" s="88"/>
+      <c r="H163" s="97"/>
+      <c r="I163" s="94"/>
+      <c r="J163" s="46"/>
+    </row>
+    <row r="164" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B164" s="89"/>
+      <c r="C164" s="89"/>
+      <c r="D164" s="92"/>
+      <c r="E164" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="F160" s="33" t="s">
+      <c r="F164" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="G160" s="86"/>
-      <c r="H160" s="83"/>
-      <c r="I160" s="89"/>
-      <c r="J160" s="46"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B161" s="62" t="s">
+      <c r="G164" s="89"/>
+      <c r="H164" s="98"/>
+      <c r="I164" s="95"/>
+      <c r="J164" s="46"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="62" t="s">
         <v>528</v>
       </c>
-      <c r="C161" s="62"/>
-      <c r="D161" s="62"/>
-      <c r="E161" s="62"/>
-      <c r="F161" s="62"/>
-      <c r="G161" s="62"/>
-      <c r="H161" s="62"/>
-      <c r="I161" s="62"/>
-      <c r="J161" s="62"/>
-    </row>
-    <row r="162" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="49" t="s">
+      <c r="C165" s="62"/>
+      <c r="D165" s="62"/>
+      <c r="E165" s="62"/>
+      <c r="F165" s="62"/>
+      <c r="G165" s="62"/>
+      <c r="H165" s="62"/>
+      <c r="I165" s="62"/>
+      <c r="J165" s="62"/>
+    </row>
+    <row r="166" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="C162" s="61" t="s">
+      <c r="C166" s="61" t="s">
         <v>552</v>
       </c>
-      <c r="D162" s="51"/>
-      <c r="E162" s="51"/>
-      <c r="F162" s="51"/>
-      <c r="G162" s="51"/>
-      <c r="H162" s="51"/>
-      <c r="I162" s="51"/>
-      <c r="J162" s="52"/>
-    </row>
-    <row r="163" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B163" s="84" t="s">
+      <c r="D166" s="51"/>
+      <c r="E166" s="51"/>
+      <c r="F166" s="51"/>
+      <c r="G166" s="51"/>
+      <c r="H166" s="51"/>
+      <c r="I166" s="51"/>
+      <c r="J166" s="52"/>
+    </row>
+    <row r="167" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B167" s="87" t="s">
         <v>367</v>
       </c>
-      <c r="C163" s="84"/>
-      <c r="D163" s="90" t="s">
+      <c r="C167" s="87"/>
+      <c r="D167" s="90" t="s">
         <v>682</v>
       </c>
-      <c r="E163" s="33" t="s">
+      <c r="E167" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="F163" s="33"/>
-      <c r="G163" s="84" t="s">
+      <c r="F167" s="33"/>
+      <c r="G167" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H163" s="81"/>
-      <c r="I163" s="87" t="s">
+      <c r="H167" s="96"/>
+      <c r="I167" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="J163" s="46"/>
-    </row>
-    <row r="164" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B164" s="85"/>
-      <c r="C164" s="85"/>
-      <c r="D164" s="91"/>
-      <c r="E164" s="33" t="s">
+      <c r="J167" s="46"/>
+    </row>
+    <row r="168" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B168" s="88"/>
+      <c r="C168" s="88"/>
+      <c r="D168" s="91"/>
+      <c r="E168" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="F164" s="33"/>
-      <c r="G164" s="85"/>
-      <c r="H164" s="82"/>
-      <c r="I164" s="88"/>
-      <c r="J164" s="46"/>
-    </row>
-    <row r="165" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B165" s="85"/>
-      <c r="C165" s="85"/>
-      <c r="D165" s="91"/>
-      <c r="E165" s="33" t="s">
+      <c r="F168" s="33"/>
+      <c r="G168" s="88"/>
+      <c r="H168" s="97"/>
+      <c r="I168" s="94"/>
+      <c r="J168" s="46"/>
+    </row>
+    <row r="169" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B169" s="88"/>
+      <c r="C169" s="88"/>
+      <c r="D169" s="91"/>
+      <c r="E169" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="F165" s="33"/>
-      <c r="G165" s="85"/>
-      <c r="H165" s="82"/>
-      <c r="I165" s="88"/>
-      <c r="J165" s="46"/>
-    </row>
-    <row r="166" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B166" s="85"/>
-      <c r="C166" s="85"/>
-      <c r="D166" s="91"/>
-      <c r="E166" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="F166" s="33"/>
-      <c r="G166" s="85"/>
-      <c r="H166" s="82"/>
-      <c r="I166" s="88"/>
-      <c r="J166" s="46"/>
-    </row>
-    <row r="167" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B167" s="86"/>
-      <c r="C167" s="86"/>
-      <c r="D167" s="92"/>
-      <c r="E167" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="F167" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="G167" s="86"/>
-      <c r="H167" s="83"/>
-      <c r="I167" s="89"/>
-      <c r="J167" s="46"/>
-    </row>
-    <row r="168" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="C168" s="61" t="s">
-        <v>553</v>
-      </c>
-      <c r="D168" s="51"/>
-      <c r="E168" s="51"/>
-      <c r="F168" s="51"/>
-      <c r="G168" s="51"/>
-      <c r="H168" s="51"/>
-      <c r="I168" s="51"/>
-      <c r="J168" s="52"/>
-    </row>
-    <row r="169" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B169" s="84" t="s">
-        <v>371</v>
-      </c>
-      <c r="C169" s="84"/>
-      <c r="D169" s="90" t="s">
-        <v>687</v>
-      </c>
-      <c r="E169" s="33" t="s">
-        <v>690</v>
-      </c>
       <c r="F169" s="33"/>
-      <c r="G169" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H169" s="81"/>
-      <c r="I169" s="87" t="s">
-        <v>208</v>
-      </c>
+      <c r="G169" s="88"/>
+      <c r="H169" s="97"/>
+      <c r="I169" s="94"/>
       <c r="J169" s="46"/>
     </row>
-    <row r="170" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B170" s="85"/>
-      <c r="C170" s="85"/>
+    <row r="170" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B170" s="88"/>
+      <c r="C170" s="88"/>
       <c r="D170" s="91"/>
       <c r="E170" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="F170" s="33"/>
+      <c r="G170" s="88"/>
+      <c r="H170" s="97"/>
+      <c r="I170" s="94"/>
+      <c r="J170" s="46"/>
+    </row>
+    <row r="171" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B171" s="89"/>
+      <c r="C171" s="89"/>
+      <c r="D171" s="92"/>
+      <c r="E171" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="F171" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="G171" s="89"/>
+      <c r="H171" s="98"/>
+      <c r="I171" s="95"/>
+      <c r="J171" s="46"/>
+    </row>
+    <row r="172" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="C172" s="61" t="s">
+        <v>553</v>
+      </c>
+      <c r="D172" s="51"/>
+      <c r="E172" s="51"/>
+      <c r="F172" s="51"/>
+      <c r="G172" s="51"/>
+      <c r="H172" s="51"/>
+      <c r="I172" s="51"/>
+      <c r="J172" s="52"/>
+    </row>
+    <row r="173" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B173" s="87" t="s">
+        <v>371</v>
+      </c>
+      <c r="C173" s="87"/>
+      <c r="D173" s="90" t="s">
+        <v>687</v>
+      </c>
+      <c r="E173" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="F173" s="33"/>
+      <c r="G173" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H173" s="96"/>
+      <c r="I173" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="J173" s="46"/>
+    </row>
+    <row r="174" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B174" s="88"/>
+      <c r="C174" s="88"/>
+      <c r="D174" s="91"/>
+      <c r="E174" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="F170" s="33"/>
-      <c r="G170" s="85"/>
-      <c r="H170" s="82"/>
-      <c r="I170" s="88"/>
-      <c r="J170" s="46"/>
-    </row>
-    <row r="171" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B171" s="85"/>
-      <c r="C171" s="85"/>
-      <c r="D171" s="91"/>
-      <c r="E171" s="33" t="s">
+      <c r="F174" s="33"/>
+      <c r="G174" s="88"/>
+      <c r="H174" s="97"/>
+      <c r="I174" s="94"/>
+      <c r="J174" s="46"/>
+    </row>
+    <row r="175" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B175" s="88"/>
+      <c r="C175" s="88"/>
+      <c r="D175" s="91"/>
+      <c r="E175" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="F171" s="33"/>
-      <c r="G171" s="85"/>
-      <c r="H171" s="82"/>
-      <c r="I171" s="88"/>
-      <c r="J171" s="46"/>
-    </row>
-    <row r="172" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B172" s="85"/>
-      <c r="C172" s="85"/>
-      <c r="D172" s="91"/>
-      <c r="E172" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="F172" s="33"/>
-      <c r="G172" s="85"/>
-      <c r="H172" s="82"/>
-      <c r="I172" s="88"/>
-      <c r="J172" s="46"/>
-    </row>
-    <row r="173" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B173" s="86"/>
-      <c r="C173" s="86"/>
-      <c r="D173" s="92"/>
-      <c r="E173" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="F173" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="G173" s="86"/>
-      <c r="H173" s="83"/>
-      <c r="I173" s="89"/>
-      <c r="J173" s="46"/>
-    </row>
-    <row r="174" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="49" t="s">
-        <v>386</v>
-      </c>
-      <c r="C174" s="61" t="s">
-        <v>554</v>
-      </c>
-      <c r="D174" s="51"/>
-      <c r="E174" s="51"/>
-      <c r="F174" s="51"/>
-      <c r="G174" s="51"/>
-      <c r="H174" s="51"/>
-      <c r="I174" s="51"/>
-      <c r="J174" s="52"/>
-    </row>
-    <row r="175" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B175" s="84" t="s">
-        <v>396</v>
-      </c>
-      <c r="C175" s="84"/>
-      <c r="D175" s="90" t="s">
-        <v>688</v>
-      </c>
-      <c r="E175" s="33" t="s">
-        <v>691</v>
-      </c>
       <c r="F175" s="33"/>
-      <c r="G175" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H175" s="81"/>
-      <c r="I175" s="87" t="s">
-        <v>208</v>
-      </c>
+      <c r="G175" s="88"/>
+      <c r="H175" s="97"/>
+      <c r="I175" s="94"/>
       <c r="J175" s="46"/>
     </row>
     <row r="176" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B176" s="85"/>
-      <c r="C176" s="85"/>
+      <c r="B176" s="88"/>
+      <c r="C176" s="88"/>
       <c r="D176" s="91"/>
       <c r="E176" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="F176" s="33"/>
+      <c r="G176" s="88"/>
+      <c r="H176" s="97"/>
+      <c r="I176" s="94"/>
+      <c r="J176" s="46"/>
+    </row>
+    <row r="177" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B177" s="89"/>
+      <c r="C177" s="89"/>
+      <c r="D177" s="92"/>
+      <c r="E177" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="F177" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="G177" s="89"/>
+      <c r="H177" s="98"/>
+      <c r="I177" s="95"/>
+      <c r="J177" s="46"/>
+    </row>
+    <row r="178" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="C178" s="61" t="s">
+        <v>554</v>
+      </c>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
+      <c r="F178" s="51"/>
+      <c r="G178" s="51"/>
+      <c r="H178" s="51"/>
+      <c r="I178" s="51"/>
+      <c r="J178" s="52"/>
+    </row>
+    <row r="179" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B179" s="87" t="s">
+        <v>396</v>
+      </c>
+      <c r="C179" s="87"/>
+      <c r="D179" s="90" t="s">
+        <v>688</v>
+      </c>
+      <c r="E179" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="F179" s="33"/>
+      <c r="G179" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H179" s="96"/>
+      <c r="I179" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="J179" s="46"/>
+    </row>
+    <row r="180" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B180" s="88"/>
+      <c r="C180" s="88"/>
+      <c r="D180" s="91"/>
+      <c r="E180" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="F176" s="33"/>
-      <c r="G176" s="85"/>
-      <c r="H176" s="82"/>
-      <c r="I176" s="88"/>
-      <c r="J176" s="46"/>
-    </row>
-    <row r="177" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B177" s="85"/>
-      <c r="C177" s="85"/>
-      <c r="D177" s="91"/>
-      <c r="E177" s="33" t="s">
+      <c r="F180" s="33"/>
+      <c r="G180" s="88"/>
+      <c r="H180" s="97"/>
+      <c r="I180" s="94"/>
+      <c r="J180" s="46"/>
+    </row>
+    <row r="181" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B181" s="88"/>
+      <c r="C181" s="88"/>
+      <c r="D181" s="91"/>
+      <c r="E181" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="F177" s="33"/>
-      <c r="G177" s="85"/>
-      <c r="H177" s="82"/>
-      <c r="I177" s="88"/>
-      <c r="J177" s="46"/>
-    </row>
-    <row r="178" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B178" s="85"/>
-      <c r="C178" s="85"/>
-      <c r="D178" s="91"/>
-      <c r="E178" s="33" t="s">
+      <c r="F181" s="33"/>
+      <c r="G181" s="88"/>
+      <c r="H181" s="97"/>
+      <c r="I181" s="94"/>
+      <c r="J181" s="46"/>
+    </row>
+    <row r="182" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B182" s="88"/>
+      <c r="C182" s="88"/>
+      <c r="D182" s="91"/>
+      <c r="E182" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="F178" s="33"/>
-      <c r="G178" s="85"/>
-      <c r="H178" s="82"/>
-      <c r="I178" s="88"/>
-      <c r="J178" s="46"/>
-    </row>
-    <row r="179" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B179" s="86"/>
-      <c r="C179" s="86"/>
-      <c r="D179" s="92"/>
-      <c r="E179" s="33" t="s">
+      <c r="F182" s="33"/>
+      <c r="G182" s="88"/>
+      <c r="H182" s="97"/>
+      <c r="I182" s="94"/>
+      <c r="J182" s="46"/>
+    </row>
+    <row r="183" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B183" s="89"/>
+      <c r="C183" s="89"/>
+      <c r="D183" s="92"/>
+      <c r="E183" s="33" t="s">
         <v>686</v>
       </c>
-      <c r="F179" s="33" t="s">
+      <c r="F183" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="G179" s="86"/>
-      <c r="H179" s="83"/>
-      <c r="I179" s="89"/>
-      <c r="J179" s="46"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B180" s="62" t="s">
+      <c r="G183" s="89"/>
+      <c r="H183" s="98"/>
+      <c r="I183" s="95"/>
+      <c r="J183" s="46"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="C180" s="62"/>
-      <c r="D180" s="62"/>
-      <c r="E180" s="62"/>
-      <c r="F180" s="62"/>
-      <c r="G180" s="62"/>
-      <c r="H180" s="62"/>
-      <c r="I180" s="62"/>
-      <c r="J180" s="62"/>
-    </row>
-    <row r="181" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="49" t="s">
+      <c r="C184" s="62"/>
+      <c r="D184" s="62"/>
+      <c r="E184" s="62"/>
+      <c r="F184" s="62"/>
+      <c r="G184" s="62"/>
+      <c r="H184" s="62"/>
+      <c r="I184" s="62"/>
+      <c r="J184" s="62"/>
+    </row>
+    <row r="185" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="C181" s="61" t="s">
+      <c r="C185" s="61" t="s">
         <v>555</v>
       </c>
-      <c r="D181" s="51"/>
-      <c r="E181" s="51"/>
-      <c r="F181" s="51"/>
-      <c r="G181" s="51"/>
-      <c r="H181" s="51"/>
-      <c r="I181" s="51"/>
-      <c r="J181" s="52"/>
-    </row>
-    <row r="182" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B182" s="84" t="s">
+      <c r="D185" s="51"/>
+      <c r="E185" s="51"/>
+      <c r="F185" s="51"/>
+      <c r="G185" s="51"/>
+      <c r="H185" s="51"/>
+      <c r="I185" s="51"/>
+      <c r="J185" s="52"/>
+    </row>
+    <row r="186" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B186" s="87" t="s">
         <v>453</v>
       </c>
-      <c r="C182" s="84"/>
-      <c r="D182" s="90" t="s">
+      <c r="C186" s="87"/>
+      <c r="D186" s="90" t="s">
         <v>698</v>
       </c>
-      <c r="E182" s="33" t="s">
+      <c r="E186" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="F182" s="33"/>
-      <c r="G182" s="84" t="s">
+      <c r="F186" s="33"/>
+      <c r="G186" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H182" s="81"/>
-      <c r="I182" s="87" t="s">
+      <c r="H186" s="96"/>
+      <c r="I186" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="J182" s="46"/>
-    </row>
-    <row r="183" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B183" s="85"/>
-      <c r="C183" s="85"/>
-      <c r="D183" s="91"/>
-      <c r="E183" s="33" t="s">
+      <c r="J186" s="46"/>
+    </row>
+    <row r="187" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B187" s="88"/>
+      <c r="C187" s="88"/>
+      <c r="D187" s="91"/>
+      <c r="E187" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="F183" s="33"/>
-      <c r="G183" s="85"/>
-      <c r="H183" s="82"/>
-      <c r="I183" s="88"/>
-      <c r="J183" s="46"/>
-    </row>
-    <row r="184" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B184" s="85"/>
-      <c r="C184" s="85"/>
-      <c r="D184" s="91"/>
-      <c r="E184" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F184" s="33"/>
-      <c r="G184" s="85"/>
-      <c r="H184" s="82"/>
-      <c r="I184" s="88"/>
-      <c r="J184" s="46"/>
-    </row>
-    <row r="185" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B185" s="85"/>
-      <c r="C185" s="85"/>
-      <c r="D185" s="91"/>
-      <c r="E185" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="F185" s="33"/>
-      <c r="G185" s="85"/>
-      <c r="H185" s="82"/>
-      <c r="I185" s="88"/>
-      <c r="J185" s="46"/>
-    </row>
-    <row r="186" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B186" s="86"/>
-      <c r="C186" s="86"/>
-      <c r="D186" s="92"/>
-      <c r="E186" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="F186" s="33" t="s">
-        <v>701</v>
-      </c>
-      <c r="G186" s="86"/>
-      <c r="H186" s="83"/>
-      <c r="I186" s="89"/>
-      <c r="J186" s="46"/>
-    </row>
-    <row r="187" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B187" s="84" t="s">
-        <v>454</v>
-      </c>
-      <c r="C187" s="84"/>
-      <c r="D187" s="90" t="s">
-        <v>699</v>
-      </c>
-      <c r="E187" s="33" t="s">
-        <v>696</v>
-      </c>
       <c r="F187" s="33"/>
-      <c r="G187" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H187" s="81"/>
-      <c r="I187" s="87" t="s">
-        <v>123</v>
-      </c>
+      <c r="G187" s="88"/>
+      <c r="H187" s="97"/>
+      <c r="I187" s="94"/>
       <c r="J187" s="46"/>
     </row>
-    <row r="188" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B188" s="85"/>
-      <c r="C188" s="85"/>
+    <row r="188" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B188" s="88"/>
+      <c r="C188" s="88"/>
       <c r="D188" s="91"/>
       <c r="E188" s="33" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="F188" s="33"/>
-      <c r="G188" s="85"/>
-      <c r="H188" s="82"/>
-      <c r="I188" s="88"/>
+      <c r="G188" s="88"/>
+      <c r="H188" s="97"/>
+      <c r="I188" s="94"/>
       <c r="J188" s="46"/>
     </row>
-    <row r="189" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B189" s="85"/>
-      <c r="C189" s="85"/>
+    <row r="189" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B189" s="88"/>
+      <c r="C189" s="88"/>
       <c r="D189" s="91"/>
       <c r="E189" s="33" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="F189" s="33"/>
-      <c r="G189" s="85"/>
-      <c r="H189" s="82"/>
-      <c r="I189" s="88"/>
+      <c r="G189" s="88"/>
+      <c r="H189" s="97"/>
+      <c r="I189" s="94"/>
       <c r="J189" s="46"/>
     </row>
-    <row r="190" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B190" s="85"/>
-      <c r="C190" s="85"/>
-      <c r="D190" s="91"/>
+    <row r="190" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B190" s="89"/>
+      <c r="C190" s="89"/>
+      <c r="D190" s="92"/>
       <c r="E190" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="F190" s="33"/>
-      <c r="G190" s="85"/>
-      <c r="H190" s="82"/>
-      <c r="I190" s="88"/>
+        <v>695</v>
+      </c>
+      <c r="F190" s="33" t="s">
+        <v>701</v>
+      </c>
+      <c r="G190" s="89"/>
+      <c r="H190" s="98"/>
+      <c r="I190" s="95"/>
       <c r="J190" s="46"/>
     </row>
     <row r="191" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B191" s="86"/>
-      <c r="C191" s="86"/>
-      <c r="D191" s="92"/>
+      <c r="B191" s="87" t="s">
+        <v>454</v>
+      </c>
+      <c r="C191" s="87"/>
+      <c r="D191" s="90" t="s">
+        <v>699</v>
+      </c>
       <c r="E191" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="F191" s="33" t="s">
-        <v>702</v>
-      </c>
-      <c r="G191" s="86"/>
-      <c r="H191" s="83"/>
-      <c r="I191" s="89"/>
+        <v>696</v>
+      </c>
+      <c r="F191" s="33"/>
+      <c r="G191" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H191" s="96"/>
+      <c r="I191" s="93" t="s">
+        <v>123</v>
+      </c>
       <c r="J191" s="46"/>
     </row>
-    <row r="192" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B192" s="84" t="s">
-        <v>455</v>
-      </c>
-      <c r="C192" s="84"/>
-      <c r="D192" s="90" t="s">
-        <v>700</v>
-      </c>
+    <row r="192" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B192" s="88"/>
+      <c r="C192" s="88"/>
+      <c r="D192" s="91"/>
       <c r="E192" s="33" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F192" s="33"/>
-      <c r="G192" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H192" s="81"/>
-      <c r="I192" s="87" t="s">
-        <v>123</v>
-      </c>
+      <c r="G192" s="88"/>
+      <c r="H192" s="97"/>
+      <c r="I192" s="94"/>
       <c r="J192" s="46"/>
     </row>
     <row r="193" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B193" s="85"/>
-      <c r="C193" s="85"/>
+      <c r="B193" s="88"/>
+      <c r="C193" s="88"/>
       <c r="D193" s="91"/>
       <c r="E193" s="33" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="F193" s="33"/>
-      <c r="G193" s="85"/>
-      <c r="H193" s="82"/>
-      <c r="I193" s="88"/>
+      <c r="G193" s="88"/>
+      <c r="H193" s="97"/>
+      <c r="I193" s="94"/>
       <c r="J193" s="46"/>
     </row>
     <row r="194" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B194" s="85"/>
-      <c r="C194" s="85"/>
+      <c r="B194" s="88"/>
+      <c r="C194" s="88"/>
       <c r="D194" s="91"/>
       <c r="E194" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="F194" s="33"/>
+      <c r="G194" s="88"/>
+      <c r="H194" s="97"/>
+      <c r="I194" s="94"/>
+      <c r="J194" s="46"/>
+    </row>
+    <row r="195" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B195" s="89"/>
+      <c r="C195" s="89"/>
+      <c r="D195" s="92"/>
+      <c r="E195" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="F195" s="33" t="s">
+        <v>702</v>
+      </c>
+      <c r="G195" s="89"/>
+      <c r="H195" s="98"/>
+      <c r="I195" s="95"/>
+      <c r="J195" s="46"/>
+    </row>
+    <row r="196" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B196" s="87" t="s">
+        <v>455</v>
+      </c>
+      <c r="C196" s="87"/>
+      <c r="D196" s="90" t="s">
+        <v>700</v>
+      </c>
+      <c r="E196" s="33" t="s">
+        <v>697</v>
+      </c>
+      <c r="F196" s="33"/>
+      <c r="G196" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="H196" s="96"/>
+      <c r="I196" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="J196" s="46"/>
+    </row>
+    <row r="197" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B197" s="88"/>
+      <c r="C197" s="88"/>
+      <c r="D197" s="91"/>
+      <c r="E197" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="F197" s="33"/>
+      <c r="G197" s="88"/>
+      <c r="H197" s="97"/>
+      <c r="I197" s="94"/>
+      <c r="J197" s="46"/>
+    </row>
+    <row r="198" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B198" s="88"/>
+      <c r="C198" s="88"/>
+      <c r="D198" s="91"/>
+      <c r="E198" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="F194" s="33"/>
-      <c r="G194" s="85"/>
-      <c r="H194" s="82"/>
-      <c r="I194" s="88"/>
-      <c r="J194" s="46"/>
-    </row>
-    <row r="195" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B195" s="85"/>
-      <c r="C195" s="85"/>
-      <c r="D195" s="91"/>
-      <c r="E195" s="33" t="s">
+      <c r="F198" s="33"/>
+      <c r="G198" s="88"/>
+      <c r="H198" s="97"/>
+      <c r="I198" s="94"/>
+      <c r="J198" s="46"/>
+    </row>
+    <row r="199" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B199" s="88"/>
+      <c r="C199" s="88"/>
+      <c r="D199" s="91"/>
+      <c r="E199" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="F195" s="33"/>
-      <c r="G195" s="85"/>
-      <c r="H195" s="82"/>
-      <c r="I195" s="88"/>
-      <c r="J195" s="46"/>
-    </row>
-    <row r="196" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B196" s="86"/>
-      <c r="C196" s="86"/>
-      <c r="D196" s="92"/>
-      <c r="E196" s="33" t="s">
+      <c r="F199" s="33"/>
+      <c r="G199" s="88"/>
+      <c r="H199" s="97"/>
+      <c r="I199" s="94"/>
+      <c r="J199" s="46"/>
+    </row>
+    <row r="200" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B200" s="89"/>
+      <c r="C200" s="89"/>
+      <c r="D200" s="92"/>
+      <c r="E200" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="F196" s="33" t="s">
+      <c r="F200" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="G196" s="86"/>
-      <c r="H196" s="83"/>
-      <c r="I196" s="89"/>
-      <c r="J196" s="46"/>
-    </row>
-    <row r="197" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="49" t="s">
+      <c r="G200" s="89"/>
+      <c r="H200" s="98"/>
+      <c r="I200" s="95"/>
+      <c r="J200" s="46"/>
+    </row>
+    <row r="201" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="C197" s="61" t="s">
+      <c r="C201" s="61" t="s">
         <v>556</v>
       </c>
-      <c r="D197" s="51"/>
-      <c r="E197" s="51"/>
-      <c r="F197" s="51"/>
-      <c r="G197" s="51"/>
-      <c r="H197" s="51"/>
-      <c r="I197" s="51"/>
-      <c r="J197" s="52"/>
-    </row>
-    <row r="198" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B198" s="84" t="s">
+      <c r="D201" s="51"/>
+      <c r="E201" s="51"/>
+      <c r="F201" s="51"/>
+      <c r="G201" s="51"/>
+      <c r="H201" s="51"/>
+      <c r="I201" s="51"/>
+      <c r="J201" s="52"/>
+    </row>
+    <row r="202" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B202" s="87" t="s">
         <v>459</v>
       </c>
-      <c r="C198" s="84"/>
-      <c r="D198" s="87" t="s">
+      <c r="C202" s="87"/>
+      <c r="D202" s="93" t="s">
         <v>704</v>
       </c>
-      <c r="E198" s="33" t="s">
+      <c r="E202" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="F198" s="33"/>
-      <c r="G198" s="84" t="s">
+      <c r="F202" s="33"/>
+      <c r="G202" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H198" s="81"/>
-      <c r="I198" s="87" t="s">
+      <c r="H202" s="96"/>
+      <c r="I202" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="J198" s="46"/>
-    </row>
-    <row r="199" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B199" s="85"/>
-      <c r="C199" s="85"/>
-      <c r="D199" s="88"/>
-      <c r="E199" s="33" t="s">
+      <c r="J202" s="46"/>
+    </row>
+    <row r="203" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B203" s="88"/>
+      <c r="C203" s="88"/>
+      <c r="D203" s="94"/>
+      <c r="E203" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="F199" s="33"/>
-      <c r="G199" s="85"/>
-      <c r="H199" s="82"/>
-      <c r="I199" s="88"/>
-      <c r="J199" s="46"/>
-    </row>
-    <row r="200" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B200" s="85"/>
-      <c r="C200" s="85"/>
-      <c r="D200" s="88"/>
-      <c r="E200" s="33" t="s">
+      <c r="F203" s="33"/>
+      <c r="G203" s="88"/>
+      <c r="H203" s="97"/>
+      <c r="I203" s="94"/>
+      <c r="J203" s="46"/>
+    </row>
+    <row r="204" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B204" s="88"/>
+      <c r="C204" s="88"/>
+      <c r="D204" s="94"/>
+      <c r="E204" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="F200" s="33"/>
-      <c r="G200" s="85"/>
-      <c r="H200" s="82"/>
-      <c r="I200" s="88"/>
-      <c r="J200" s="46"/>
-    </row>
-    <row r="201" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B201" s="85"/>
-      <c r="C201" s="85"/>
-      <c r="D201" s="88"/>
-      <c r="E201" s="33" t="s">
+      <c r="F204" s="33"/>
+      <c r="G204" s="88"/>
+      <c r="H204" s="97"/>
+      <c r="I204" s="94"/>
+      <c r="J204" s="46"/>
+    </row>
+    <row r="205" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B205" s="88"/>
+      <c r="C205" s="88"/>
+      <c r="D205" s="94"/>
+      <c r="E205" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="F201" s="33"/>
-      <c r="G201" s="85"/>
-      <c r="H201" s="82"/>
-      <c r="I201" s="88"/>
-      <c r="J201" s="46"/>
-    </row>
-    <row r="202" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B202" s="85"/>
-      <c r="C202" s="85"/>
-      <c r="D202" s="88"/>
-      <c r="E202" s="33" t="s">
+      <c r="F205" s="33"/>
+      <c r="G205" s="88"/>
+      <c r="H205" s="97"/>
+      <c r="I205" s="94"/>
+      <c r="J205" s="46"/>
+    </row>
+    <row r="206" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B206" s="88"/>
+      <c r="C206" s="88"/>
+      <c r="D206" s="94"/>
+      <c r="E206" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="F202" s="33"/>
-      <c r="G202" s="85"/>
-      <c r="H202" s="82"/>
-      <c r="I202" s="88"/>
-      <c r="J202" s="46"/>
-    </row>
-    <row r="203" spans="2:10" ht="51.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B203" s="86"/>
-      <c r="C203" s="86"/>
-      <c r="D203" s="89"/>
-      <c r="E203" s="33" t="s">
+      <c r="F206" s="33"/>
+      <c r="G206" s="88"/>
+      <c r="H206" s="97"/>
+      <c r="I206" s="94"/>
+      <c r="J206" s="46"/>
+    </row>
+    <row r="207" spans="2:10" ht="51.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B207" s="89"/>
+      <c r="C207" s="89"/>
+      <c r="D207" s="95"/>
+      <c r="E207" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="F203" s="33" t="s">
+      <c r="F207" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="G203" s="86"/>
-      <c r="H203" s="83"/>
-      <c r="I203" s="89"/>
-      <c r="J203" s="46"/>
-    </row>
-    <row r="204" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B204" s="84" t="s">
+      <c r="G207" s="89"/>
+      <c r="H207" s="98"/>
+      <c r="I207" s="95"/>
+      <c r="J207" s="46"/>
+    </row>
+    <row r="208" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B208" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="C204" s="84"/>
-      <c r="D204" s="87" t="s">
+      <c r="C208" s="87"/>
+      <c r="D208" s="93" t="s">
         <v>705</v>
       </c>
-      <c r="E204" s="33" t="s">
+      <c r="E208" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="F204" s="33"/>
-      <c r="G204" s="84" t="s">
+      <c r="F208" s="33"/>
+      <c r="G208" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H204" s="81"/>
-      <c r="I204" s="87" t="s">
+      <c r="H208" s="96"/>
+      <c r="I208" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="J204" s="46"/>
-    </row>
-    <row r="205" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B205" s="85"/>
-      <c r="C205" s="85"/>
-      <c r="D205" s="88"/>
-      <c r="E205" s="33" t="s">
+      <c r="J208" s="46"/>
+    </row>
+    <row r="209" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B209" s="88"/>
+      <c r="C209" s="88"/>
+      <c r="D209" s="94"/>
+      <c r="E209" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="F205" s="33"/>
-      <c r="G205" s="85"/>
-      <c r="H205" s="82"/>
-      <c r="I205" s="88"/>
-      <c r="J205" s="46"/>
-    </row>
-    <row r="206" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B206" s="85"/>
-      <c r="C206" s="85"/>
-      <c r="D206" s="88"/>
-      <c r="E206" s="33" t="s">
+      <c r="F209" s="33"/>
+      <c r="G209" s="88"/>
+      <c r="H209" s="97"/>
+      <c r="I209" s="94"/>
+      <c r="J209" s="46"/>
+    </row>
+    <row r="210" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B210" s="88"/>
+      <c r="C210" s="88"/>
+      <c r="D210" s="94"/>
+      <c r="E210" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="F206" s="33"/>
-      <c r="G206" s="85"/>
-      <c r="H206" s="82"/>
-      <c r="I206" s="88"/>
-      <c r="J206" s="46"/>
-    </row>
-    <row r="207" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B207" s="85"/>
-      <c r="C207" s="85"/>
-      <c r="D207" s="88"/>
-      <c r="E207" s="33" t="s">
+      <c r="F210" s="33"/>
+      <c r="G210" s="88"/>
+      <c r="H210" s="97"/>
+      <c r="I210" s="94"/>
+      <c r="J210" s="46"/>
+    </row>
+    <row r="211" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B211" s="88"/>
+      <c r="C211" s="88"/>
+      <c r="D211" s="94"/>
+      <c r="E211" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="F207" s="33"/>
-      <c r="G207" s="85"/>
-      <c r="H207" s="82"/>
-      <c r="I207" s="88"/>
-      <c r="J207" s="46"/>
-    </row>
-    <row r="208" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B208" s="85"/>
-      <c r="C208" s="85"/>
-      <c r="D208" s="88"/>
-      <c r="E208" s="33" t="s">
+      <c r="F211" s="33"/>
+      <c r="G211" s="88"/>
+      <c r="H211" s="97"/>
+      <c r="I211" s="94"/>
+      <c r="J211" s="46"/>
+    </row>
+    <row r="212" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B212" s="88"/>
+      <c r="C212" s="88"/>
+      <c r="D212" s="94"/>
+      <c r="E212" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="F208" s="33"/>
-      <c r="G208" s="85"/>
-      <c r="H208" s="82"/>
-      <c r="I208" s="88"/>
-      <c r="J208" s="46"/>
-    </row>
-    <row r="209" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B209" s="86"/>
-      <c r="C209" s="86"/>
-      <c r="D209" s="89"/>
-      <c r="E209" s="33" t="s">
+      <c r="F212" s="33"/>
+      <c r="G212" s="88"/>
+      <c r="H212" s="97"/>
+      <c r="I212" s="94"/>
+      <c r="J212" s="46"/>
+    </row>
+    <row r="213" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B213" s="89"/>
+      <c r="C213" s="89"/>
+      <c r="D213" s="95"/>
+      <c r="E213" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="F209" s="33" t="s">
+      <c r="F213" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="G209" s="86"/>
-      <c r="H209" s="83"/>
-      <c r="I209" s="89"/>
-      <c r="J209" s="46"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B210" s="62" t="s">
+      <c r="G213" s="89"/>
+      <c r="H213" s="98"/>
+      <c r="I213" s="95"/>
+      <c r="J213" s="46"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="C210" s="62"/>
-      <c r="D210" s="62"/>
-      <c r="E210" s="62"/>
-      <c r="F210" s="62"/>
-      <c r="G210" s="62"/>
-      <c r="H210" s="62"/>
-      <c r="I210" s="62"/>
-      <c r="J210" s="62"/>
-    </row>
-    <row r="211" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="49" t="s">
+      <c r="C214" s="62"/>
+      <c r="D214" s="62"/>
+      <c r="E214" s="62"/>
+      <c r="F214" s="62"/>
+      <c r="G214" s="62"/>
+      <c r="H214" s="62"/>
+      <c r="I214" s="62"/>
+      <c r="J214" s="62"/>
+    </row>
+    <row r="215" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="49" t="s">
         <v>496</v>
       </c>
-      <c r="C211" s="61" t="s">
+      <c r="C215" s="61" t="s">
         <v>530</v>
       </c>
-      <c r="D211" s="51"/>
-      <c r="E211" s="51"/>
-      <c r="F211" s="51"/>
-      <c r="G211" s="51"/>
-      <c r="H211" s="51"/>
-      <c r="I211" s="51"/>
-      <c r="J211" s="52"/>
-    </row>
-    <row r="212" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B212" s="46" t="s">
+      <c r="D215" s="51"/>
+      <c r="E215" s="51"/>
+      <c r="F215" s="51"/>
+      <c r="G215" s="51"/>
+      <c r="H215" s="51"/>
+      <c r="I215" s="51"/>
+      <c r="J215" s="52"/>
+    </row>
+    <row r="216" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B216" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="C212" s="46"/>
-      <c r="D212" s="33" t="s">
+      <c r="C216" s="46"/>
+      <c r="D216" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="E212" s="33" t="s">
+      <c r="E216" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="F212" s="33" t="s">
+      <c r="F216" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="G212" s="46" t="s">
+      <c r="G216" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H212" s="41"/>
-      <c r="I212" s="33" t="s">
+      <c r="H216" s="41"/>
+      <c r="I216" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="J212" s="46"/>
-    </row>
-    <row r="213" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="62" t="s">
-        <v>531</v>
-      </c>
-      <c r="C213" s="62"/>
-      <c r="D213" s="62"/>
-      <c r="E213" s="62"/>
-      <c r="F213" s="62"/>
-      <c r="G213" s="62"/>
-      <c r="H213" s="62"/>
-      <c r="I213" s="62"/>
-      <c r="J213" s="62"/>
-    </row>
-    <row r="214" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C214" s="61"/>
-      <c r="D214" s="59"/>
-      <c r="E214" s="45"/>
-      <c r="F214" s="45"/>
-      <c r="G214" s="45"/>
-      <c r="H214" s="60"/>
-      <c r="I214" s="59"/>
-      <c r="J214" s="45"/>
-    </row>
-    <row r="215" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="46"/>
-      <c r="C215" s="46"/>
-      <c r="D215" s="46"/>
-      <c r="E215" s="46"/>
-      <c r="F215" s="46"/>
-      <c r="G215" s="46"/>
-      <c r="H215" s="41"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="46"/>
-    </row>
-    <row r="216" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="46"/>
-      <c r="C216" s="46"/>
-      <c r="D216" s="46"/>
-      <c r="E216" s="46"/>
-      <c r="F216" s="46"/>
-      <c r="G216" s="46"/>
-      <c r="H216" s="41"/>
-      <c r="I216" s="33"/>
       <c r="J216" s="46"/>
     </row>
     <row r="217" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B217" s="62" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C217" s="62"/>
       <c r="D217" s="62"/>
@@ -10545,9 +10726,175 @@
       <c r="I220" s="33"/>
       <c r="J220" s="46"/>
     </row>
+    <row r="221" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="62" t="s">
+        <v>532</v>
+      </c>
+      <c r="C221" s="62"/>
+      <c r="D221" s="62"/>
+      <c r="E221" s="62"/>
+      <c r="F221" s="62"/>
+      <c r="G221" s="62"/>
+      <c r="H221" s="62"/>
+      <c r="I221" s="62"/>
+      <c r="J221" s="62"/>
+    </row>
+    <row r="222" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C222" s="61"/>
+      <c r="D222" s="59"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="45"/>
+      <c r="G222" s="45"/>
+      <c r="H222" s="60"/>
+      <c r="I222" s="59"/>
+      <c r="J222" s="45"/>
+    </row>
+    <row r="223" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="46"/>
+      <c r="C223" s="46"/>
+      <c r="D223" s="46"/>
+      <c r="E223" s="46"/>
+      <c r="F223" s="46"/>
+      <c r="G223" s="46"/>
+      <c r="H223" s="41"/>
+      <c r="I223" s="33"/>
+      <c r="J223" s="46"/>
+    </row>
+    <row r="224" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="46"/>
+      <c r="C224" s="46"/>
+      <c r="D224" s="46"/>
+      <c r="E224" s="46"/>
+      <c r="F224" s="46"/>
+      <c r="G224" s="46"/>
+      <c r="H224" s="41"/>
+      <c r="I224" s="33"/>
+      <c r="J224" s="46"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B10:J214"/>
+  <autoFilter ref="B10:J218"/>
   <mergeCells count="130">
+    <mergeCell ref="H208:H213"/>
+    <mergeCell ref="G208:G213"/>
+    <mergeCell ref="I208:I213"/>
+    <mergeCell ref="D202:D207"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="C202:C207"/>
+    <mergeCell ref="B208:B213"/>
+    <mergeCell ref="C208:C213"/>
+    <mergeCell ref="D208:D213"/>
+    <mergeCell ref="I186:I190"/>
+    <mergeCell ref="I191:I195"/>
+    <mergeCell ref="I196:I200"/>
+    <mergeCell ref="G202:G207"/>
+    <mergeCell ref="H202:H207"/>
+    <mergeCell ref="I202:I207"/>
+    <mergeCell ref="D196:D200"/>
+    <mergeCell ref="B196:B200"/>
+    <mergeCell ref="C196:C200"/>
+    <mergeCell ref="H196:H200"/>
+    <mergeCell ref="G196:G200"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="G191:G195"/>
+    <mergeCell ref="H191:H195"/>
+    <mergeCell ref="B191:B195"/>
+    <mergeCell ref="C191:C195"/>
+    <mergeCell ref="G186:G190"/>
+    <mergeCell ref="H186:H190"/>
+    <mergeCell ref="D186:D190"/>
+    <mergeCell ref="C186:C190"/>
+    <mergeCell ref="D179:D183"/>
+    <mergeCell ref="H179:H183"/>
+    <mergeCell ref="I179:I183"/>
+    <mergeCell ref="G179:G183"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="G173:G177"/>
+    <mergeCell ref="H173:H177"/>
+    <mergeCell ref="I173:I177"/>
+    <mergeCell ref="B173:B177"/>
+    <mergeCell ref="C173:C177"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="C151:C156"/>
+    <mergeCell ref="I151:I156"/>
+    <mergeCell ref="H151:H156"/>
+    <mergeCell ref="G151:G156"/>
+    <mergeCell ref="D151:D156"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="I167:I171"/>
+    <mergeCell ref="H167:H171"/>
+    <mergeCell ref="G167:G171"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="C167:C171"/>
+    <mergeCell ref="D159:D164"/>
+    <mergeCell ref="G159:G164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="I159:I164"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="I145:I149"/>
+    <mergeCell ref="H145:H149"/>
+    <mergeCell ref="G145:G149"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="C145:C149"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="H125:H133"/>
+    <mergeCell ref="I125:I133"/>
+    <mergeCell ref="D125:D133"/>
+    <mergeCell ref="B134:B142"/>
+    <mergeCell ref="D134:D142"/>
+    <mergeCell ref="G134:G142"/>
+    <mergeCell ref="H134:H142"/>
+    <mergeCell ref="I134:I142"/>
+    <mergeCell ref="B116:B124"/>
+    <mergeCell ref="D116:D124"/>
+    <mergeCell ref="B125:B133"/>
+    <mergeCell ref="C134:C142"/>
+    <mergeCell ref="G125:G133"/>
+    <mergeCell ref="G116:G124"/>
+    <mergeCell ref="H116:H124"/>
+    <mergeCell ref="I116:I124"/>
+    <mergeCell ref="C116:C124"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="G78:G85"/>
+    <mergeCell ref="H78:H85"/>
+    <mergeCell ref="I78:I85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="G70:G77"/>
+    <mergeCell ref="H70:H77"/>
+    <mergeCell ref="I70:I77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="G62:G69"/>
+    <mergeCell ref="H62:H69"/>
+    <mergeCell ref="I62:I69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="G54:G61"/>
+    <mergeCell ref="H54:H61"/>
+    <mergeCell ref="I54:I61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="G41:G48"/>
+    <mergeCell ref="I41:I48"/>
+    <mergeCell ref="G32:G39"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="I32:I39"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -10556,448 +10903,362 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="D37:D44"/>
-    <mergeCell ref="G37:G44"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="G58:G65"/>
-    <mergeCell ref="H58:H65"/>
-    <mergeCell ref="I58:I65"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="G50:G57"/>
-    <mergeCell ref="H50:H57"/>
-    <mergeCell ref="I50:I57"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="G74:G81"/>
-    <mergeCell ref="H74:H81"/>
-    <mergeCell ref="I74:I81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="G66:G73"/>
-    <mergeCell ref="H66:H73"/>
-    <mergeCell ref="I66:I73"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="C66:C73"/>
-    <mergeCell ref="B112:B120"/>
-    <mergeCell ref="D112:D120"/>
-    <mergeCell ref="B121:B129"/>
-    <mergeCell ref="C130:C138"/>
-    <mergeCell ref="G121:G129"/>
-    <mergeCell ref="G112:G120"/>
-    <mergeCell ref="H112:H120"/>
-    <mergeCell ref="I112:I120"/>
-    <mergeCell ref="C112:C120"/>
-    <mergeCell ref="I141:I145"/>
-    <mergeCell ref="H141:H145"/>
-    <mergeCell ref="G141:G145"/>
-    <mergeCell ref="B141:B145"/>
-    <mergeCell ref="C141:C145"/>
-    <mergeCell ref="D141:D145"/>
-    <mergeCell ref="H121:H129"/>
-    <mergeCell ref="I121:I129"/>
-    <mergeCell ref="D121:D129"/>
-    <mergeCell ref="B130:B138"/>
-    <mergeCell ref="D130:D138"/>
-    <mergeCell ref="G130:G138"/>
-    <mergeCell ref="H130:H138"/>
-    <mergeCell ref="I130:I138"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="C147:C152"/>
-    <mergeCell ref="I147:I152"/>
-    <mergeCell ref="H147:H152"/>
-    <mergeCell ref="G147:G152"/>
-    <mergeCell ref="D147:D152"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="I163:I167"/>
-    <mergeCell ref="H163:H167"/>
-    <mergeCell ref="G163:G167"/>
-    <mergeCell ref="D163:D167"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="D155:D160"/>
-    <mergeCell ref="G155:G160"/>
-    <mergeCell ref="H155:H160"/>
-    <mergeCell ref="I155:I160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="C155:C160"/>
-    <mergeCell ref="D175:D179"/>
-    <mergeCell ref="H175:H179"/>
-    <mergeCell ref="I175:I179"/>
-    <mergeCell ref="G175:G179"/>
-    <mergeCell ref="B175:B179"/>
-    <mergeCell ref="C175:C179"/>
-    <mergeCell ref="D169:D173"/>
-    <mergeCell ref="G169:G173"/>
-    <mergeCell ref="H169:H173"/>
-    <mergeCell ref="I169:I173"/>
-    <mergeCell ref="B169:B173"/>
-    <mergeCell ref="C169:C173"/>
-    <mergeCell ref="I182:I186"/>
-    <mergeCell ref="I187:I191"/>
-    <mergeCell ref="I192:I196"/>
-    <mergeCell ref="G198:G203"/>
-    <mergeCell ref="H198:H203"/>
-    <mergeCell ref="I198:I203"/>
-    <mergeCell ref="D192:D196"/>
-    <mergeCell ref="B192:B196"/>
-    <mergeCell ref="C192:C196"/>
-    <mergeCell ref="H192:H196"/>
-    <mergeCell ref="G192:G196"/>
-    <mergeCell ref="B182:B186"/>
-    <mergeCell ref="D187:D191"/>
-    <mergeCell ref="G187:G191"/>
-    <mergeCell ref="H187:H191"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="G182:G186"/>
-    <mergeCell ref="H182:H186"/>
-    <mergeCell ref="D182:D186"/>
-    <mergeCell ref="C182:C186"/>
-    <mergeCell ref="H204:H209"/>
-    <mergeCell ref="G204:G209"/>
-    <mergeCell ref="I204:I209"/>
-    <mergeCell ref="D198:D203"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="C198:C203"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="C204:C209"/>
-    <mergeCell ref="D204:D209"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="D24:D28"/>
   </mergeCells>
-  <conditionalFormatting sqref="H50 H83:H86 H17 H58">
-    <cfRule type="containsText" dxfId="119" priority="258" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H17)))</formula>
+  <conditionalFormatting sqref="H54 H87:H90 H21 H62">
+    <cfRule type="containsText" dxfId="127" priority="266" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="259" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H17)))</formula>
+    <cfRule type="containsText" dxfId="126" priority="267" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="260" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H17)))</formula>
+    <cfRule type="containsText" dxfId="125" priority="268" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50 H83:H86 H17 H58">
-    <cfRule type="containsText" dxfId="116" priority="257" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H17)))</formula>
+  <conditionalFormatting sqref="H54 H87:H90 H21 H62">
+    <cfRule type="containsText" dxfId="124" priority="265" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="115" priority="254" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="123" priority="262" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="255" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="122" priority="263" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="256" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="121" priority="264" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="112" priority="253" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="120" priority="261" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H20:H25">
-    <cfRule type="containsText" dxfId="111" priority="242" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H20)))</formula>
+  <conditionalFormatting sqref="H51 H24:H29">
+    <cfRule type="containsText" dxfId="119" priority="250" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="243" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H20)))</formula>
+    <cfRule type="containsText" dxfId="118" priority="251" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="244" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H20)))</formula>
+    <cfRule type="containsText" dxfId="117" priority="252" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H20:H25">
-    <cfRule type="containsText" dxfId="108" priority="241" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H20)))</formula>
+  <conditionalFormatting sqref="H51 H24:H29">
+    <cfRule type="containsText" dxfId="116" priority="249" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89 H99:H100 H103:H104 H215:H216 H219:H220 H91 H212 H94:H96 H107:H110 H163 H182 H141 H147">
-    <cfRule type="containsText" dxfId="107" priority="226" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H89)))</formula>
+  <conditionalFormatting sqref="H93 H103:H104 H107:H108 H219:H220 H223:H224 H95 H216 H98:H100 H111:H114 H167 H186 H145 H151">
+    <cfRule type="containsText" dxfId="115" priority="234" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="227" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H89)))</formula>
+    <cfRule type="containsText" dxfId="114" priority="235" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="228" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H89)))</formula>
+    <cfRule type="containsText" dxfId="113" priority="236" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H93)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89 H99:H100 H103:H104 H215:H216 H219:H220 H91 H212 H94:H96 H107:H110 H163 H182 H141 H147">
-    <cfRule type="containsText" dxfId="104" priority="225" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H89)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H214">
-    <cfRule type="containsText" dxfId="103" priority="190" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H214)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="191" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H214)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="192" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H214)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H214">
-    <cfRule type="containsText" dxfId="100" priority="189" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H214)))</formula>
+  <conditionalFormatting sqref="H93 H103:H104 H107:H108 H219:H220 H223:H224 H95 H216 H98:H100 H111:H114 H167 H186 H145 H151">
+    <cfRule type="containsText" dxfId="112" priority="233" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H218">
-    <cfRule type="containsText" dxfId="99" priority="186" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="111" priority="198" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H218)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="187" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="110" priority="199" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H218)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="188" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="109" priority="200" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H218)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H218">
-    <cfRule type="containsText" dxfId="96" priority="185" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="108" priority="197" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H218)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:H35 H37:H44">
-    <cfRule type="containsText" dxfId="95" priority="170" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H28)))</formula>
+  <conditionalFormatting sqref="H222">
+    <cfRule type="containsText" dxfId="107" priority="194" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H222)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="171" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H28)))</formula>
+    <cfRule type="containsText" dxfId="106" priority="195" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H222)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="172" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H28)))</formula>
+    <cfRule type="containsText" dxfId="105" priority="196" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H222)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:H35 H37:H44">
-    <cfRule type="containsText" dxfId="92" priority="169" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H28)))</formula>
+  <conditionalFormatting sqref="H222">
+    <cfRule type="containsText" dxfId="104" priority="193" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H222)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
-    <cfRule type="containsText" dxfId="91" priority="142" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H112)))</formula>
+  <conditionalFormatting sqref="H32:H39 H41:H48">
+    <cfRule type="containsText" dxfId="103" priority="178" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="143" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H112)))</formula>
+    <cfRule type="containsText" dxfId="102" priority="179" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="144" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H112)))</formula>
+    <cfRule type="containsText" dxfId="101" priority="180" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
-    <cfRule type="containsText" dxfId="88" priority="141" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H112)))</formula>
+  <conditionalFormatting sqref="H32:H39 H41:H48">
+    <cfRule type="containsText" dxfId="100" priority="177" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H198">
-    <cfRule type="containsText" dxfId="87" priority="98" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H198)))</formula>
+  <conditionalFormatting sqref="H116">
+    <cfRule type="containsText" dxfId="99" priority="150" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="99" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H198)))</formula>
+    <cfRule type="containsText" dxfId="98" priority="151" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="100" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H198)))</formula>
+    <cfRule type="containsText" dxfId="97" priority="152" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H116)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H198">
-    <cfRule type="containsText" dxfId="84" priority="97" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H198)))</formula>
+  <conditionalFormatting sqref="H116">
+    <cfRule type="containsText" dxfId="96" priority="149" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H116)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="83" priority="74" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H66)))</formula>
+  <conditionalFormatting sqref="H202">
+    <cfRule type="containsText" dxfId="95" priority="106" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="75" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H66)))</formula>
+    <cfRule type="containsText" dxfId="94" priority="107" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="76" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H66)))</formula>
+    <cfRule type="containsText" dxfId="93" priority="108" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H202)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="80" priority="73" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H66)))</formula>
+  <conditionalFormatting sqref="H202">
+    <cfRule type="containsText" dxfId="92" priority="105" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H202)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="79" priority="70" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H74)))</formula>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="containsText" dxfId="91" priority="82" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="71" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H74)))</formula>
+    <cfRule type="containsText" dxfId="90" priority="83" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="72" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H74)))</formula>
+    <cfRule type="containsText" dxfId="89" priority="84" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="containsText" dxfId="76" priority="69" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H74)))</formula>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="containsText" dxfId="88" priority="81" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
-    <cfRule type="containsText" dxfId="75" priority="62" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H121)))</formula>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="87" priority="78" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="63" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H121)))</formula>
+    <cfRule type="containsText" dxfId="86" priority="79" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="64" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H121)))</formula>
+    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H78)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
-    <cfRule type="containsText" dxfId="72" priority="61" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H121)))</formula>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="containsText" dxfId="84" priority="77" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H78)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="containsText" dxfId="71" priority="58" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H130)))</formula>
+  <conditionalFormatting sqref="H125">
+    <cfRule type="containsText" dxfId="83" priority="70" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="59" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H130)))</formula>
+    <cfRule type="containsText" dxfId="82" priority="71" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="60" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H130)))</formula>
+    <cfRule type="containsText" dxfId="81" priority="72" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H125)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="containsText" dxfId="68" priority="57" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H130)))</formula>
+  <conditionalFormatting sqref="H125">
+    <cfRule type="containsText" dxfId="80" priority="69" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H125)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H169">
+  <conditionalFormatting sqref="H134">
+    <cfRule type="containsText" dxfId="79" priority="66" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="67" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="68" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H134">
+    <cfRule type="containsText" dxfId="76" priority="65" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H173">
+    <cfRule type="containsText" dxfId="75" priority="38" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="39" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H173)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="40" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H173">
+    <cfRule type="containsText" dxfId="72" priority="37" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H173)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H159">
+    <cfRule type="containsText" dxfId="71" priority="50" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="51" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="52" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H159)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H159">
+    <cfRule type="containsText" dxfId="68" priority="49" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H159)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H179">
     <cfRule type="containsText" dxfId="67" priority="30" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H169)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H179)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="31" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H169)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H179)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="65" priority="32" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H169)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H179)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H169">
+  <conditionalFormatting sqref="H179">
     <cfRule type="containsText" dxfId="64" priority="29" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H169)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H179)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H155">
-    <cfRule type="containsText" dxfId="63" priority="42" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H155)))</formula>
+  <conditionalFormatting sqref="H191">
+    <cfRule type="containsText" dxfId="63" priority="22" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H155)))</formula>
+    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H155)))</formula>
+    <cfRule type="containsText" dxfId="61" priority="24" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H191)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H155">
-    <cfRule type="containsText" dxfId="60" priority="41" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H155)))</formula>
+  <conditionalFormatting sqref="H191">
+    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H191)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H175">
-    <cfRule type="containsText" dxfId="59" priority="22" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H175)))</formula>
+  <conditionalFormatting sqref="H196">
+    <cfRule type="containsText" dxfId="59" priority="18" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="23" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H175)))</formula>
+    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="24" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H175)))</formula>
+    <cfRule type="containsText" dxfId="57" priority="20" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H196)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H175">
-    <cfRule type="containsText" dxfId="56" priority="21" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H175)))</formula>
+  <conditionalFormatting sqref="H196">
+    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H196)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H187">
-    <cfRule type="containsText" dxfId="55" priority="14" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H187)))</formula>
+  <conditionalFormatting sqref="H208">
+    <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H187)))</formula>
+    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="16" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H187)))</formula>
+    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H208)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H187">
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H187)))</formula>
+  <conditionalFormatting sqref="H208">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H208)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="51" priority="10" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H192)))</formula>
+  <conditionalFormatting sqref="H15:H18">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H192)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="12" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H192)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H192)))</formula>
+  <conditionalFormatting sqref="H15:H18">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H204">
-    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H204)))</formula>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H204)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H204)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H204">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H204)))</formula>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G218:G220 G141 G47 G214:G216 G83:G86 G192 G94:G96 G74 G17 G103:G104 G91 G99:G100 G169 G28:G29 G25 G147 G37 G89 G204 G155 G163 G175 G212 G130 G20 G50 G58 G66 G112 G121 G182 G187 G198 G107:G110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G222:G224 G145 G51 G218:G220 G87:G90 G196 G98:G100 G78 G21 G107:G108 G95 G103:G104 G173 G32:G33 G29 G151 G41 G93 G208 G159 G167 G179 G216 G134 G24 G54 G62 G70 G116 G125 G186 G191 G202 G111:G114 F15:F19">
       <formula1>"Automatic, Manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H218:H220 H141 H163 H214:H216 H37:H44 H175 H94:H96 H107:H110 H74 H212 H169 H103:H104 H91 H99:H100 H47 H192 H28:H35 H89 H83:H86 H147 H155 H20:H25 H17 H130 H50 H58 H66 H112 H121 H182 H187 H198 H204">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H222:H224 H145 H167 H218:H220 H41:H48 H179 H98:H100 H111:H114 H78 H216 H173 H107:H108 H95 H103:H104 H51 H196 H32:H39 H93 H87:H90 H151 H159 H24:H29 H21 H134 H54 H62 H70 H116 H125 H186 H191 H202 H208 H15:H19">
       <formula1>"Passed, Failed, Block, Not Applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I218:I220 I141 I47 I214:I216 I83:I86 I192 I94:I96 I74 I103:I104 I99:I100 I91 I17 I169 I37 I25 I147 I212 I89 I204 I155 I163 I175 I28 I130 I20 I50 I58 I66 I112 I121 I182 I187 I198 I107:I110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I222:I224 I145 I51 I218:I220 I87:I90 I196 I98:I100 I78 I107:I108 I103:I104 I95 I21 I173 I41 I29 I151 I216 I93 I208 I159 I167 I179 I32 I134 I24 I54 I62 I70 I116 I125 I186 I191 I202 I111:I114 I15:I19">
       <formula1>"Chau Le, Dao Khau, Khang Huynh, Huy Ngo, Huy Nguyen, Phu Ta"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E30" location="Parameter!A1" display="2. Điền thông tin tài khoản @Username"/>
-    <hyperlink ref="E31" location="Parameter!A1" display="3. Điền thông tin tài khoản @Password"/>
-    <hyperlink ref="E32" location="Parameter!A1" display="4. Điền thông tin Email @Email"/>
+    <hyperlink ref="E34" location="Parameter!A1" display="2. Điền thông tin tài khoản @Username"/>
+    <hyperlink ref="E35" location="Parameter!A1" display="3. Điền thông tin tài khoản @Password"/>
+    <hyperlink ref="E36" location="Parameter!A1" display="4. Điền thông tin Email @Email"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11027,13 +11288,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="94"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="55">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -11043,11 +11304,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="94"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="55">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -11057,55 +11318,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="55">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="95" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="95"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="55">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="95" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="95"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="55">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="95" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="95"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="55">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="96" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="56">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
@@ -14332,178 +14593,178 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:H19 H52:H59 H61:H64 H22:H23">
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H19 H52:H59 H61:H64 H22:H23">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="46" priority="39" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="45" priority="40" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 H32 H26:H29">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 H32 H26:H29">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67 H78:H79 H82:H83 H149:H150 H153:H154 H69:H70 H146 H73:H75 H86:H88 H107:H112 H115:H117 H119:H121 H123:H125 H128:H136 H98:H100 H102:H104">
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67 H78:H79 H82:H83 H149:H150 H153:H154 H69:H70 H146 H73:H75 H86:H88 H107:H112 H115:H117 H119:H121 H123:H125 H128:H136 H98:H100 H102:H104">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="31" priority="22" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38 H40:H46">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38 H40:H46">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H95">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H95">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138:H143">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138:H143">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H138)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14536,8 +14797,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14547,22 +14808,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14581,7 +14842,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="71" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14589,7 +14850,7 @@
     </row>
     <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L13" s="71" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>

--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
@@ -22,7 +22,7 @@
     <sheet name="Testcase Sprint 1" sheetId="1" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$143</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Testcase Sprint 1'!$A$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="736">
   <si>
     <t>Expected results</t>
   </si>
@@ -1992,33 +1992,6 @@
     <t>TC.26.1</t>
   </si>
   <si>
-    <t>Trang 1 hiển thị 5 câu hỏi</t>
-  </si>
-  <si>
-    <t>Trang 2 hiển thị 5 câu hỏi</t>
-  </si>
-  <si>
-    <t>Trang 3 hiển thị 5 câu hỏi</t>
-  </si>
-  <si>
-    <t>Trang 4 hiển thị 5 câu hỏi</t>
-  </si>
-  <si>
-    <t>Trang 5 hiển thị 5 câu hỏi</t>
-  </si>
-  <si>
-    <t>Mỗi trang trong danh sách có sẵn chỉ hiển thị 5 câu hỏi
-Hiển thị tối đa 5 trang ở danh sách có sẵn</t>
-  </si>
-  <si>
-    <t>Mỗi trang trong danh sách hiện tại chỉ hiển thị 5 câu hỏi
-Hiển thị tối đa 5 trang ở danh sách hiện tại</t>
-  </si>
-  <si>
-    <t>Mỗi trang trong danh sách đã xóa chỉ hiển thị 5 câu hỏi
-Hiển thị tối đa 5 trang ở danh sách đã xóa</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -2165,111 +2138,6 @@
     <t>Show login interface</t>
   </si>
   <si>
-    <t>Website authorized the information in is too process change the password</t>
-  </si>
-  <si>
-    <t>Pre-conditions:Logged in website with account 'Admin123', pass 'Admin123'</t>
-  </si>
-  <si>
-    <t>3. Input password: 'thienphuta1907'</t>
-  </si>
-  <si>
-    <t>1. Input old password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Input new password </t>
-  </si>
-  <si>
-    <t>3. Re-input new password</t>
-  </si>
-  <si>
-    <t>4. Confirm change password</t>
-  </si>
-  <si>
-    <t>Case 1:
-Show message : old password is wrong
-Case 2:
-Show message : new password is wrong
-Case 3:
-New password stored in the database. Show message : change password successfull
-Case 4:
-Show message : lack old password.
-Case 5:
-Show message : lack new password.</t>
-  </si>
-  <si>
-    <t>Pre-conditions:  In the database is available an account: 'phuta1'</t>
-  </si>
-  <si>
-    <t>1. Choose register</t>
-  </si>
-  <si>
-    <t>2. Input @Username</t>
-  </si>
-  <si>
-    <t>3. Input @Password</t>
-  </si>
-  <si>
-    <t>4. Input Email @Email</t>
-  </si>
-  <si>
-    <t>5. Input user name</t>
-  </si>
-  <si>
-    <t>6. Input correct capschat</t>
-  </si>
-  <si>
-    <t>7. Register</t>
-  </si>
-  <si>
-    <t>Website authorized the information in is too process regidter</t>
-  </si>
-  <si>
-    <t>Case FALSE:
-Show message : account is invalid</t>
-  </si>
-  <si>
-    <t>Case FALSE:
-Show message : password is invalid</t>
-  </si>
-  <si>
-    <t>Case FALSE:
-Show message : Email is invalid</t>
-  </si>
-  <si>
-    <t>Show message : account is exist if Username là 'phuta1'</t>
-  </si>
-  <si>
-    <t>The site displays messages to users in the registration process</t>
-  </si>
-  <si>
-    <t>Pre-conditions: In the database is unavailable an account 'phuta1'</t>
-  </si>
-  <si>
-    <t>2. Input account: 'phuta1'</t>
-  </si>
-  <si>
-    <t>4. Input Email: 'thienphuta1907@gmail.com'</t>
-  </si>
-  <si>
-    <t>5. Input username: 'Tạ Ngọc Thiên Phú'</t>
-  </si>
-  <si>
-    <t>The site displays a message if the account did not enter a blank</t>
-  </si>
-  <si>
-    <t>The site displays a message if the password did not enter a blank</t>
-  </si>
-  <si>
-    <t>The site displays a message if the Email did not enter a blank</t>
-  </si>
-  <si>
-    <t>The site displays a message if the username did not enter a blank</t>
-  </si>
-  <si>
-    <t>Account information is stored in a database, display a message successfully registered</t>
-  </si>
-  <si>
     <t>Displays account information, email, user name</t>
   </si>
   <si>
@@ -2278,88 +2146,6 @@
   </si>
   <si>
     <t>Displays information stored in hip database account, the information displayed is not modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each page in list question unanswered display only 6 questions. 
-Show up to 5 pages in list unanswered questions
-</t>
-  </si>
-  <si>
-    <t>Each page in question cached list shows only 6 questions. 
-Show up to 5 pages in list-tempsave.</t>
-  </si>
-  <si>
-    <t>Each page in question lists show only answered 6 questions. 
-Show up to 5 pages in the list-saved</t>
-  </si>
-  <si>
-    <t>Each page in question lists show only answered 6 questions. 
-Show up to 5 pages in the list-deleted</t>
-  </si>
-  <si>
-    <t>2. Select page 2</t>
-  </si>
-  <si>
-    <t>3. Select page 3</t>
-  </si>
-  <si>
-    <t>4. Select page 4</t>
-  </si>
-  <si>
-    <t>5. Select page 5</t>
-  </si>
-  <si>
-    <t>6. Select page 6</t>
-  </si>
-  <si>
-    <t>7. Select page 7</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. In the database there are 40 records unanswered questions</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. In the database there are 40 records temps-save questions</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. In the database there are 40 records list-saved questions</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. In the database there are 40 records list-deleted questions</t>
-  </si>
-  <si>
-    <t>1. Choose list-unanswer</t>
-  </si>
-  <si>
-    <t>1. Choose list-tempsave</t>
-  </si>
-  <si>
-    <t>1. Choose list-saved</t>
-  </si>
-  <si>
-    <t>1. Choose list-deleted</t>
-  </si>
-  <si>
-    <t>Page 1 display 6 questions</t>
-  </si>
-  <si>
-    <t>Page 2 display 6 questions</t>
-  </si>
-  <si>
-    <t>Page 3 display 6 questions</t>
-  </si>
-  <si>
-    <t>Page 4 display 6 questions</t>
-  </si>
-  <si>
-    <t>Page 5 display 6 questions</t>
-  </si>
-  <si>
-    <t>Page 6 display 6 questions
-When Select page 6,The site only display pages : 2, 3, 4, 5, 6. Hide page 1</t>
-  </si>
-  <si>
-    <t>Page 7 display 6 questions
-When Select page 6,The site only display pages : 3, 4, 5, 6,7. Hide page 1,2</t>
   </si>
   <si>
     <t>Show checkbox before each question 
@@ -2519,9 +2305,6 @@
     <t>Show list 'Drop'</t>
   </si>
   <si>
-    <t>1. Choose dictionary</t>
-  </si>
-  <si>
     <t>Pre-conditions: Users logged into the site. 
 1. Choose dictionary
 2. Select list Available
@@ -2538,162 +2321,6 @@
 1. Choose dictionary
 2. Select list Delete
 3. Check data</t>
-  </si>
-  <si>
-    <t>2. Select list có sẵn</t>
-  </si>
-  <si>
-    <t>The user selects one or more questions answered from the list included in the list of available dictionaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-conditions: Users logged into the site. In the database there are 40 records saved questions </t>
-  </si>
-  <si>
-    <t>The question was transferred to the available list. Show notification Putting the question in dictionaries success</t>
-  </si>
-  <si>
-    <t>1. Select list-unanswer</t>
-  </si>
-  <si>
-    <t>2. Select question</t>
-  </si>
-  <si>
-    <t>4. Select "Đưa vào từ điển"</t>
-  </si>
-  <si>
-    <t>5. Confirm Đưa vào từ điển</t>
-  </si>
-  <si>
-    <t>The user selects one or more questions from the list of available dictionaries included in the current list</t>
-  </si>
-  <si>
-    <t>2. Select list Available</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. In the database there are 40 records on list "Available"</t>
-  </si>
-  <si>
-    <t>The question was transferred to the current list. Show notification Putting the question in dictionaries success</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site.
-In the list of current dictionaries have 10 records</t>
-  </si>
-  <si>
-    <t>2. Select list current</t>
-  </si>
-  <si>
-    <t>3. select question</t>
-  </si>
-  <si>
-    <t>4. Select drop question</t>
-  </si>
-  <si>
-    <t>5. Confirm drop question</t>
-  </si>
-  <si>
-    <t>The question was transferred to the drop list. Show notification drop the question in dictionaries success</t>
-  </si>
-  <si>
-    <t>The user drops one or more questions from the current list of dictionaries</t>
-  </si>
-  <si>
-    <t>Delete one or more question from the list of questions unanswered</t>
-  </si>
-  <si>
-    <t>The question was transferred to the deleted list. Show deleted successfully inform users</t>
-  </si>
-  <si>
-    <t>1. Select list -unanswer</t>
-  </si>
-  <si>
-    <t>3. Choose 'Delete'</t>
-  </si>
-  <si>
-    <t>4. Confirm "delete"</t>
-  </si>
-  <si>
-    <t>Delete one or more question from the list of questions temp-save</t>
-  </si>
-  <si>
-    <t>Delete one or more question from the list of questions saved</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. 
-In the list of unanswered questions exist 10 records</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. 
-In the list of temp-save questions exist 10 records</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. 
-In the list of saved questions exist 10 records</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. 
-Deleted from the list of 4 questions were deleted from the list of unanswered</t>
-  </si>
-  <si>
-    <t>1. Select list-deleted</t>
-  </si>
-  <si>
-    <t>3. Choose 'recover'</t>
-  </si>
-  <si>
-    <t>4. Confirm "recover"</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. 
-Deleted from the list of 4 questions were deleted from the list of tempsave</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. 
-Deleted from the list of 4 questions were deleted from the list of saved</t>
-  </si>
-  <si>
-    <t>Recover deleted from questions unanswered list</t>
-  </si>
-  <si>
-    <t>Recover deleted from questions list-tempsave</t>
-  </si>
-  <si>
-    <t>Recover deleted from questions list-saved</t>
-  </si>
-  <si>
-    <t>The question was transferred to the unanswered list. Show deleted successfully inform users</t>
-  </si>
-  <si>
-    <t>The question was transferred to the list-tempsave. Show deleted successfully inform users</t>
-  </si>
-  <si>
-    <t>The question was transferred to the list-saved. Show deleted successfully inform users</t>
-  </si>
-  <si>
-    <t>Recover deleted from questions list-available</t>
-  </si>
-  <si>
-    <t>Recover deleted from questions list-drop</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. 
-Deleted from the list of 4 questions were deleted from the list of available</t>
-  </si>
-  <si>
-    <t>1. Select list-available</t>
-  </si>
-  <si>
-    <t>1. Select list-drop</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. 
-Deleted from the list of 4 questions were deleted from the list of drop</t>
-  </si>
-  <si>
-    <t>The question was transferred to the available list. Show notification successful recovery questions</t>
-  </si>
-  <si>
-    <t>The question was transferred to the drop list. Show notification successful recovery questions</t>
   </si>
   <si>
     <t>Implementation of new questions and generate answers for dictionaries</t>
@@ -2861,6 +2488,450 @@
   </si>
   <si>
     <t>Help with account and password incorrect</t>
+  </si>
+  <si>
+    <t>Show notification error when sending error</t>
+  </si>
+  <si>
+    <t>Old password corresponding to the account's password is stored in database</t>
+  </si>
+  <si>
+    <t>Show notification old password is incorrect, please re-enter</t>
+  </si>
+  <si>
+    <t>Show notification new password is incorrect, please re-enter</t>
+  </si>
+  <si>
+    <t>The new password is saved to the database. Displays inform users</t>
+  </si>
+  <si>
+    <t>The website displays the message empty new password</t>
+  </si>
+  <si>
+    <t>The website displays the message empty  password</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In database available account'Admin123', pass 'Admin123'
+1. Enter old password:'Admin123456'
+2. Enter new password:'Ad123456'
+3. Enter re-password:'Ad123456'
+4. Confirm change password</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In database available account'Admin123', pass 'Admin123'
+1. Enter old password:'Admin123456'
+2. Enter new password:'Ad1234%6'
+3. Enter re-password:'Ad123456'
+4. Confirm change password</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In database available account'Admin123', pass 'Admin123'
+1. Enter old password:'Admin123456'
+2. Enter new password:'Ad123456'
+3. Enter re-password:'Ad1 3456'
+4. Confirm change password</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In database available account'Admin123', pass 'Admin123'
+1. Enter old password:'Admin123'
+2. Enter new password:'Ad123456'
+3. Enter re-password:'Ad123456'
+4. Confirm change password</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In database available account'Admin123', pass 'Admin123'
+1. Enter new password:'Ad123456'
+2. Enter re-password:'Ad123456'
+3. Confirm change password</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In database available account'Admin123', pass 'Admin123'
+1. Enter old password:'Admin123'
+2. Enter re-password:'Ad123456'
+3. Confirm change password</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In database available account'Admin123', pass 'Admin123'
+1. Enter old password:'Admin123'
+2. Enter new password:'Ad123456'
+3. Confirm change password</t>
+  </si>
+  <si>
+    <t>The new password must be at least 6 characters or more, including [az] / [AZ] / [0-9] and special characters</t>
+  </si>
+  <si>
+    <t>The new password must be repeated with the same new password</t>
+  </si>
+  <si>
+    <t>Display notifications password change  success</t>
+  </si>
+  <si>
+    <t>Show information notifications when the old password is empty</t>
+  </si>
+  <si>
+    <t>Show information notifications when the new password is empty</t>
+  </si>
+  <si>
+    <t>Show information notifications when the re- password is empty</t>
+  </si>
+  <si>
+    <t>Username users are allowed to use only the characters [az] / [AZ] / [0-9]</t>
+  </si>
+  <si>
+    <t>Email subscribers must have the character '@'</t>
+  </si>
+  <si>
+    <t>Register an account already exists in the database</t>
+  </si>
+  <si>
+    <t>Case 1: FALSE 
+Show website notice incorrect account 
+Case 2: TRUE 
+The site displays a message not to enter a password, email, name</t>
+  </si>
+  <si>
+    <t>Show notification account already exists. 
+Show notified not to enter a password, email, full name</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In the database already exists account 'phuta1'
+1. Select register
+2. Enter account information: 'phuta1'
+3. Register</t>
+  </si>
+  <si>
+    <t>1. Select register
+2. Enter account information @Username
+3. Login</t>
+  </si>
+  <si>
+    <t>1. Select register
+2. Enter account information @Password
+3. Login</t>
+  </si>
+  <si>
+    <t>1. Select register
+2. Điền thông tin Email @Email
+3. Login</t>
+  </si>
+  <si>
+    <t>1. Select register
+2. Enter password 'thienphuta1907'
+3. Enter Email 'thienphuta1907@gmail.com'
+4. Enter fullname 'Tạ Ngọc Thiên Phú'
+5. Register</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In the database is not exists account 'phuta1'
+Pre-conditions: 
+1. Select register
+2. Enter account information: 'phuta1'
+3. Enter Email 'thienphuta1907@gmail.com'
+4. Enter fullname 'Tạ Ngọc Thiên Phú'
+5. Register</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In the database is not exists account 'phuta1'
+1. Select register
+2. Enter account information: 'phuta1'
+3. Enter password 'thienphuta1907'
+4. Enter fullname 'Tạ Ngọc Thiên Phú'
+5. Register</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In the database is not exists account 'phuta1'
+1. Select register
+2. Enter account information: 'phuta1'
+3. Enter password 'thienphuta1907'
+4. Enter Email 'thienphuta1907@gmail.com'
+5. Register</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In the database is not exists account 'phuta1'
+1. Select register
+2. Enter account information: 'phuta1'
+3. Enter password 'thienphuta1907'
+4. Enter Email 'thienphuta1907@gmail.com'
+5. Enter fullname 'Tạ Ngọc Thiên Phú'
+6. Điền Capcha đúng với hình ảnh
+7. Register</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In the database is not exists account 'phuta1'
+1. Select register
+2. Enter account information: 'phuta1'
+3. Enter password 'thienphuta1907'
+4. Enter Email 'thienphuta1907@gmail.com'
+5. Enter fullname 'Tạ Ngọc Thiên Phú'
+6. Để trống Capcha
+7. Register</t>
+  </si>
+  <si>
+    <t>Pre-conditions: In the database is not exists account 'phuta1'
+1. Select register
+2. Enter account information: 'phuta1'
+3. Enter password 'thienphuta1907'
+4. Enter Email 'thienphuta1907@gmail.com'
+5. Enter fullname 'Tạ Ngọc Thiên Phú'
+6. Điền Capcha không chính xác với hình ảnh
+7. Register</t>
+  </si>
+  <si>
+    <t>Show information notifications when to empty accounts</t>
+  </si>
+  <si>
+    <t>Show information notifications when to empty password</t>
+  </si>
+  <si>
+    <t>Show information notifications when to empty Email</t>
+  </si>
+  <si>
+    <t>Show information notifications when to empty full name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display notification Register success  </t>
+  </si>
+  <si>
+    <t>Show notification when entering incorrect CAPCHA</t>
+  </si>
+  <si>
+    <t>Show information notifications when to empty Captcha</t>
+  </si>
+  <si>
+    <t>The site displays a message not enter Email</t>
+  </si>
+  <si>
+    <t>The site displays a message not enter fullname</t>
+  </si>
+  <si>
+    <t>Account information is stored in a database, display a message Register successful</t>
+  </si>
+  <si>
+    <t>The site displays a message not enter Captcha</t>
+  </si>
+  <si>
+    <t>The site displays a message CAPTCHA inaccurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Conditions: In the database there are 20 records unanswered questions 
+1. Choose  list-unanswered
+2. Examine questions of 1 page 
+3. Choose page 2 
+4. Examine questions on page 2 </t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the database there are 20 records unanswered questions 
+1. Choose  list-tempsave
+2. Examine questions of 1 page 
+3. Choose page 2 
+4. Examine questions on page 2</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the database there are 20 records unanswered questions 
+1. Choose  list-saved
+2. Examine questions of 1 page 
+3. Choose page 2 
+4. Examine questions on page 2</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the database there are 20 records unanswered questions 
+1. Choose  list-deleted
+2. Examine questions of 1 page 
+3. Choose page 2 
+4. Examine questions on page 2</t>
+  </si>
+  <si>
+    <t>Display the list questions according to each trang have been sort, each page display the 6 questions</t>
+  </si>
+  <si>
+    <t>Each page in list-unanswer index displaying 6 questions</t>
+  </si>
+  <si>
+    <t>Each page in list-tempsave index displaying 6 questions</t>
+  </si>
+  <si>
+    <t>Each page in list-saved index displaying 6 questions</t>
+  </si>
+  <si>
+    <t>Each page in list-deleted index displaying 6 questions</t>
+  </si>
+  <si>
+    <t>Display the maximum 5 trang in the list-unanswer</t>
+  </si>
+  <si>
+    <t>Display the maximum 5 trang in the list-tempsave</t>
+  </si>
+  <si>
+    <t>Display the maximum 5 trang in the list-saved</t>
+  </si>
+  <si>
+    <t>Display the maximum 5 trang in the list-deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-điều kiện: In the database there are 40 records unanswered questions 
+1. Select list-unanswer
+2. Select trang 2 _x000D_
+3. Select trang 3 _x000D_
+4. Select trang 4 _x000D_
+5. Select trang 5 _x000D_
+6. Select trang 6 _x000D_
+7. Select trang 7 </t>
+  </si>
+  <si>
+    <t>Pre-điều kiện: In the database there are 40 records unanswered questions 
+1. Select list-tempsave
+2. Select trang 2 _x000D_
+3. Select trang 3 _x000D_
+4. Select trang 4 _x000D_
+5. Select trang 5 _x000D_
+6. Select trang 6 _x000D_
+7. Select trang 8</t>
+  </si>
+  <si>
+    <t>Pre-điều kiện: In the database there are 40 records unanswered questions 
+1. Select list-saved _x000D_
+2. Select trang 2 _x000D_
+3. Select trang 3 _x000D_
+4. Select trang 4 _x000D_
+5. Select trang 5 _x000D_
+6. Select trang 6 _x000D_
+7. Select trang 9</t>
+  </si>
+  <si>
+    <t>Pre-điều kiện: In the database there are 40 records unanswered questions 
+1. Select list-deleted_x000D_
+2. Select trang 2 _x000D_
+3. Select trang 3 _x000D_
+4. Select trang 4 _x000D_
+5. Select trang 5 _x000D_
+6. Select trang 6 _x000D_
+7. Select trang 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When choosing page 6, page website only displays 2, 3, 4, 5, 6. 
+When choosing page 7, page website only displays 3, 4, 5, 6, 7 </t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list of questions answered 10 records available 
+1. Select list-saved
+2. Choose a question (no checkbox) 
+4. Choose Add to dictionary 
+5. Confirming Add to dictionary</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list of questions answered 10 records available 
+1. Select  list-saved
+2. Choose a question (checkboxed) 
+4. Choose Add to dictionary 
+5. Confirming Add to dictionary</t>
+  </si>
+  <si>
+    <t>The question was transferred to the available list. Show notification Putting the question in dictionaries success</t>
+  </si>
+  <si>
+    <t>Put a question to the dictionary</t>
+  </si>
+  <si>
+    <t>Put a question to the dictionary with checkbox</t>
+  </si>
+  <si>
+    <t>Put multi question to the dictionary</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list of 'Available' of 10 dictionaries available records 
+1. Choose dictionaries 
+2. Select 'Available' 
+3. Choose a question (no checkbox) 
+4. Choose Add to dictionary 
+5. Confirming Add to dictionary</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list of 'Available' of 10 dictionaries available records 
+1. Choose dictionaries 
+2. Select 'Available' 
+3. Choose a question (checkboxed) 
+4. Choose Add to dictionary 
+5. Confirming Add to dictionary</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list of 'Available' of 10 dictionaries available records 
+1. Choose dictionaries 
+2. Select 'Available' 
+3. Choose a question (checkboxed) ) 
+4. Choose Add to dictionary 
+5. Confirming Add to dictionary</t>
+  </si>
+  <si>
+    <t>The question was transferred to the current list. Show notification Putting the question in dictionaries success</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list-current dictionaries available 10 records 
+1. Choose dictionaries 
+2. Select 'Current' 
+3. Choose a questions 
+4. Choose Drop
+5. Confirmation Drop</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list-current dictionaries available 10 records 
+1. Choose dictionaries 
+2. Select 'Current' 
+3. Choose a questions  (checked box)
+4. Choose Drop
+5. Confirmation Drop</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list-current dictionaries available 10 records 
+1. Choose dictionaries 
+2. Select 'Current' 
+3. Choose 3 questions 
+4. Choose Drop
+5. Confirmation Drop</t>
+  </si>
+  <si>
+    <t>drop a question from list-current</t>
+  </si>
+  <si>
+    <t>drop a question from list-current with check box</t>
+  </si>
+  <si>
+    <t>drop multi question from list-current</t>
+  </si>
+  <si>
+    <t>The question was transferred to the drop list. Displays notification drop success</t>
+  </si>
+  <si>
+    <t>Delete  a question</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Available in a list of 10 unanswered questions  
+1. Choose  list unanswered
+2. Choose any question (do not select the check box) 
+3. Choose Delete in detail interface question 
+4. Confirm Deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The question was transferred to the list-deleted. Show notification deleted successfully </t>
+  </si>
+  <si>
+    <t>Delete a question with check box</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Available in a list of 10 unanswered questions  
+1. Choose  list unanswered
+2. Choose any question (checked box) 
+3. Choose Delete in detail interface question 
+4. Confirm Deletion</t>
+  </si>
+  <si>
+    <t>Delete multi questions</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Available in a list of 10 unanswered questions  
+1. Choose  list unanswered
+2. Choose all question  (checked box)  
+3. Choose Delete in detail interface question 
+4. Confirm Deletion</t>
   </si>
 </sst>
 </file>
@@ -3052,7 +3123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3204,30 +3275,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -3240,7 +3287,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3444,13 +3491,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3480,49 +3524,153 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="148">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4472,7 +4620,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4693,9 +4840,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4736,13 +4881,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5019,7 +5164,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6199,11 +6343,11 @@
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -6386,13 +6530,13 @@
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
-        <v>716</v>
+        <v>602</v>
       </c>
       <c r="C26" s="19">
         <v>1.8</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>715</v>
+        <v>601</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19" t="s">
@@ -6623,13 +6767,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="str">
+      <c r="A5" s="81" t="str">
         <f>'Testcase Specification'!B11</f>
         <v>Login</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
@@ -6640,7 +6784,7 @@
         <v>Check login</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>717</v>
+        <v>603</v>
       </c>
       <c r="D6" s="43"/>
     </row>
@@ -6653,7 +6797,7 @@
         <v>Check invalid login</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -6669,13 +6813,13 @@
       <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="str">
+      <c r="A9" s="81" t="str">
         <f>'Testcase Specification'!B22</f>
         <v>Change password</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
@@ -6686,29 +6830,29 @@
         <v>Check password</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>718</v>
+        <v>604</v>
       </c>
       <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="str">
-        <f>'Testcase Specification'!B30</f>
+      <c r="A11" s="81" t="str">
+        <f>'Testcase Specification'!B31</f>
         <v>Register</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
     </row>
     <row r="12" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f>'Testcase Specification'!C31</f>
+        <f>'Testcase Specification'!C32</f>
         <v>Check register</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>719</v>
+        <v>605</v>
       </c>
       <c r="D12" s="43"/>
     </row>
@@ -6717,55 +6861,55 @@
         <v>133</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f>'Testcase Specification'!C40</f>
+        <f>'Testcase Specification'!C37</f>
         <v>Show notification</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>720</v>
+        <v>606</v>
       </c>
       <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="str">
-        <f>'Testcase Specification'!B49</f>
+      <c r="A14" s="81" t="str">
+        <f>'Testcase Specification'!B45</f>
         <v>View profile</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
     </row>
     <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B15" s="43" t="str">
-        <f>'Testcase Specification'!C50</f>
+        <f>'Testcase Specification'!C46</f>
         <v>Show user profile</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>721</v>
+        <v>607</v>
       </c>
       <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="str">
-        <f>'Testcase Specification'!B52</f>
+      <c r="A16" s="81" t="str">
+        <f>'Testcase Specification'!B48</f>
         <v>Show list question</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>156</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f>'Testcase Specification'!C53</f>
+        <f>'Testcase Specification'!C49</f>
         <v>Pagging</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>722</v>
+        <v>608</v>
       </c>
       <c r="D17" s="43"/>
     </row>
@@ -6774,33 +6918,33 @@
         <v>164</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f>'Testcase Specification'!C86</f>
+        <f>'Testcase Specification'!C58</f>
         <v>Content of List question</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>723</v>
+        <v>609</v>
       </c>
       <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="82" t="str">
-        <f>'Testcase Specification'!B91</f>
+      <c r="A19" s="81" t="str">
+        <f>'Testcase Specification'!B63</f>
         <v>Search</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="43" t="str">
-        <f>'Testcase Specification'!C92</f>
+        <f>'Testcase Specification'!C64</f>
         <v>Check data</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>724</v>
+        <v>610</v>
       </c>
       <c r="D20" s="43"/>
     </row>
@@ -6809,99 +6953,99 @@
         <v>190</v>
       </c>
       <c r="B21" s="43" t="str">
-        <f>'Testcase Specification'!C94</f>
+        <f>'Testcase Specification'!C66</f>
         <v>Implement search</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>725</v>
+        <v>611</v>
       </c>
       <c r="D21" s="43"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="str">
-        <f>'Testcase Specification'!B96</f>
+      <c r="A22" s="81" t="str">
+        <f>'Testcase Specification'!B68</f>
         <v>view question</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>193</v>
       </c>
       <c r="B23" s="43" t="str">
-        <f>'Testcase Specification'!C97</f>
+        <f>'Testcase Specification'!C69</f>
         <v>Show detail question</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>726</v>
+        <v>612</v>
       </c>
       <c r="D23" s="43"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="str">
-        <f>'Testcase Specification'!B101</f>
+      <c r="A24" s="81" t="str">
+        <f>'Testcase Specification'!B73</f>
         <v>Send mail</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>197</v>
       </c>
       <c r="B25" s="43" t="str">
-        <f>'Testcase Specification'!C102</f>
+        <f>'Testcase Specification'!C74</f>
         <v xml:space="preserve">Send answer </v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>727</v>
+        <v>613</v>
       </c>
       <c r="D25" s="43"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="str">
-        <f>'Testcase Specification'!B105</f>
+      <c r="A26" s="81" t="str">
+        <f>'Testcase Specification'!B77</f>
         <v>Save question</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
     </row>
     <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>199</v>
       </c>
       <c r="B27" s="43" t="str">
-        <f>'Testcase Specification'!C106</f>
+        <f>'Testcase Specification'!C78</f>
         <v>Save question</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>728</v>
+        <v>614</v>
       </c>
       <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="str">
-        <f>'Testcase Specification'!B109</f>
+      <c r="A28" s="81" t="str">
+        <f>'Testcase Specification'!B81</f>
         <v>Dictionary</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
     </row>
     <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>201</v>
       </c>
       <c r="B29" s="43" t="str">
-        <f>'Testcase Specification'!C110</f>
+        <f>'Testcase Specification'!C82</f>
         <v>Show dict</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>729</v>
+        <v>615</v>
       </c>
       <c r="D29" s="43"/>
     </row>
@@ -6910,33 +7054,33 @@
         <v>322</v>
       </c>
       <c r="B30" s="43" t="str">
-        <f>'Testcase Specification'!C115</f>
+        <f>'Testcase Specification'!C87</f>
         <v>Paging for list-dictionary</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>730</v>
+        <v>616</v>
       </c>
       <c r="D30" s="43"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="str">
-        <f>'Testcase Specification'!B143</f>
+      <c r="A31" s="81" t="str">
+        <f>'Testcase Specification'!B94</f>
         <v>Insert-dict</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>345</v>
       </c>
       <c r="B32" s="43" t="str">
-        <f>'Testcase Specification'!C144</f>
+        <f>'Testcase Specification'!C95</f>
         <v>put question into dict from list-save</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>731</v>
+        <v>617</v>
       </c>
       <c r="D32" s="43"/>
     </row>
@@ -6945,55 +7089,55 @@
         <v>362</v>
       </c>
       <c r="B33" s="43" t="str">
-        <f>'Testcase Specification'!C150</f>
+        <f>'Testcase Specification'!C99</f>
         <v>Insert dict on internet from list-dict (available)</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>732</v>
+        <v>618</v>
       </c>
       <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="82" t="str">
-        <f>'Testcase Specification'!B157</f>
+      <c r="A34" s="81" t="str">
+        <f>'Testcase Specification'!B103</f>
         <v>Drop-dict</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
     </row>
     <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>363</v>
       </c>
       <c r="B35" s="43" t="str">
-        <f>'Testcase Specification'!C158</f>
+        <f>'Testcase Specification'!C104</f>
         <v>drop-dict</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>733</v>
+        <v>619</v>
       </c>
       <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="82" t="str">
-        <f>'Testcase Specification'!B165</f>
+      <c r="A36" s="81" t="str">
+        <f>'Testcase Specification'!B108</f>
         <v>Delete question</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>366</v>
       </c>
       <c r="B37" s="43" t="str">
-        <f>'Testcase Specification'!C166</f>
+        <f>'Testcase Specification'!C109</f>
         <v>Delete question in list-unanswer</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>734</v>
+        <v>620</v>
       </c>
       <c r="D37" s="43"/>
     </row>
@@ -7002,11 +7146,11 @@
         <v>366</v>
       </c>
       <c r="B38" s="43" t="str">
-        <f>'Testcase Specification'!C172</f>
+        <f>'Testcase Specification'!C113</f>
         <v>Delete question in list-tempsave</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>735</v>
+        <v>621</v>
       </c>
       <c r="D38" s="43"/>
     </row>
@@ -7015,33 +7159,33 @@
         <v>386</v>
       </c>
       <c r="B39" s="43" t="str">
-        <f>'Testcase Specification'!C178</f>
+        <f>'Testcase Specification'!C117</f>
         <v>Delete question in list-saved</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>736</v>
+        <v>622</v>
       </c>
       <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="82" t="str">
-        <f>'Testcase Specification'!B184</f>
+      <c r="A40" s="81" t="str">
+        <f>'Testcase Specification'!B121</f>
         <v>Recover question</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>387</v>
       </c>
       <c r="B41" s="43" t="str">
-        <f>'Testcase Specification'!C185</f>
+        <f>'Testcase Specification'!C122</f>
         <v>Recover question from list-deleted</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>733</v>
+        <v>619</v>
       </c>
       <c r="D41" s="43"/>
     </row>
@@ -7050,43 +7194,43 @@
         <v>451</v>
       </c>
       <c r="B42" s="43" t="str">
-        <f>'Testcase Specification'!C201</f>
+        <f>'Testcase Specification'!C132</f>
         <v>Recover question from list-dict</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>737</v>
+        <v>623</v>
       </c>
       <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="82" t="str">
-        <f>'Testcase Specification'!B214</f>
+      <c r="A43" s="81" t="str">
+        <f>'Testcase Specification'!B139</f>
         <v>Create question</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
     </row>
     <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>496</v>
       </c>
       <c r="B44" s="43" t="str">
-        <f>'Testcase Specification'!C215</f>
+        <f>'Testcase Specification'!C140</f>
         <v>Create question</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>738</v>
+        <v>624</v>
       </c>
       <c r="D44" s="43"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
@@ -7101,12 +7245,12 @@
       <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
@@ -7121,12 +7265,12 @@
       <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
@@ -7148,14 +7292,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A26:D26"/>
@@ -7166,6 +7302,14 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7178,10 +7322,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:J224"/>
+  <dimension ref="A2:J149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -7190,92 +7334,92 @@
     <col min="3" max="3" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" style="39" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="39" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="55">
-        <f>COUNTIF(I13:I224,"&gt;a0")</f>
-        <v>47</v>
+        <f>COUNTIF(I13:I149,"&gt;a0")</f>
+        <v>91</v>
       </c>
       <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="55">
         <f>SUM(D5:D6)</f>
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E3" s="64"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="55">
         <f>D2-D3</f>
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="85" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="55">
-        <f>COUNTIF(H12:H224,"Passed")</f>
-        <v>6</v>
+        <f>COUNTIF(H12:H149,"Passed")</f>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="55">
-        <f>COUNTIF(H12:H224,"Failed")</f>
-        <v>0</v>
+        <f>COUNTIF(H12:H149,"Failed")</f>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="85" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="55">
-        <f>COUNTIF(H12:H224,"Block")</f>
-        <v>0</v>
+        <f>COUNTIF(H12:H149,"Block")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="86" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="56">
         <f>1-(D4/D2)</f>
-        <v>0.12765957446808507</v>
+        <v>0.96703296703296704</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -7309,7 +7453,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="62" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -7325,7 +7469,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
@@ -7343,13 +7487,13 @@
         <v>44</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>97</v>
@@ -7367,7 +7511,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
@@ -7385,16 +7529,16 @@
         <v>60</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>755</v>
+        <v>641</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>745</v>
+        <v>636</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>97</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>120</v>
@@ -7402,8 +7546,8 @@
       <c r="I15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="76" t="s">
-        <v>536</v>
+      <c r="J15" s="75" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7414,16 +7558,16 @@
         <v>61</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>756</v>
+        <v>642</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>746</v>
+        <v>637</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>97</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>120</v>
@@ -7431,7 +7575,7 @@
       <c r="I16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="77"/>
+      <c r="J16" s="76"/>
     </row>
     <row r="17" spans="2:10" ht="75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
@@ -7441,16 +7585,16 @@
         <v>62</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>757</v>
+        <v>643</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>747</v>
+        <v>638</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>97</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>120</v>
@@ -7458,7 +7602,7 @@
       <c r="I17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="77"/>
+      <c r="J17" s="76"/>
     </row>
     <row r="18" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
@@ -7468,16 +7612,16 @@
         <v>63</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>758</v>
+        <v>644</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>748</v>
+        <v>639</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>97</v>
       </c>
       <c r="H18" s="41" t="s">
         <v>120</v>
@@ -7485,7 +7629,7 @@
       <c r="I18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="77"/>
+      <c r="J18" s="76"/>
     </row>
     <row r="19" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
@@ -7495,16 +7639,16 @@
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>759</v>
+        <v>645</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>754</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>749</v>
+        <v>640</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>97</v>
       </c>
       <c r="H19" s="41" t="s">
         <v>120</v>
@@ -7519,7 +7663,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="51"/>
@@ -7537,13 +7681,13 @@
         <v>47</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G21" s="46" t="s">
         <v>97</v>
@@ -7556,7 +7700,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="62" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
@@ -7572,7 +7716,7 @@
         <v>111</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
@@ -7582,3319 +7726,2749 @@
       <c r="I23" s="51"/>
       <c r="J23" s="52"/>
     </row>
-    <row r="24" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B24" s="87" t="s">
+    <row r="24" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="47">
         <v>65</v>
       </c>
-      <c r="D24" s="90" t="s">
+      <c r="D24" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B25" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="47">
+        <v>66</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B26" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="47">
+        <v>67</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B27" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="47">
+        <v>71</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="2:10" ht="57.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B28" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="47">
+        <v>68</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="2:10" ht="57.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B29" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="47">
+        <v>69</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="47">
+        <v>70</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="62" t="s">
+        <v>510</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+    </row>
+    <row r="33" spans="2:10" ht="103.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B33" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="47">
+        <v>73</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>666</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>669</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" s="46"/>
+    </row>
+    <row r="34" spans="2:10" ht="100.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B34" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="47">
+        <v>74</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>673</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>669</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" s="46"/>
+    </row>
+    <row r="35" spans="2:10" ht="101.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B35" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="47">
+        <v>75</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>674</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>669</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B36" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="47">
+        <v>76</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>671</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="46"/>
+    </row>
+    <row r="37" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="52"/>
+    </row>
+    <row r="38" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B38" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>675</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="46"/>
+    </row>
+    <row r="39" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B39" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>676</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" s="46"/>
+    </row>
+    <row r="40" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B40" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>677</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>689</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="46"/>
+    </row>
+    <row r="41" spans="2:10" ht="94.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B41" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>678</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="46"/>
+    </row>
+    <row r="42" spans="2:10" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B42" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>679</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J42" s="46"/>
+    </row>
+    <row r="43" spans="2:10" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B43" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>680</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="46"/>
+    </row>
+    <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B44" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>681</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="46"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+    </row>
+    <row r="47" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B47" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="47">
+        <v>85</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="62" t="s">
+        <v>512</v>
+      </c>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+    </row>
+    <row r="49" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>533</v>
+      </c>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="52"/>
+    </row>
+    <row r="50" spans="2:10" ht="103.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B50" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="47">
+        <v>50</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>699</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J50" s="46"/>
+    </row>
+    <row r="51" spans="2:10" ht="111.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B51" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="33" t="s">
+        <v>700</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J51" s="46"/>
+    </row>
+    <row r="52" spans="2:10" ht="121.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B52" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="33" t="s">
+        <v>701</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>696</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J52" s="46"/>
+    </row>
+    <row r="53" spans="2:10" ht="93.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B53" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="33" t="s">
+        <v>702</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>697</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J53" s="46"/>
+    </row>
+    <row r="54" spans="2:10" ht="159" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B54" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="33" t="s">
+        <v>703</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J54" s="46"/>
+    </row>
+    <row r="55" spans="2:10" ht="165" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B55" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="33" t="s">
+        <v>704</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J55" s="46"/>
+    </row>
+    <row r="56" spans="2:10" ht="168" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B56" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="33" t="s">
+        <v>705</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J56" s="46"/>
+    </row>
+    <row r="57" spans="2:10" ht="144.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B57" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>710</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J57" s="46"/>
+    </row>
+    <row r="58" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>534</v>
+      </c>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="52"/>
+    </row>
+    <row r="59" spans="2:10" ht="123.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B59" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="47">
+        <v>51</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="E59" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="F59" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G59" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J59" s="46"/>
+    </row>
+    <row r="60" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B60" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="47">
+        <v>52</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="E60" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="46"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="33" t="s">
+      <c r="F60" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G60" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J60" s="46"/>
+    </row>
+    <row r="61" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B61" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="47">
+        <v>53</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G61" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B62" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" s="47">
+        <v>93</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="E62" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="33" t="s">
+      <c r="F62" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G62" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="62" t="s">
+        <v>513</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+    </row>
+    <row r="64" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>535</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="52"/>
+    </row>
+    <row r="65" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B65" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="47">
+        <v>54</v>
+      </c>
+      <c r="D65" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="46"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="33" t="s">
+      <c r="E65" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="46"/>
-    </row>
-    <row r="28" spans="2:10" ht="210" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="33" t="s">
+      <c r="F65" s="63" t="s">
         <v>569</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="G65" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="46"/>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="61" t="s">
+        <v>536</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="52"/>
+    </row>
+    <row r="67" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B67" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="47">
+        <v>55</v>
+      </c>
+      <c r="D67" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="62" t="s">
+      <c r="E67" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="G67" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J67" s="46"/>
+    </row>
+    <row r="68" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="62" t="s">
+        <v>514</v>
+      </c>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+    </row>
+    <row r="69" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="61" t="s">
+        <v>537</v>
+      </c>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="52"/>
+    </row>
+    <row r="70" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B70" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="47">
+        <v>57</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="G70" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J70" s="46"/>
+    </row>
+    <row r="71" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B71" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="47">
+        <v>58</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I71" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J71" s="46"/>
+    </row>
+    <row r="72" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B72" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="47">
+        <v>59</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I72" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="61" t="s">
+        <v>538</v>
+      </c>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="52"/>
+    </row>
+    <row r="75" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B75" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="47">
+        <v>95</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="G75" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I75" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="46"/>
+    </row>
+    <row r="76" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B76" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="C76" s="47">
+        <v>96</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="G76" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="46"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="62" t="s">
+        <v>516</v>
+      </c>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+    </row>
+    <row r="78" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" s="61" t="s">
+        <v>516</v>
+      </c>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="52"/>
+    </row>
+    <row r="79" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B79" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="47">
+        <v>97</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I79" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="46"/>
+    </row>
+    <row r="80" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B80" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="C80" s="47">
+        <v>98</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="F80" s="63" t="s">
+        <v>589</v>
+      </c>
+      <c r="G80" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H80" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="I80" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="46"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="62" t="s">
+        <v>517</v>
+      </c>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+    </row>
+    <row r="82" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" s="61" t="s">
+        <v>539</v>
+      </c>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="52"/>
+    </row>
+    <row r="83" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B83" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="C83" s="47">
+        <v>99</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H83" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I83" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J83" s="46"/>
+    </row>
+    <row r="84" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B84" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="C84" s="47">
+        <v>100</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G84" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H84" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I84" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J84" s="46"/>
+    </row>
+    <row r="85" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B85" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" s="47">
+        <v>100</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G85" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H85" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I85" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J85" s="46"/>
+    </row>
+    <row r="86" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B86" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="C86" s="47">
+        <v>101</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G86" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H86" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I86" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J86" s="46"/>
+    </row>
+    <row r="87" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" s="61" t="s">
+        <v>540</v>
+      </c>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="52"/>
+    </row>
+    <row r="88" spans="2:10" ht="134.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B88" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H88" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I88" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J88" s="46"/>
+    </row>
+    <row r="89" spans="2:10" ht="107.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B89" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="C89" s="46"/>
+      <c r="D89" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H89" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I89" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J89" s="46"/>
+    </row>
+    <row r="90" spans="2:10" ht="105.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B90" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90" s="46"/>
+      <c r="D90" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H90" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I90" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J90" s="46"/>
+    </row>
+    <row r="91" spans="2:10" ht="176.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B91" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" s="46"/>
+      <c r="D91" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H91" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I91" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J91" s="46"/>
+    </row>
+    <row r="92" spans="2:10" ht="165.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B92" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" s="46"/>
+      <c r="D92" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I92" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J92" s="46"/>
+    </row>
+    <row r="93" spans="2:10" ht="167.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B93" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" s="46"/>
+      <c r="D93" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H93" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I93" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J93" s="46"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="62" t="s">
         <v>518</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>538</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
-    </row>
-    <row r="32" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="87">
-        <v>73</v>
-      </c>
-      <c r="D32" s="90" t="s">
-        <v>579</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>571</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="75"/>
-      <c r="I32" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="46"/>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="65" t="s">
-        <v>572</v>
-      </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="46"/>
-    </row>
-    <row r="34" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="72" t="s">
-        <v>573</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="G34" s="88"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="46"/>
-    </row>
-    <row r="35" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="G35" s="88"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="72" t="s">
-        <v>575</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="G36" s="88"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="46"/>
-    </row>
-    <row r="37" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="65" t="s">
-        <v>576</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="46"/>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="65" t="s">
-        <v>577</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="G38" s="88"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="46"/>
-    </row>
-    <row r="39" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="65" t="s">
-        <v>578</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="G39" s="89"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="46"/>
-    </row>
-    <row r="40" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>539</v>
-      </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="52"/>
-    </row>
-    <row r="41" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B41" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="87">
-        <v>77</v>
-      </c>
-      <c r="D41" s="90" t="s">
-        <v>584</v>
-      </c>
-      <c r="E41" s="65" t="s">
-        <v>585</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="J41" s="46"/>
-    </row>
-    <row r="42" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="65" t="s">
-        <v>572</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="46"/>
-    </row>
-    <row r="43" spans="2:10" ht="33" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="65" t="s">
-        <v>586</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="G43" s="88"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="46"/>
-    </row>
-    <row r="44" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="G44" s="88"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="46"/>
-    </row>
-    <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="65" t="s">
-        <v>587</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="G45" s="88"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="46"/>
-    </row>
-    <row r="46" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="65" t="s">
-        <v>588</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="G46" s="88"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="46"/>
-    </row>
-    <row r="47" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="65" t="s">
-        <v>577</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="G47" s="88"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="46"/>
-    </row>
-    <row r="48" spans="2:10" ht="51" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="65" t="s">
-        <v>578</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="G48" s="89"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="46"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="62" t="s">
-        <v>519</v>
-      </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-    </row>
-    <row r="50" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>540</v>
-      </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="52"/>
-    </row>
-    <row r="51" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B51" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="47">
-        <v>85</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="33" t="s">
+      <c r="C94" s="62"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="62"/>
+      <c r="I94" s="62"/>
+      <c r="J94" s="62"/>
+    </row>
+    <row r="95" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C95" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="52"/>
+    </row>
+    <row r="96" spans="2:10" ht="98.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B96" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="C96" s="46"/>
+      <c r="D96" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="F96" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="G96" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H96" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I96" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J51" s="46"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-    </row>
-    <row r="53" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="78" t="s">
-        <v>541</v>
-      </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="52"/>
-    </row>
-    <row r="54" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B54" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="87">
-        <v>50</v>
-      </c>
-      <c r="D54" s="90" t="s">
-        <v>597</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F54" s="33"/>
-      <c r="G54" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H54" s="96"/>
-      <c r="I54" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="J54" s="46"/>
-    </row>
-    <row r="55" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="G55" s="88"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="46"/>
-    </row>
-    <row r="56" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="G56" s="88"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="46"/>
-    </row>
-    <row r="57" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="G57" s="88"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="46"/>
-    </row>
-    <row r="58" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="G58" s="88"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="46"/>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G59" s="88"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="46"/>
-    </row>
-    <row r="60" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G60" s="88"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="46"/>
-    </row>
-    <row r="61" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G61" s="89"/>
-      <c r="H61" s="98"/>
-      <c r="I61" s="95"/>
-      <c r="J61" s="46"/>
-    </row>
-    <row r="62" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B62" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="87">
-        <v>86</v>
-      </c>
-      <c r="D62" s="90" t="s">
-        <v>598</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H62" s="96"/>
-      <c r="I62" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="J62" s="46"/>
-    </row>
-    <row r="63" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B63" s="88"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="G63" s="88"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="46"/>
-    </row>
-    <row r="64" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B64" s="88"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="91"/>
-      <c r="E64" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="G64" s="88"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="46"/>
-    </row>
-    <row r="65" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B65" s="88"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F65" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="G65" s="88"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="46"/>
-    </row>
-    <row r="66" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="G66" s="88"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="94"/>
-      <c r="J66" s="46"/>
-    </row>
-    <row r="67" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B67" s="88"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G67" s="88"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="46"/>
-    </row>
-    <row r="68" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G68" s="88"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="46"/>
-    </row>
-    <row r="69" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G69" s="89"/>
-      <c r="H69" s="98"/>
-      <c r="I69" s="95"/>
-      <c r="J69" s="46"/>
-    </row>
-    <row r="70" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B70" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="C70" s="87">
-        <v>87</v>
-      </c>
-      <c r="D70" s="90" t="s">
-        <v>599</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H70" s="96"/>
-      <c r="I70" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="J70" s="46"/>
-    </row>
-    <row r="71" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B71" s="88"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="G71" s="88"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="46"/>
-    </row>
-    <row r="72" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="G72" s="88"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="46"/>
-    </row>
-    <row r="73" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B73" s="88"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="G73" s="88"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="46"/>
-    </row>
-    <row r="74" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="G74" s="88"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="46"/>
-    </row>
-    <row r="75" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B75" s="88"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G75" s="88"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="46"/>
-    </row>
-    <row r="76" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B76" s="88"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G76" s="88"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="46"/>
-    </row>
-    <row r="77" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G77" s="89"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="95"/>
-      <c r="J77" s="46"/>
-    </row>
-    <row r="78" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="C78" s="87">
-        <v>88</v>
-      </c>
-      <c r="D78" s="90" t="s">
-        <v>600</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>610</v>
-      </c>
-      <c r="F78" s="33"/>
-      <c r="G78" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H78" s="96"/>
-      <c r="I78" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="J78" s="46"/>
-    </row>
-    <row r="79" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="88"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="33" t="s">
-        <v>614</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="G79" s="88"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="94"/>
-      <c r="J79" s="46"/>
-    </row>
-    <row r="80" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="G80" s="88"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="94"/>
-      <c r="J80" s="46"/>
-    </row>
-    <row r="81" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B81" s="88"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="G81" s="88"/>
-      <c r="H81" s="97"/>
-      <c r="I81" s="94"/>
-      <c r="J81" s="46"/>
-    </row>
-    <row r="82" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B82" s="88"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="G82" s="88"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="94"/>
-      <c r="J82" s="46"/>
-    </row>
-    <row r="83" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B83" s="88"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G83" s="88"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="94"/>
-      <c r="J83" s="46"/>
-    </row>
-    <row r="84" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B84" s="88"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G84" s="88"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="94"/>
-      <c r="J84" s="46"/>
-    </row>
-    <row r="85" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B85" s="89"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G85" s="89"/>
-      <c r="H85" s="98"/>
-      <c r="I85" s="95"/>
-      <c r="J85" s="46"/>
-    </row>
-    <row r="86" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="61" t="s">
-        <v>542</v>
-      </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="51"/>
-      <c r="J86" s="52"/>
-    </row>
-    <row r="87" spans="2:10" ht="123.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B87" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="47">
-        <v>51</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>623</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G87" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="33" t="s">
+      <c r="J96" s="46"/>
+    </row>
+    <row r="97" spans="2:10" ht="122.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B97" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="C97" s="46"/>
+      <c r="D97" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="F97" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="G97" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H97" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I97" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J87" s="46"/>
-    </row>
-    <row r="88" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B88" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="47">
-        <v>52</v>
-      </c>
-      <c r="D88" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G88" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H88" s="41"/>
-      <c r="I88" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J88" s="46"/>
-    </row>
-    <row r="89" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B89" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" s="47">
-        <v>53</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G89" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H89" s="41"/>
-      <c r="I89" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J89" s="46"/>
-    </row>
-    <row r="90" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B90" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="C90" s="47">
-        <v>93</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="F90" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G90" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H90" s="41"/>
-      <c r="I90" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J90" s="46"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="62" t="s">
-        <v>521</v>
-      </c>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-    </row>
-    <row r="92" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="61" t="s">
-        <v>543</v>
-      </c>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="51"/>
-      <c r="G92" s="51"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="51"/>
-      <c r="J92" s="52"/>
-    </row>
-    <row r="93" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B93" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93" s="47">
-        <v>54</v>
-      </c>
-      <c r="D93" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="F93" s="63" t="s">
-        <v>633</v>
-      </c>
-      <c r="G93" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H93" s="41"/>
-      <c r="I93" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J93" s="46"/>
-    </row>
-    <row r="94" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="61" t="s">
-        <v>544</v>
-      </c>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="51"/>
-      <c r="J94" s="52"/>
-    </row>
-    <row r="95" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B95" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="47">
-        <v>55</v>
-      </c>
-      <c r="D95" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="G95" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H95" s="41"/>
-      <c r="I95" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J95" s="46"/>
-    </row>
-    <row r="96" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="62" t="s">
-        <v>522</v>
-      </c>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="62"/>
-    </row>
-    <row r="97" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="61" t="s">
-        <v>545</v>
-      </c>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-      <c r="J97" s="52"/>
-    </row>
-    <row r="98" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="J97" s="46"/>
+    </row>
+    <row r="98" spans="2:10" ht="97.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B98" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="47">
-        <v>57</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C98" s="46"/>
       <c r="D98" s="33" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>641</v>
+        <v>713</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="G98" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H98" s="41"/>
+        <v>714</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H98" s="41" t="s">
+        <v>470</v>
+      </c>
       <c r="I98" s="33" t="s">
         <v>108</v>
       </c>
       <c r="J98" s="46"/>
     </row>
-    <row r="99" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B99" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="47">
-        <v>58</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="G99" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="33" t="s">
+    <row r="99" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="C99" s="61" t="s">
+        <v>542</v>
+      </c>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="52"/>
+    </row>
+    <row r="100" spans="2:10" ht="111" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B100" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="C100" s="46"/>
+      <c r="D100" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="G100" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H100" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I100" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J100" s="46"/>
+    </row>
+    <row r="101" spans="2:10" ht="115.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B101" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C101" s="46"/>
+      <c r="D101" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="E101" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="F101" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="G101" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H101" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I101" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J101" s="46"/>
+    </row>
+    <row r="102" spans="2:10" ht="125.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B102" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="C102" s="46"/>
+      <c r="D102" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H102" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I102" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="J102" s="46"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="62" t="s">
+        <v>519</v>
+      </c>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="62"/>
+      <c r="J103" s="62"/>
+    </row>
+    <row r="104" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="C104" s="61" t="s">
+        <v>543</v>
+      </c>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="52"/>
+    </row>
+    <row r="105" spans="2:10" ht="106.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B105" s="46" t="s">
+        <v>485</v>
+      </c>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46" t="s">
+        <v>725</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="G105" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H105" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I105" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J99" s="46"/>
-    </row>
-    <row r="100" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B100" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="47">
-        <v>59</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>643</v>
-      </c>
-      <c r="F100" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="G100" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="33" t="s">
+      <c r="J105" s="46"/>
+    </row>
+    <row r="106" spans="2:10" ht="145.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B106" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="C106" s="46"/>
+      <c r="D106" s="33" t="s">
+        <v>726</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H106" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I106" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J100" s="46"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="62" t="s">
+      <c r="J106" s="46"/>
+    </row>
+    <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B107" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46" t="s">
+        <v>727</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>724</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="G107" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H107" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I107" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J107" s="46"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="62"/>
+      <c r="J108" s="62"/>
+    </row>
+    <row r="109" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="C109" s="61" t="s">
+        <v>544</v>
+      </c>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="52"/>
+    </row>
+    <row r="110" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B110" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="C110" s="46"/>
+      <c r="D110" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="G110" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H110" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I110" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J110" s="46"/>
+    </row>
+    <row r="111" spans="2:10" ht="89.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B111" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="C111" s="46"/>
+      <c r="D111" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="F111" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="G111" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H111" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I111" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J111" s="46"/>
+    </row>
+    <row r="112" spans="2:10" ht="93.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B112" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="C112" s="46"/>
+      <c r="D112" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="E112" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="G112" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H112" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I112" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J112" s="46"/>
+    </row>
+    <row r="113" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="C113" s="61" t="s">
+        <v>545</v>
+      </c>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="52"/>
+    </row>
+    <row r="114" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B114" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="C114" s="46"/>
+      <c r="D114" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="F114" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="G114" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H114" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I114" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J114" s="46"/>
+    </row>
+    <row r="115" spans="2:10" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B115" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C115" s="46"/>
+      <c r="D115" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H115" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I115" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J115" s="46"/>
+    </row>
+    <row r="116" spans="2:10" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B116" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="C116" s="46"/>
+      <c r="D116" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="E116" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="F116" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="G116" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H116" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I116" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J116" s="46"/>
+    </row>
+    <row r="117" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="C117" s="61" t="s">
+        <v>546</v>
+      </c>
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="52"/>
+    </row>
+    <row r="118" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B118" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="C118" s="46"/>
+      <c r="D118" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="F118" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="G118" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H118" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I118" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J118" s="46"/>
+    </row>
+    <row r="119" spans="2:10" ht="71.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B119" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="C119" s="46"/>
+      <c r="D119" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="F119" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="G119" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H119" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I119" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J119" s="46"/>
+    </row>
+    <row r="120" spans="2:10" ht="75.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B120" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="C120" s="46"/>
+      <c r="D120" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="F120" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="G120" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H120" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I120" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J120" s="46"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="62" t="s">
+        <v>521</v>
+      </c>
+      <c r="C121" s="62"/>
+      <c r="D121" s="62"/>
+      <c r="E121" s="62"/>
+      <c r="F121" s="62"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="62"/>
+      <c r="I121" s="62"/>
+      <c r="J121" s="62"/>
+    </row>
+    <row r="122" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="C122" s="61" t="s">
+        <v>547</v>
+      </c>
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="52"/>
+    </row>
+    <row r="123" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B123" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="C123" s="46"/>
+      <c r="D123" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E123" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="F123" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="G123" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H123" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I123" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J123" s="46"/>
+    </row>
+    <row r="124" spans="2:10" ht="87.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B124" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="C124" s="46"/>
+      <c r="D124" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="E124" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="F124" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H124" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I124" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J124" s="46"/>
+    </row>
+    <row r="125" spans="2:10" ht="109.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B125" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="46"/>
+      <c r="D125" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E125" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="F125" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="G125" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H125" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I125" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J125" s="46"/>
+    </row>
+    <row r="126" spans="2:10" ht="97.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B126" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="C126" s="46"/>
+      <c r="D126" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="E126" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="F126" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="G126" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H126" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I126" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J126" s="46"/>
+    </row>
+    <row r="127" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B127" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="C127" s="46"/>
+      <c r="D127" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="E127" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="F127" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="G127" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H127" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I127" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J127" s="46"/>
+    </row>
+    <row r="128" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B128" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="C128" s="46"/>
+      <c r="D128" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E128" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="F128" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="G128" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H128" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I128" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J128" s="46"/>
+    </row>
+    <row r="129" spans="2:10" ht="96" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B129" s="46" t="s">
+        <v>488</v>
+      </c>
+      <c r="C129" s="46"/>
+      <c r="D129" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="F129" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="G129" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H129" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I129" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J129" s="46"/>
+    </row>
+    <row r="130" spans="2:10" ht="109.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B130" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="C130" s="46"/>
+      <c r="D130" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="F130" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="G130" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H130" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I130" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J130" s="46"/>
+    </row>
+    <row r="131" spans="2:10" ht="114" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B131" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="C131" s="46"/>
+      <c r="D131" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="F131" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="G131" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H131" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I131" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J131" s="46"/>
+    </row>
+    <row r="132" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="C132" s="61" t="s">
+        <v>548</v>
+      </c>
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="51"/>
+      <c r="G132" s="51"/>
+      <c r="H132" s="51"/>
+      <c r="I132" s="51"/>
+      <c r="J132" s="52"/>
+    </row>
+    <row r="133" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B133" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="C133" s="46"/>
+      <c r="D133" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="F133" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="G133" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H133" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I133" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J133" s="46"/>
+    </row>
+    <row r="134" spans="2:10" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B134" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="C134" s="46"/>
+      <c r="D134" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="F134" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="G134" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H134" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I134" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J134" s="46"/>
+    </row>
+    <row r="135" spans="2:10" ht="111.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B135" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="C135" s="46"/>
+      <c r="D135" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="F135" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="G135" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H135" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I135" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J135" s="46"/>
+    </row>
+    <row r="136" spans="2:10" ht="114.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B136" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="C136" s="46"/>
+      <c r="D136" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="F136" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="G136" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H136" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I136" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J136" s="46"/>
+    </row>
+    <row r="137" spans="2:10" ht="126" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B137" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="C137" s="46"/>
+      <c r="D137" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="G137" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H137" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I137" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J137" s="46"/>
+    </row>
+    <row r="138" spans="2:10" ht="120.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B138" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="C138" s="46"/>
+      <c r="D138" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="G138" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H138" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I138" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J138" s="46"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="62" t="s">
+        <v>522</v>
+      </c>
+      <c r="C139" s="62"/>
+      <c r="D139" s="62"/>
+      <c r="E139" s="62"/>
+      <c r="F139" s="62"/>
+      <c r="G139" s="62"/>
+      <c r="H139" s="62"/>
+      <c r="I139" s="62"/>
+      <c r="J139" s="62"/>
+    </row>
+    <row r="140" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="C140" s="61" t="s">
+        <v>522</v>
+      </c>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="51"/>
+      <c r="I140" s="51"/>
+      <c r="J140" s="52"/>
+    </row>
+    <row r="141" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B141" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="C141" s="46"/>
+      <c r="D141" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="F141" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="G141" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H141" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I141" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J141" s="46"/>
+    </row>
+    <row r="142" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="62" t="s">
         <v>523</v>
       </c>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="62"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
-    </row>
-    <row r="102" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" s="61" t="s">
-        <v>546</v>
-      </c>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="52"/>
-    </row>
-    <row r="103" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B103" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C103" s="47">
-        <v>95</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>644</v>
-      </c>
-      <c r="G103" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H103" s="41"/>
-      <c r="I103" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J103" s="46"/>
-    </row>
-    <row r="104" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B104" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="C104" s="47">
-        <v>96</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F104" s="33" t="s">
-        <v>645</v>
-      </c>
-      <c r="G104" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H104" s="41"/>
-      <c r="I104" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J104" s="46"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="62" t="s">
+      <c r="C142" s="62"/>
+      <c r="D142" s="62"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="62"/>
+      <c r="H142" s="62"/>
+      <c r="I142" s="62"/>
+      <c r="J142" s="62"/>
+    </row>
+    <row r="143" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" s="61"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="60"/>
+      <c r="I143" s="59"/>
+      <c r="J143" s="45"/>
+    </row>
+    <row r="144" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="46"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="33"/>
+      <c r="J144" s="46"/>
+    </row>
+    <row r="145" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="33"/>
+      <c r="J145" s="46"/>
+    </row>
+    <row r="146" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="62" t="s">
         <v>524</v>
       </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
-    </row>
-    <row r="106" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C106" s="61" t="s">
-        <v>524</v>
-      </c>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="51"/>
-      <c r="J106" s="52"/>
-    </row>
-    <row r="107" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B107" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="C107" s="47">
-        <v>97</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>650</v>
-      </c>
-      <c r="E107" s="33" t="s">
-        <v>649</v>
-      </c>
-      <c r="F107" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="G107" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H107" s="41"/>
-      <c r="I107" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J107" s="46"/>
-    </row>
-    <row r="108" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B108" s="46" t="s">
-        <v>473</v>
-      </c>
-      <c r="C108" s="47">
-        <v>98</v>
-      </c>
-      <c r="D108" s="33" t="s">
-        <v>651</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>649</v>
-      </c>
-      <c r="F108" s="63" t="s">
-        <v>653</v>
-      </c>
-      <c r="G108" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H108" s="41"/>
-      <c r="I108" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J108" s="46"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="62" t="s">
-        <v>525</v>
-      </c>
-      <c r="C109" s="62"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="62"/>
-      <c r="G109" s="62"/>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="62"/>
-    </row>
-    <row r="110" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="C110" s="61" t="s">
-        <v>547</v>
-      </c>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-      <c r="J110" s="52"/>
-    </row>
-    <row r="111" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B111" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="C111" s="47">
-        <v>99</v>
-      </c>
-      <c r="D111" s="33" t="s">
-        <v>654</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="F111" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G111" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H111" s="41"/>
-      <c r="I111" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J111" s="46"/>
-    </row>
-    <row r="112" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B112" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="C112" s="47">
-        <v>100</v>
-      </c>
-      <c r="D112" s="33" t="s">
-        <v>655</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>661</v>
-      </c>
-      <c r="F112" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G112" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H112" s="41"/>
-      <c r="I112" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J112" s="46"/>
-    </row>
-    <row r="113" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B113" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="C113" s="47">
-        <v>100</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>661</v>
-      </c>
-      <c r="F113" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G113" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H113" s="41"/>
-      <c r="I113" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J113" s="46"/>
-    </row>
-    <row r="114" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B114" s="46" t="s">
-        <v>657</v>
-      </c>
-      <c r="C114" s="47">
-        <v>101</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="F114" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G114" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H114" s="41"/>
-      <c r="I114" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J114" s="46"/>
-    </row>
-    <row r="115" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="C115" s="61" t="s">
-        <v>548</v>
-      </c>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="51"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="51"/>
-      <c r="J115" s="52"/>
-    </row>
-    <row r="116" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B116" s="87" t="s">
-        <v>339</v>
-      </c>
-      <c r="C116" s="93">
-        <v>102</v>
-      </c>
-      <c r="D116" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E116" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F116" s="33"/>
-      <c r="G116" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H116" s="96"/>
-      <c r="I116" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="J116" s="46"/>
-    </row>
-    <row r="117" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B117" s="88"/>
-      <c r="C117" s="94"/>
-      <c r="D117" s="91"/>
-      <c r="E117" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F117" s="33"/>
-      <c r="G117" s="88"/>
-      <c r="H117" s="97"/>
-      <c r="I117" s="94"/>
-      <c r="J117" s="46"/>
-    </row>
-    <row r="118" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B118" s="88"/>
-      <c r="C118" s="94"/>
-      <c r="D118" s="91"/>
-      <c r="E118" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="F118" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="G118" s="88"/>
-      <c r="H118" s="97"/>
-      <c r="I118" s="94"/>
-      <c r="J118" s="46"/>
-    </row>
-    <row r="119" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B119" s="88"/>
-      <c r="C119" s="94"/>
-      <c r="D119" s="91"/>
-      <c r="E119" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="F119" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="G119" s="88"/>
-      <c r="H119" s="97"/>
-      <c r="I119" s="94"/>
-      <c r="J119" s="46"/>
-    </row>
-    <row r="120" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B120" s="88"/>
-      <c r="C120" s="94"/>
-      <c r="D120" s="91"/>
-      <c r="E120" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F120" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="G120" s="88"/>
-      <c r="H120" s="97"/>
-      <c r="I120" s="94"/>
-      <c r="J120" s="46"/>
-    </row>
-    <row r="121" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B121" s="88"/>
-      <c r="C121" s="94"/>
-      <c r="D121" s="91"/>
-      <c r="E121" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F121" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="G121" s="88"/>
-      <c r="H121" s="97"/>
-      <c r="I121" s="94"/>
-      <c r="J121" s="46"/>
-    </row>
-    <row r="122" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B122" s="88"/>
-      <c r="C122" s="94"/>
-      <c r="D122" s="91"/>
-      <c r="E122" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="F122" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="G122" s="88"/>
-      <c r="H122" s="97"/>
-      <c r="I122" s="94"/>
-      <c r="J122" s="46"/>
-    </row>
-    <row r="123" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B123" s="88"/>
-      <c r="C123" s="94"/>
-      <c r="D123" s="91"/>
-      <c r="E123" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="F123" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G123" s="88"/>
-      <c r="H123" s="97"/>
-      <c r="I123" s="94"/>
-      <c r="J123" s="46"/>
-    </row>
-    <row r="124" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B124" s="89"/>
-      <c r="C124" s="95"/>
-      <c r="D124" s="92"/>
-      <c r="E124" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="F124" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G124" s="89"/>
-      <c r="H124" s="98"/>
-      <c r="I124" s="95"/>
-      <c r="J124" s="46"/>
-    </row>
-    <row r="125" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B125" s="87" t="s">
-        <v>340</v>
-      </c>
-      <c r="D125" s="90" t="s">
-        <v>514</v>
-      </c>
-      <c r="E125" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F125" s="33"/>
-      <c r="G125" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H125" s="96"/>
-      <c r="I125" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="J125" s="46"/>
-    </row>
-    <row r="126" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B126" s="88"/>
-      <c r="D126" s="91"/>
-      <c r="E126" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F126" s="33"/>
-      <c r="G126" s="88"/>
-      <c r="H126" s="97"/>
-      <c r="I126" s="94"/>
-      <c r="J126" s="46"/>
-    </row>
-    <row r="127" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B127" s="88"/>
-      <c r="D127" s="91"/>
-      <c r="E127" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="F127" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="G127" s="88"/>
-      <c r="H127" s="97"/>
-      <c r="I127" s="94"/>
-      <c r="J127" s="46"/>
-    </row>
-    <row r="128" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B128" s="88"/>
-      <c r="D128" s="91"/>
-      <c r="E128" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="F128" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="G128" s="88"/>
-      <c r="H128" s="97"/>
-      <c r="I128" s="94"/>
-      <c r="J128" s="46"/>
-    </row>
-    <row r="129" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B129" s="88"/>
-      <c r="D129" s="91"/>
-      <c r="E129" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F129" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="G129" s="88"/>
-      <c r="H129" s="97"/>
-      <c r="I129" s="94"/>
-      <c r="J129" s="46"/>
-    </row>
-    <row r="130" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B130" s="88"/>
-      <c r="D130" s="91"/>
-      <c r="E130" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F130" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="G130" s="88"/>
-      <c r="H130" s="97"/>
-      <c r="I130" s="94"/>
-      <c r="J130" s="46"/>
-    </row>
-    <row r="131" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B131" s="88"/>
-      <c r="D131" s="91"/>
-      <c r="E131" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="F131" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="G131" s="88"/>
-      <c r="H131" s="97"/>
-      <c r="I131" s="94"/>
-      <c r="J131" s="46"/>
-    </row>
-    <row r="132" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B132" s="88"/>
-      <c r="D132" s="91"/>
-      <c r="E132" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="F132" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G132" s="88"/>
-      <c r="H132" s="97"/>
-      <c r="I132" s="94"/>
-      <c r="J132" s="46"/>
-    </row>
-    <row r="133" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B133" s="89"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="F133" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G133" s="89"/>
-      <c r="H133" s="98"/>
-      <c r="I133" s="95"/>
-      <c r="J133" s="46"/>
-    </row>
-    <row r="134" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B134" s="87" t="s">
-        <v>341</v>
-      </c>
-      <c r="C134" s="93">
-        <v>103</v>
-      </c>
-      <c r="D134" s="90" t="s">
-        <v>515</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F134" s="33"/>
-      <c r="G134" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H134" s="96"/>
-      <c r="I134" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="J134" s="46"/>
-    </row>
-    <row r="135" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B135" s="88"/>
-      <c r="C135" s="94"/>
-      <c r="D135" s="91"/>
-      <c r="E135" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F135" s="33"/>
-      <c r="G135" s="88"/>
-      <c r="H135" s="97"/>
-      <c r="I135" s="94"/>
-      <c r="J135" s="46"/>
-    </row>
-    <row r="136" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B136" s="88"/>
-      <c r="C136" s="94"/>
-      <c r="D136" s="91"/>
-      <c r="E136" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="F136" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="G136" s="88"/>
-      <c r="H136" s="97"/>
-      <c r="I136" s="94"/>
-      <c r="J136" s="46"/>
-    </row>
-    <row r="137" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B137" s="88"/>
-      <c r="C137" s="94"/>
-      <c r="D137" s="91"/>
-      <c r="E137" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="F137" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="G137" s="88"/>
-      <c r="H137" s="97"/>
-      <c r="I137" s="94"/>
-      <c r="J137" s="46"/>
-    </row>
-    <row r="138" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B138" s="88"/>
-      <c r="C138" s="94"/>
-      <c r="D138" s="91"/>
-      <c r="E138" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="G138" s="88"/>
-      <c r="H138" s="97"/>
-      <c r="I138" s="94"/>
-      <c r="J138" s="46"/>
-    </row>
-    <row r="139" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B139" s="88"/>
-      <c r="C139" s="94"/>
-      <c r="D139" s="91"/>
-      <c r="E139" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F139" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="G139" s="88"/>
-      <c r="H139" s="97"/>
-      <c r="I139" s="94"/>
-      <c r="J139" s="46"/>
-    </row>
-    <row r="140" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B140" s="88"/>
-      <c r="C140" s="94"/>
-      <c r="D140" s="91"/>
-      <c r="E140" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="F140" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="G140" s="88"/>
-      <c r="H140" s="97"/>
-      <c r="I140" s="94"/>
-      <c r="J140" s="46"/>
-    </row>
-    <row r="141" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B141" s="88"/>
-      <c r="C141" s="94"/>
-      <c r="D141" s="91"/>
-      <c r="E141" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G141" s="88"/>
-      <c r="H141" s="97"/>
-      <c r="I141" s="94"/>
-      <c r="J141" s="46"/>
-    </row>
-    <row r="142" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B142" s="89"/>
-      <c r="C142" s="95"/>
-      <c r="D142" s="92"/>
-      <c r="E142" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="F142" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G142" s="89"/>
-      <c r="H142" s="98"/>
-      <c r="I142" s="95"/>
-      <c r="J142" s="46"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B143" s="62" t="s">
-        <v>526</v>
-      </c>
-      <c r="C143" s="62"/>
-      <c r="D143" s="62"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="62"/>
-      <c r="G143" s="62"/>
-      <c r="H143" s="62"/>
-      <c r="I143" s="62"/>
-      <c r="J143" s="62"/>
-    </row>
-    <row r="144" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="C144" s="61" t="s">
-        <v>549</v>
-      </c>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
-      <c r="F144" s="51"/>
-      <c r="G144" s="51"/>
-      <c r="H144" s="51"/>
-      <c r="I144" s="51"/>
-      <c r="J144" s="52"/>
-    </row>
-    <row r="145" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B145" s="87" t="s">
-        <v>351</v>
-      </c>
-      <c r="C145" s="87"/>
-      <c r="D145" s="90" t="s">
-        <v>664</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>665</v>
-      </c>
-      <c r="F145" s="33"/>
-      <c r="G145" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H145" s="96"/>
-      <c r="I145" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="J145" s="46"/>
-    </row>
-    <row r="146" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B146" s="88"/>
-      <c r="C146" s="88"/>
-      <c r="D146" s="91"/>
-      <c r="E146" s="33" t="s">
-        <v>667</v>
-      </c>
-      <c r="F146" s="33"/>
-      <c r="G146" s="88"/>
-      <c r="H146" s="97"/>
-      <c r="I146" s="94"/>
-      <c r="J146" s="46"/>
-    </row>
-    <row r="147" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B147" s="88"/>
-      <c r="C147" s="88"/>
-      <c r="D147" s="91"/>
-      <c r="E147" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F147" s="33"/>
-      <c r="G147" s="88"/>
-      <c r="H147" s="97"/>
-      <c r="I147" s="94"/>
-      <c r="J147" s="46"/>
-    </row>
-    <row r="148" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B148" s="88"/>
-      <c r="C148" s="88"/>
-      <c r="D148" s="91"/>
-      <c r="E148" s="33" t="s">
-        <v>669</v>
-      </c>
-      <c r="F148" s="33"/>
-      <c r="G148" s="88"/>
-      <c r="H148" s="97"/>
-      <c r="I148" s="94"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="62"/>
+      <c r="I146" s="62"/>
+      <c r="J146" s="62"/>
+    </row>
+    <row r="147" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" s="61"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="59"/>
+      <c r="J147" s="45"/>
+    </row>
+    <row r="148" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="46"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="46"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="33"/>
       <c r="J148" s="46"/>
     </row>
-    <row r="149" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B149" s="89"/>
-      <c r="C149" s="89"/>
-      <c r="D149" s="92"/>
-      <c r="E149" s="33" t="s">
-        <v>670</v>
-      </c>
-      <c r="F149" s="33" t="s">
-        <v>666</v>
-      </c>
-      <c r="G149" s="89"/>
-      <c r="H149" s="98"/>
-      <c r="I149" s="95"/>
+    <row r="149" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="46"/>
+      <c r="C149" s="46"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="46"/>
+      <c r="F149" s="46"/>
+      <c r="G149" s="46"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="33"/>
       <c r="J149" s="46"/>
     </row>
-    <row r="150" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="49" t="s">
-        <v>362</v>
-      </c>
-      <c r="C150" s="61" t="s">
-        <v>550</v>
-      </c>
-      <c r="D150" s="51"/>
-      <c r="E150" s="51"/>
-      <c r="F150" s="51"/>
-      <c r="G150" s="51"/>
-      <c r="H150" s="51"/>
-      <c r="I150" s="51"/>
-      <c r="J150" s="52"/>
-    </row>
-    <row r="151" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B151" s="87" t="s">
-        <v>353</v>
-      </c>
-      <c r="C151" s="87"/>
-      <c r="D151" s="90" t="s">
-        <v>671</v>
-      </c>
-      <c r="E151" s="33" t="s">
-        <v>673</v>
-      </c>
-      <c r="F151" s="33"/>
-      <c r="G151" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H151" s="96"/>
-      <c r="I151" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="J151" s="46"/>
-    </row>
-    <row r="152" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B152" s="88"/>
-      <c r="C152" s="88"/>
-      <c r="D152" s="91"/>
-      <c r="E152" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F152" s="33"/>
-      <c r="G152" s="88"/>
-      <c r="H152" s="97"/>
-      <c r="I152" s="94"/>
-      <c r="J152" s="46"/>
-    </row>
-    <row r="153" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B153" s="88"/>
-      <c r="C153" s="88"/>
-      <c r="D153" s="91"/>
-      <c r="E153" s="33" t="s">
-        <v>672</v>
-      </c>
-      <c r="F153" s="33"/>
-      <c r="G153" s="88"/>
-      <c r="H153" s="97"/>
-      <c r="I153" s="94"/>
-      <c r="J153" s="46"/>
-    </row>
-    <row r="154" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B154" s="88"/>
-      <c r="C154" s="88"/>
-      <c r="D154" s="91"/>
-      <c r="E154" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F154" s="33"/>
-      <c r="G154" s="88"/>
-      <c r="H154" s="97"/>
-      <c r="I154" s="94"/>
-      <c r="J154" s="46"/>
-    </row>
-    <row r="155" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B155" s="88"/>
-      <c r="C155" s="88"/>
-      <c r="D155" s="91"/>
-      <c r="E155" s="33" t="s">
-        <v>669</v>
-      </c>
-      <c r="F155" s="33"/>
-      <c r="G155" s="88"/>
-      <c r="H155" s="97"/>
-      <c r="I155" s="94"/>
-      <c r="J155" s="46"/>
-    </row>
-    <row r="156" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B156" s="89"/>
-      <c r="C156" s="89"/>
-      <c r="D156" s="92"/>
-      <c r="E156" s="33" t="s">
-        <v>670</v>
-      </c>
-      <c r="F156" s="33" t="s">
-        <v>674</v>
-      </c>
-      <c r="G156" s="89"/>
-      <c r="H156" s="98"/>
-      <c r="I156" s="95"/>
-      <c r="J156" s="46"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="62" t="s">
-        <v>527</v>
-      </c>
-      <c r="C157" s="62"/>
-      <c r="D157" s="62"/>
-      <c r="E157" s="62"/>
-      <c r="F157" s="62"/>
-      <c r="G157" s="62"/>
-      <c r="H157" s="62"/>
-      <c r="I157" s="62"/>
-      <c r="J157" s="62"/>
-    </row>
-    <row r="158" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="49" t="s">
-        <v>363</v>
-      </c>
-      <c r="C158" s="61" t="s">
-        <v>551</v>
-      </c>
-      <c r="D158" s="51"/>
-      <c r="E158" s="51"/>
-      <c r="F158" s="51"/>
-      <c r="G158" s="51"/>
-      <c r="H158" s="51"/>
-      <c r="I158" s="51"/>
-      <c r="J158" s="52"/>
-    </row>
-    <row r="159" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B159" s="87" t="s">
-        <v>365</v>
-      </c>
-      <c r="C159" s="87"/>
-      <c r="D159" s="90" t="s">
-        <v>681</v>
-      </c>
-      <c r="E159" s="33" t="s">
-        <v>675</v>
-      </c>
-      <c r="F159" s="33"/>
-      <c r="G159" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H159" s="96"/>
-      <c r="I159" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="J159" s="46"/>
-    </row>
-    <row r="160" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B160" s="88"/>
-      <c r="C160" s="88"/>
-      <c r="D160" s="91"/>
-      <c r="E160" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F160" s="33"/>
-      <c r="G160" s="88"/>
-      <c r="H160" s="97"/>
-      <c r="I160" s="94"/>
-      <c r="J160" s="46"/>
-    </row>
-    <row r="161" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B161" s="88"/>
-      <c r="C161" s="88"/>
-      <c r="D161" s="91"/>
-      <c r="E161" s="33" t="s">
-        <v>676</v>
-      </c>
-      <c r="F161" s="33"/>
-      <c r="G161" s="88"/>
-      <c r="H161" s="97"/>
-      <c r="I161" s="94"/>
-      <c r="J161" s="46"/>
-    </row>
-    <row r="162" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B162" s="88"/>
-      <c r="C162" s="88"/>
-      <c r="D162" s="91"/>
-      <c r="E162" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="F162" s="33"/>
-      <c r="G162" s="88"/>
-      <c r="H162" s="97"/>
-      <c r="I162" s="94"/>
-      <c r="J162" s="46"/>
-    </row>
-    <row r="163" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B163" s="88"/>
-      <c r="C163" s="88"/>
-      <c r="D163" s="91"/>
-      <c r="E163" s="33" t="s">
-        <v>678</v>
-      </c>
-      <c r="F163" s="33"/>
-      <c r="G163" s="88"/>
-      <c r="H163" s="97"/>
-      <c r="I163" s="94"/>
-      <c r="J163" s="46"/>
-    </row>
-    <row r="164" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B164" s="89"/>
-      <c r="C164" s="89"/>
-      <c r="D164" s="92"/>
-      <c r="E164" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="F164" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="G164" s="89"/>
-      <c r="H164" s="98"/>
-      <c r="I164" s="95"/>
-      <c r="J164" s="46"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="62" t="s">
-        <v>528</v>
-      </c>
-      <c r="C165" s="62"/>
-      <c r="D165" s="62"/>
-      <c r="E165" s="62"/>
-      <c r="F165" s="62"/>
-      <c r="G165" s="62"/>
-      <c r="H165" s="62"/>
-      <c r="I165" s="62"/>
-      <c r="J165" s="62"/>
-    </row>
-    <row r="166" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="C166" s="61" t="s">
-        <v>552</v>
-      </c>
-      <c r="D166" s="51"/>
-      <c r="E166" s="51"/>
-      <c r="F166" s="51"/>
-      <c r="G166" s="51"/>
-      <c r="H166" s="51"/>
-      <c r="I166" s="51"/>
-      <c r="J166" s="52"/>
-    </row>
-    <row r="167" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B167" s="87" t="s">
-        <v>367</v>
-      </c>
-      <c r="C167" s="87"/>
-      <c r="D167" s="90" t="s">
-        <v>682</v>
-      </c>
-      <c r="E167" s="33" t="s">
-        <v>689</v>
-      </c>
-      <c r="F167" s="33"/>
-      <c r="G167" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H167" s="96"/>
-      <c r="I167" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="J167" s="46"/>
-    </row>
-    <row r="168" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B168" s="88"/>
-      <c r="C168" s="88"/>
-      <c r="D168" s="91"/>
-      <c r="E168" s="33" t="s">
-        <v>684</v>
-      </c>
-      <c r="F168" s="33"/>
-      <c r="G168" s="88"/>
-      <c r="H168" s="97"/>
-      <c r="I168" s="94"/>
-      <c r="J168" s="46"/>
-    </row>
-    <row r="169" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B169" s="88"/>
-      <c r="C169" s="88"/>
-      <c r="D169" s="91"/>
-      <c r="E169" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F169" s="33"/>
-      <c r="G169" s="88"/>
-      <c r="H169" s="97"/>
-      <c r="I169" s="94"/>
-      <c r="J169" s="46"/>
-    </row>
-    <row r="170" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B170" s="88"/>
-      <c r="C170" s="88"/>
-      <c r="D170" s="91"/>
-      <c r="E170" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="F170" s="33"/>
-      <c r="G170" s="88"/>
-      <c r="H170" s="97"/>
-      <c r="I170" s="94"/>
-      <c r="J170" s="46"/>
-    </row>
-    <row r="171" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B171" s="89"/>
-      <c r="C171" s="89"/>
-      <c r="D171" s="92"/>
-      <c r="E171" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="F171" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="G171" s="89"/>
-      <c r="H171" s="98"/>
-      <c r="I171" s="95"/>
-      <c r="J171" s="46"/>
-    </row>
-    <row r="172" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="C172" s="61" t="s">
-        <v>553</v>
-      </c>
-      <c r="D172" s="51"/>
-      <c r="E172" s="51"/>
-      <c r="F172" s="51"/>
-      <c r="G172" s="51"/>
-      <c r="H172" s="51"/>
-      <c r="I172" s="51"/>
-      <c r="J172" s="52"/>
-    </row>
-    <row r="173" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B173" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="C173" s="87"/>
-      <c r="D173" s="90" t="s">
-        <v>687</v>
-      </c>
-      <c r="E173" s="33" t="s">
-        <v>690</v>
-      </c>
-      <c r="F173" s="33"/>
-      <c r="G173" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H173" s="96"/>
-      <c r="I173" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="J173" s="46"/>
-    </row>
-    <row r="174" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B174" s="88"/>
-      <c r="C174" s="88"/>
-      <c r="D174" s="91"/>
-      <c r="E174" s="33" t="s">
-        <v>684</v>
-      </c>
-      <c r="F174" s="33"/>
-      <c r="G174" s="88"/>
-      <c r="H174" s="97"/>
-      <c r="I174" s="94"/>
-      <c r="J174" s="46"/>
-    </row>
-    <row r="175" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B175" s="88"/>
-      <c r="C175" s="88"/>
-      <c r="D175" s="91"/>
-      <c r="E175" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F175" s="33"/>
-      <c r="G175" s="88"/>
-      <c r="H175" s="97"/>
-      <c r="I175" s="94"/>
-      <c r="J175" s="46"/>
-    </row>
-    <row r="176" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B176" s="88"/>
-      <c r="C176" s="88"/>
-      <c r="D176" s="91"/>
-      <c r="E176" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="F176" s="33"/>
-      <c r="G176" s="88"/>
-      <c r="H176" s="97"/>
-      <c r="I176" s="94"/>
-      <c r="J176" s="46"/>
-    </row>
-    <row r="177" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B177" s="89"/>
-      <c r="C177" s="89"/>
-      <c r="D177" s="92"/>
-      <c r="E177" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="F177" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="G177" s="89"/>
-      <c r="H177" s="98"/>
-      <c r="I177" s="95"/>
-      <c r="J177" s="46"/>
-    </row>
-    <row r="178" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="49" t="s">
-        <v>386</v>
-      </c>
-      <c r="C178" s="61" t="s">
-        <v>554</v>
-      </c>
-      <c r="D178" s="51"/>
-      <c r="E178" s="51"/>
-      <c r="F178" s="51"/>
-      <c r="G178" s="51"/>
-      <c r="H178" s="51"/>
-      <c r="I178" s="51"/>
-      <c r="J178" s="52"/>
-    </row>
-    <row r="179" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B179" s="87" t="s">
-        <v>396</v>
-      </c>
-      <c r="C179" s="87"/>
-      <c r="D179" s="90" t="s">
-        <v>688</v>
-      </c>
-      <c r="E179" s="33" t="s">
-        <v>691</v>
-      </c>
-      <c r="F179" s="33"/>
-      <c r="G179" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H179" s="96"/>
-      <c r="I179" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="J179" s="46"/>
-    </row>
-    <row r="180" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B180" s="88"/>
-      <c r="C180" s="88"/>
-      <c r="D180" s="91"/>
-      <c r="E180" s="33" t="s">
-        <v>684</v>
-      </c>
-      <c r="F180" s="33"/>
-      <c r="G180" s="88"/>
-      <c r="H180" s="97"/>
-      <c r="I180" s="94"/>
-      <c r="J180" s="46"/>
-    </row>
-    <row r="181" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B181" s="88"/>
-      <c r="C181" s="88"/>
-      <c r="D181" s="91"/>
-      <c r="E181" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F181" s="33"/>
-      <c r="G181" s="88"/>
-      <c r="H181" s="97"/>
-      <c r="I181" s="94"/>
-      <c r="J181" s="46"/>
-    </row>
-    <row r="182" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B182" s="88"/>
-      <c r="C182" s="88"/>
-      <c r="D182" s="91"/>
-      <c r="E182" s="33" t="s">
-        <v>685</v>
-      </c>
-      <c r="F182" s="33"/>
-      <c r="G182" s="88"/>
-      <c r="H182" s="97"/>
-      <c r="I182" s="94"/>
-      <c r="J182" s="46"/>
-    </row>
-    <row r="183" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B183" s="89"/>
-      <c r="C183" s="89"/>
-      <c r="D183" s="92"/>
-      <c r="E183" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="F183" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="G183" s="89"/>
-      <c r="H183" s="98"/>
-      <c r="I183" s="95"/>
-      <c r="J183" s="46"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B184" s="62" t="s">
-        <v>529</v>
-      </c>
-      <c r="C184" s="62"/>
-      <c r="D184" s="62"/>
-      <c r="E184" s="62"/>
-      <c r="F184" s="62"/>
-      <c r="G184" s="62"/>
-      <c r="H184" s="62"/>
-      <c r="I184" s="62"/>
-      <c r="J184" s="62"/>
-    </row>
-    <row r="185" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="C185" s="61" t="s">
-        <v>555</v>
-      </c>
-      <c r="D185" s="51"/>
-      <c r="E185" s="51"/>
-      <c r="F185" s="51"/>
-      <c r="G185" s="51"/>
-      <c r="H185" s="51"/>
-      <c r="I185" s="51"/>
-      <c r="J185" s="52"/>
-    </row>
-    <row r="186" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B186" s="87" t="s">
-        <v>453</v>
-      </c>
-      <c r="C186" s="87"/>
-      <c r="D186" s="90" t="s">
-        <v>698</v>
-      </c>
-      <c r="E186" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="F186" s="33"/>
-      <c r="G186" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H186" s="96"/>
-      <c r="I186" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="J186" s="46"/>
-    </row>
-    <row r="187" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B187" s="88"/>
-      <c r="C187" s="88"/>
-      <c r="D187" s="91"/>
-      <c r="E187" s="33" t="s">
-        <v>693</v>
-      </c>
-      <c r="F187" s="33"/>
-      <c r="G187" s="88"/>
-      <c r="H187" s="97"/>
-      <c r="I187" s="94"/>
-      <c r="J187" s="46"/>
-    </row>
-    <row r="188" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B188" s="88"/>
-      <c r="C188" s="88"/>
-      <c r="D188" s="91"/>
-      <c r="E188" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F188" s="33"/>
-      <c r="G188" s="88"/>
-      <c r="H188" s="97"/>
-      <c r="I188" s="94"/>
-      <c r="J188" s="46"/>
-    </row>
-    <row r="189" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B189" s="88"/>
-      <c r="C189" s="88"/>
-      <c r="D189" s="91"/>
-      <c r="E189" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="F189" s="33"/>
-      <c r="G189" s="88"/>
-      <c r="H189" s="97"/>
-      <c r="I189" s="94"/>
-      <c r="J189" s="46"/>
-    </row>
-    <row r="190" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B190" s="89"/>
-      <c r="C190" s="89"/>
-      <c r="D190" s="92"/>
-      <c r="E190" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="F190" s="33" t="s">
-        <v>701</v>
-      </c>
-      <c r="G190" s="89"/>
-      <c r="H190" s="98"/>
-      <c r="I190" s="95"/>
-      <c r="J190" s="46"/>
-    </row>
-    <row r="191" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B191" s="87" t="s">
-        <v>454</v>
-      </c>
-      <c r="C191" s="87"/>
-      <c r="D191" s="90" t="s">
-        <v>699</v>
-      </c>
-      <c r="E191" s="33" t="s">
-        <v>696</v>
-      </c>
-      <c r="F191" s="33"/>
-      <c r="G191" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H191" s="96"/>
-      <c r="I191" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="J191" s="46"/>
-    </row>
-    <row r="192" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B192" s="88"/>
-      <c r="C192" s="88"/>
-      <c r="D192" s="91"/>
-      <c r="E192" s="33" t="s">
-        <v>693</v>
-      </c>
-      <c r="F192" s="33"/>
-      <c r="G192" s="88"/>
-      <c r="H192" s="97"/>
-      <c r="I192" s="94"/>
-      <c r="J192" s="46"/>
-    </row>
-    <row r="193" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B193" s="88"/>
-      <c r="C193" s="88"/>
-      <c r="D193" s="91"/>
-      <c r="E193" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F193" s="33"/>
-      <c r="G193" s="88"/>
-      <c r="H193" s="97"/>
-      <c r="I193" s="94"/>
-      <c r="J193" s="46"/>
-    </row>
-    <row r="194" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B194" s="88"/>
-      <c r="C194" s="88"/>
-      <c r="D194" s="91"/>
-      <c r="E194" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="F194" s="33"/>
-      <c r="G194" s="88"/>
-      <c r="H194" s="97"/>
-      <c r="I194" s="94"/>
-      <c r="J194" s="46"/>
-    </row>
-    <row r="195" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B195" s="89"/>
-      <c r="C195" s="89"/>
-      <c r="D195" s="92"/>
-      <c r="E195" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="F195" s="33" t="s">
-        <v>702</v>
-      </c>
-      <c r="G195" s="89"/>
-      <c r="H195" s="98"/>
-      <c r="I195" s="95"/>
-      <c r="J195" s="46"/>
-    </row>
-    <row r="196" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B196" s="87" t="s">
-        <v>455</v>
-      </c>
-      <c r="C196" s="87"/>
-      <c r="D196" s="90" t="s">
-        <v>700</v>
-      </c>
-      <c r="E196" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="F196" s="33"/>
-      <c r="G196" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H196" s="96"/>
-      <c r="I196" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="J196" s="46"/>
-    </row>
-    <row r="197" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B197" s="88"/>
-      <c r="C197" s="88"/>
-      <c r="D197" s="91"/>
-      <c r="E197" s="33" t="s">
-        <v>693</v>
-      </c>
-      <c r="F197" s="33"/>
-      <c r="G197" s="88"/>
-      <c r="H197" s="97"/>
-      <c r="I197" s="94"/>
-      <c r="J197" s="46"/>
-    </row>
-    <row r="198" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B198" s="88"/>
-      <c r="C198" s="88"/>
-      <c r="D198" s="91"/>
-      <c r="E198" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F198" s="33"/>
-      <c r="G198" s="88"/>
-      <c r="H198" s="97"/>
-      <c r="I198" s="94"/>
-      <c r="J198" s="46"/>
-    </row>
-    <row r="199" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B199" s="88"/>
-      <c r="C199" s="88"/>
-      <c r="D199" s="91"/>
-      <c r="E199" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="F199" s="33"/>
-      <c r="G199" s="88"/>
-      <c r="H199" s="97"/>
-      <c r="I199" s="94"/>
-      <c r="J199" s="46"/>
-    </row>
-    <row r="200" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B200" s="89"/>
-      <c r="C200" s="89"/>
-      <c r="D200" s="92"/>
-      <c r="E200" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="F200" s="33" t="s">
-        <v>703</v>
-      </c>
-      <c r="G200" s="89"/>
-      <c r="H200" s="98"/>
-      <c r="I200" s="95"/>
-      <c r="J200" s="46"/>
-    </row>
-    <row r="201" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="49" t="s">
-        <v>451</v>
-      </c>
-      <c r="C201" s="61" t="s">
-        <v>556</v>
-      </c>
-      <c r="D201" s="51"/>
-      <c r="E201" s="51"/>
-      <c r="F201" s="51"/>
-      <c r="G201" s="51"/>
-      <c r="H201" s="51"/>
-      <c r="I201" s="51"/>
-      <c r="J201" s="52"/>
-    </row>
-    <row r="202" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B202" s="87" t="s">
-        <v>459</v>
-      </c>
-      <c r="C202" s="87"/>
-      <c r="D202" s="93" t="s">
-        <v>704</v>
-      </c>
-      <c r="E202" s="33" t="s">
-        <v>706</v>
-      </c>
-      <c r="F202" s="33"/>
-      <c r="G202" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H202" s="96"/>
-      <c r="I202" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="J202" s="46"/>
-    </row>
-    <row r="203" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B203" s="88"/>
-      <c r="C203" s="88"/>
-      <c r="D203" s="94"/>
-      <c r="E203" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F203" s="33"/>
-      <c r="G203" s="88"/>
-      <c r="H203" s="97"/>
-      <c r="I203" s="94"/>
-      <c r="J203" s="46"/>
-    </row>
-    <row r="204" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B204" s="88"/>
-      <c r="C204" s="88"/>
-      <c r="D204" s="94"/>
-      <c r="E204" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="F204" s="33"/>
-      <c r="G204" s="88"/>
-      <c r="H204" s="97"/>
-      <c r="I204" s="94"/>
-      <c r="J204" s="46"/>
-    </row>
-    <row r="205" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B205" s="88"/>
-      <c r="C205" s="88"/>
-      <c r="D205" s="94"/>
-      <c r="E205" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F205" s="33"/>
-      <c r="G205" s="88"/>
-      <c r="H205" s="97"/>
-      <c r="I205" s="94"/>
-      <c r="J205" s="46"/>
-    </row>
-    <row r="206" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B206" s="88"/>
-      <c r="C206" s="88"/>
-      <c r="D206" s="94"/>
-      <c r="E206" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="F206" s="33"/>
-      <c r="G206" s="88"/>
-      <c r="H206" s="97"/>
-      <c r="I206" s="94"/>
-      <c r="J206" s="46"/>
-    </row>
-    <row r="207" spans="2:10" ht="51.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B207" s="89"/>
-      <c r="C207" s="89"/>
-      <c r="D207" s="95"/>
-      <c r="E207" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="F207" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="G207" s="89"/>
-      <c r="H207" s="98"/>
-      <c r="I207" s="95"/>
-      <c r="J207" s="46"/>
-    </row>
-    <row r="208" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B208" s="87" t="s">
-        <v>491</v>
-      </c>
-      <c r="C208" s="87"/>
-      <c r="D208" s="93" t="s">
-        <v>705</v>
-      </c>
-      <c r="E208" s="33" t="s">
-        <v>709</v>
-      </c>
-      <c r="F208" s="33"/>
-      <c r="G208" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H208" s="96"/>
-      <c r="I208" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="J208" s="46"/>
-    </row>
-    <row r="209" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B209" s="88"/>
-      <c r="C209" s="88"/>
-      <c r="D209" s="94"/>
-      <c r="E209" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F209" s="33"/>
-      <c r="G209" s="88"/>
-      <c r="H209" s="97"/>
-      <c r="I209" s="94"/>
-      <c r="J209" s="46"/>
-    </row>
-    <row r="210" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B210" s="88"/>
-      <c r="C210" s="88"/>
-      <c r="D210" s="94"/>
-      <c r="E210" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="F210" s="33"/>
-      <c r="G210" s="88"/>
-      <c r="H210" s="97"/>
-      <c r="I210" s="94"/>
-      <c r="J210" s="46"/>
-    </row>
-    <row r="211" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B211" s="88"/>
-      <c r="C211" s="88"/>
-      <c r="D211" s="94"/>
-      <c r="E211" s="33" t="s">
-        <v>668</v>
-      </c>
-      <c r="F211" s="33"/>
-      <c r="G211" s="88"/>
-      <c r="H211" s="97"/>
-      <c r="I211" s="94"/>
-      <c r="J211" s="46"/>
-    </row>
-    <row r="212" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B212" s="88"/>
-      <c r="C212" s="88"/>
-      <c r="D212" s="94"/>
-      <c r="E212" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="F212" s="33"/>
-      <c r="G212" s="88"/>
-      <c r="H212" s="97"/>
-      <c r="I212" s="94"/>
-      <c r="J212" s="46"/>
-    </row>
-    <row r="213" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B213" s="89"/>
-      <c r="C213" s="89"/>
-      <c r="D213" s="95"/>
-      <c r="E213" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="F213" s="33" t="s">
-        <v>711</v>
-      </c>
-      <c r="G213" s="89"/>
-      <c r="H213" s="98"/>
-      <c r="I213" s="95"/>
-      <c r="J213" s="46"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B214" s="62" t="s">
-        <v>530</v>
-      </c>
-      <c r="C214" s="62"/>
-      <c r="D214" s="62"/>
-      <c r="E214" s="62"/>
-      <c r="F214" s="62"/>
-      <c r="G214" s="62"/>
-      <c r="H214" s="62"/>
-      <c r="I214" s="62"/>
-      <c r="J214" s="62"/>
-    </row>
-    <row r="215" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="49" t="s">
-        <v>496</v>
-      </c>
-      <c r="C215" s="61" t="s">
-        <v>530</v>
-      </c>
-      <c r="D215" s="51"/>
-      <c r="E215" s="51"/>
-      <c r="F215" s="51"/>
-      <c r="G215" s="51"/>
-      <c r="H215" s="51"/>
-      <c r="I215" s="51"/>
-      <c r="J215" s="52"/>
-    </row>
-    <row r="216" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B216" s="46" t="s">
-        <v>507</v>
-      </c>
-      <c r="C216" s="46"/>
-      <c r="D216" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="E216" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="F216" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="G216" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H216" s="41"/>
-      <c r="I216" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J216" s="46"/>
-    </row>
-    <row r="217" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="62" t="s">
-        <v>531</v>
-      </c>
-      <c r="C217" s="62"/>
-      <c r="D217" s="62"/>
-      <c r="E217" s="62"/>
-      <c r="F217" s="62"/>
-      <c r="G217" s="62"/>
-      <c r="H217" s="62"/>
-      <c r="I217" s="62"/>
-      <c r="J217" s="62"/>
-    </row>
-    <row r="218" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C218" s="61"/>
-      <c r="D218" s="59"/>
-      <c r="E218" s="45"/>
-      <c r="F218" s="45"/>
-      <c r="G218" s="45"/>
-      <c r="H218" s="60"/>
-      <c r="I218" s="59"/>
-      <c r="J218" s="45"/>
-    </row>
-    <row r="219" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="46"/>
-      <c r="C219" s="46"/>
-      <c r="D219" s="46"/>
-      <c r="E219" s="46"/>
-      <c r="F219" s="46"/>
-      <c r="G219" s="46"/>
-      <c r="H219" s="41"/>
-      <c r="I219" s="33"/>
-      <c r="J219" s="46"/>
-    </row>
-    <row r="220" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="46"/>
-      <c r="C220" s="46"/>
-      <c r="D220" s="46"/>
-      <c r="E220" s="46"/>
-      <c r="F220" s="46"/>
-      <c r="G220" s="46"/>
-      <c r="H220" s="41"/>
-      <c r="I220" s="33"/>
-      <c r="J220" s="46"/>
-    </row>
-    <row r="221" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="62" t="s">
-        <v>532</v>
-      </c>
-      <c r="C221" s="62"/>
-      <c r="D221" s="62"/>
-      <c r="E221" s="62"/>
-      <c r="F221" s="62"/>
-      <c r="G221" s="62"/>
-      <c r="H221" s="62"/>
-      <c r="I221" s="62"/>
-      <c r="J221" s="62"/>
-    </row>
-    <row r="222" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C222" s="61"/>
-      <c r="D222" s="59"/>
-      <c r="E222" s="45"/>
-      <c r="F222" s="45"/>
-      <c r="G222" s="45"/>
-      <c r="H222" s="60"/>
-      <c r="I222" s="59"/>
-      <c r="J222" s="45"/>
-    </row>
-    <row r="223" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="46"/>
-      <c r="C223" s="46"/>
-      <c r="D223" s="46"/>
-      <c r="E223" s="46"/>
-      <c r="F223" s="46"/>
-      <c r="G223" s="46"/>
-      <c r="H223" s="41"/>
-      <c r="I223" s="33"/>
-      <c r="J223" s="46"/>
-    </row>
-    <row r="224" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="46"/>
-      <c r="C224" s="46"/>
-      <c r="D224" s="46"/>
-      <c r="E224" s="46"/>
-      <c r="F224" s="46"/>
-      <c r="G224" s="46"/>
-      <c r="H224" s="41"/>
-      <c r="I224" s="33"/>
-      <c r="J224" s="46"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B10:J218"/>
-  <mergeCells count="130">
-    <mergeCell ref="H208:H213"/>
-    <mergeCell ref="G208:G213"/>
-    <mergeCell ref="I208:I213"/>
-    <mergeCell ref="D202:D207"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="C202:C207"/>
-    <mergeCell ref="B208:B213"/>
-    <mergeCell ref="C208:C213"/>
-    <mergeCell ref="D208:D213"/>
-    <mergeCell ref="I186:I190"/>
-    <mergeCell ref="I191:I195"/>
-    <mergeCell ref="I196:I200"/>
-    <mergeCell ref="G202:G207"/>
-    <mergeCell ref="H202:H207"/>
-    <mergeCell ref="I202:I207"/>
-    <mergeCell ref="D196:D200"/>
-    <mergeCell ref="B196:B200"/>
-    <mergeCell ref="C196:C200"/>
-    <mergeCell ref="H196:H200"/>
-    <mergeCell ref="G196:G200"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="G191:G195"/>
-    <mergeCell ref="H191:H195"/>
-    <mergeCell ref="B191:B195"/>
-    <mergeCell ref="C191:C195"/>
-    <mergeCell ref="G186:G190"/>
-    <mergeCell ref="H186:H190"/>
-    <mergeCell ref="D186:D190"/>
-    <mergeCell ref="C186:C190"/>
-    <mergeCell ref="D179:D183"/>
-    <mergeCell ref="H179:H183"/>
-    <mergeCell ref="I179:I183"/>
-    <mergeCell ref="G179:G183"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="D173:D177"/>
-    <mergeCell ref="G173:G177"/>
-    <mergeCell ref="H173:H177"/>
-    <mergeCell ref="I173:I177"/>
-    <mergeCell ref="B173:B177"/>
-    <mergeCell ref="C173:C177"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="C151:C156"/>
-    <mergeCell ref="I151:I156"/>
-    <mergeCell ref="H151:H156"/>
-    <mergeCell ref="G151:G156"/>
-    <mergeCell ref="D151:D156"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="I167:I171"/>
-    <mergeCell ref="H167:H171"/>
-    <mergeCell ref="G167:G171"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="C167:C171"/>
-    <mergeCell ref="D159:D164"/>
-    <mergeCell ref="G159:G164"/>
-    <mergeCell ref="H159:H164"/>
-    <mergeCell ref="I159:I164"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="C159:C164"/>
-    <mergeCell ref="I145:I149"/>
-    <mergeCell ref="H145:H149"/>
-    <mergeCell ref="G145:G149"/>
-    <mergeCell ref="B145:B149"/>
-    <mergeCell ref="C145:C149"/>
-    <mergeCell ref="D145:D149"/>
-    <mergeCell ref="H125:H133"/>
-    <mergeCell ref="I125:I133"/>
-    <mergeCell ref="D125:D133"/>
-    <mergeCell ref="B134:B142"/>
-    <mergeCell ref="D134:D142"/>
-    <mergeCell ref="G134:G142"/>
-    <mergeCell ref="H134:H142"/>
-    <mergeCell ref="I134:I142"/>
-    <mergeCell ref="B116:B124"/>
-    <mergeCell ref="D116:D124"/>
-    <mergeCell ref="B125:B133"/>
-    <mergeCell ref="C134:C142"/>
-    <mergeCell ref="G125:G133"/>
-    <mergeCell ref="G116:G124"/>
-    <mergeCell ref="H116:H124"/>
-    <mergeCell ref="I116:I124"/>
-    <mergeCell ref="C116:C124"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="G78:G85"/>
-    <mergeCell ref="H78:H85"/>
-    <mergeCell ref="I78:I85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="G70:G77"/>
-    <mergeCell ref="H70:H77"/>
-    <mergeCell ref="I70:I77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="G62:G69"/>
-    <mergeCell ref="H62:H69"/>
-    <mergeCell ref="I62:I69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="G54:G61"/>
-    <mergeCell ref="H54:H61"/>
-    <mergeCell ref="I54:I61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="G41:G48"/>
-    <mergeCell ref="I41:I48"/>
-    <mergeCell ref="G32:G39"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="I32:I39"/>
+  <autoFilter ref="B10:J143"/>
+  <mergeCells count="8">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -10903,362 +10477,438 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="D24:D28"/>
   </mergeCells>
-  <conditionalFormatting sqref="H54 H87:H90 H21 H62">
-    <cfRule type="containsText" dxfId="127" priority="266" operator="containsText" text="Not Applicable">
+  <conditionalFormatting sqref="H21 H105:H107">
+    <cfRule type="containsText" dxfId="147" priority="342" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="267" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="146" priority="343" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="268" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="145" priority="344" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54 H87:H90 H21 H62">
-    <cfRule type="containsText" dxfId="124" priority="265" operator="containsText" text="Block">
+  <conditionalFormatting sqref="H21 H105:H107">
+    <cfRule type="containsText" dxfId="144" priority="341" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="123" priority="262" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="143" priority="338" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="263" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="142" priority="339" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="264" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="141" priority="340" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="120" priority="261" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="140" priority="337" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51 H24:H29">
-    <cfRule type="containsText" dxfId="119" priority="250" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H24)))</formula>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="containsText" dxfId="139" priority="326" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="251" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H24)))</formula>
+    <cfRule type="containsText" dxfId="138" priority="327" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="252" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H24)))</formula>
+    <cfRule type="containsText" dxfId="137" priority="328" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51 H24:H29">
-    <cfRule type="containsText" dxfId="116" priority="249" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H24)))</formula>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="containsText" dxfId="136" priority="325" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93 H103:H104 H107:H108 H219:H220 H223:H224 H95 H216 H98:H100 H111:H114 H167 H186 H145 H151">
-    <cfRule type="containsText" dxfId="115" priority="234" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H93)))</formula>
+  <conditionalFormatting sqref="H65 H144:H145 H148:H149 H67 H141">
+    <cfRule type="containsText" dxfId="135" priority="310" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="235" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H93)))</formula>
+    <cfRule type="containsText" dxfId="134" priority="311" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="236" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H93)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="312" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93 H103:H104 H107:H108 H219:H220 H223:H224 H95 H216 H98:H100 H111:H114 H167 H186 H145 H151">
-    <cfRule type="containsText" dxfId="112" priority="233" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H93)))</formula>
+  <conditionalFormatting sqref="H65 H144:H145 H148:H149 H67 H141">
+    <cfRule type="containsText" dxfId="132" priority="309" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H218">
-    <cfRule type="containsText" dxfId="111" priority="198" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H218)))</formula>
+  <conditionalFormatting sqref="H143">
+    <cfRule type="containsText" dxfId="131" priority="274" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="199" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H218)))</formula>
+    <cfRule type="containsText" dxfId="130" priority="275" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="200" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H218)))</formula>
+    <cfRule type="containsText" dxfId="129" priority="276" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H143)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H218">
-    <cfRule type="containsText" dxfId="108" priority="197" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H218)))</formula>
+  <conditionalFormatting sqref="H143">
+    <cfRule type="containsText" dxfId="128" priority="273" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H143)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H222">
-    <cfRule type="containsText" dxfId="107" priority="194" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H222)))</formula>
+  <conditionalFormatting sqref="H147">
+    <cfRule type="containsText" dxfId="127" priority="270" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="195" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H222)))</formula>
+    <cfRule type="containsText" dxfId="126" priority="271" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="196" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H222)))</formula>
+    <cfRule type="containsText" dxfId="125" priority="272" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H147)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H222">
-    <cfRule type="containsText" dxfId="104" priority="193" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H222)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H39 H41:H48">
-    <cfRule type="containsText" dxfId="103" priority="178" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="179" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="180" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H39 H41:H48">
-    <cfRule type="containsText" dxfId="100" priority="177" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
-    <cfRule type="containsText" dxfId="99" priority="150" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H116)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="151" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H116)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="152" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H116)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
-    <cfRule type="containsText" dxfId="96" priority="149" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H116)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H202">
-    <cfRule type="containsText" dxfId="95" priority="106" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="107" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="108" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H202">
-    <cfRule type="containsText" dxfId="92" priority="105" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="containsText" dxfId="91" priority="82" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="83" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="84" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="containsText" dxfId="88" priority="81" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="87" priority="78" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="79" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="80" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="84" priority="77" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="containsText" dxfId="83" priority="70" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="71" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="72" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="containsText" dxfId="80" priority="69" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H134">
-    <cfRule type="containsText" dxfId="79" priority="66" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="67" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="68" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H134)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H134">
-    <cfRule type="containsText" dxfId="76" priority="65" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H134)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H173">
-    <cfRule type="containsText" dxfId="75" priority="38" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H173)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="39" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H173)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="40" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H173)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H173">
-    <cfRule type="containsText" dxfId="72" priority="37" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H173)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H159">
-    <cfRule type="containsText" dxfId="71" priority="50" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H159)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="51" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H159)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="52" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H159)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H159">
-    <cfRule type="containsText" dxfId="68" priority="49" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H159)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H179">
-    <cfRule type="containsText" dxfId="67" priority="30" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="31" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="32" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H179">
-    <cfRule type="containsText" dxfId="64" priority="29" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H191">
-    <cfRule type="containsText" dxfId="63" priority="22" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="24" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H191">
-    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H196">
-    <cfRule type="containsText" dxfId="59" priority="18" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="20" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H196">
-    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H196)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H208">
-    <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H208)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H208)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H208)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H208">
-    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H208)))</formula>
+  <conditionalFormatting sqref="H147">
+    <cfRule type="containsText" dxfId="124" priority="269" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H18">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="123" priority="82" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="122" priority="83" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="121" priority="84" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H18">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="120" priority="81" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="119" priority="78" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="118" priority="79" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="117" priority="80" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="116" priority="77" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H30 H24:H27">
+    <cfRule type="containsText" dxfId="115" priority="74" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="75" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="76" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30 H24:H27">
+    <cfRule type="containsText" dxfId="112" priority="73" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:H29">
+    <cfRule type="containsText" dxfId="111" priority="70" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="71" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="72" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:H29">
+    <cfRule type="containsText" dxfId="108" priority="69" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H36">
+    <cfRule type="containsText" dxfId="107" priority="66" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="67" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="68" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H36">
+    <cfRule type="containsText" dxfId="104" priority="65" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H44">
+    <cfRule type="containsText" dxfId="103" priority="62" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="63" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="64" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H44">
+    <cfRule type="containsText" dxfId="100" priority="61" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:H57">
+    <cfRule type="containsText" dxfId="99" priority="58" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="59" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="60" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:H57">
+    <cfRule type="containsText" dxfId="96" priority="57" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:H62">
+    <cfRule type="containsText" dxfId="95" priority="54" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="55" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="56" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:H62">
+    <cfRule type="containsText" dxfId="92" priority="53" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:H72">
+    <cfRule type="containsText" dxfId="91" priority="50" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="51" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="52" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:H72">
+    <cfRule type="containsText" dxfId="88" priority="49" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:H76">
+    <cfRule type="containsText" dxfId="87" priority="46" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="47" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H75)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="48" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:H76">
+    <cfRule type="containsText" dxfId="84" priority="45" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79:H80">
+    <cfRule type="containsText" dxfId="83" priority="42" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="43" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="44" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79:H80">
+    <cfRule type="containsText" dxfId="80" priority="41" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83:H86">
+    <cfRule type="containsText" dxfId="79" priority="38" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="39" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="40" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83:H86">
+    <cfRule type="containsText" dxfId="76" priority="37" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88:H93">
+    <cfRule type="containsText" dxfId="75" priority="34" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="35" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="36" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88:H93">
+    <cfRule type="containsText" dxfId="72" priority="33" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96:H98">
+    <cfRule type="containsText" dxfId="71" priority="30" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="31" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="32" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96:H98">
+    <cfRule type="containsText" dxfId="68" priority="29" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100:H102">
+    <cfRule type="containsText" dxfId="67" priority="26" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H100)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="27" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H100)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="28" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H100)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100:H102">
+    <cfRule type="containsText" dxfId="64" priority="25" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H100)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110:H112">
+    <cfRule type="containsText" dxfId="63" priority="18" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="20" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110:H112">
+    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114:H116">
+    <cfRule type="containsText" dxfId="59" priority="14" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="16" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114:H116">
+    <cfRule type="containsText" dxfId="56" priority="13" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118:H120">
+    <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118:H120">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H123:H131">
+    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H123:H131">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H133:H138">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H133:H138">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G222:G224 G145 G51 G218:G220 G87:G90 G196 G98:G100 G78 G21 G107:G108 G95 G103:G104 G173 G32:G33 G29 G151 G41 G93 G208 G159 G167 G179 G216 G134 G24 G54 G62 G70 G116 G125 G186 G191 G202 G111:G114 F15:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G147:G149 G141 G47 G143:G145 G59:G62 G70:G72 G21 G79:G80 G67 G75:G76 G65 G15:G19 G83:G86 G110:G112">
       <formula1>"Automatic, Manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H222:H224 H145 H167 H218:H220 H41:H48 H179 H98:H100 H111:H114 H78 H216 H173 H107:H108 H95 H103:H104 H51 H196 H32:H39 H93 H87:H90 H151 H159 H24:H29 H21 H134 H54 H62 H70 H116 H125 H186 H191 H202 H208 H15:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H147:H149 H88:H93 H143:H145 H33:H36 H114:H116 H59:H62 H79:H80 H141 H110:H112 H75:H76 H67 H70:H72 H47 H24:H30 H65 H133:H138 H96:H98 H100:H102 H15:H19 H21 H38:H44 H50:H57 H83:H86 H123:H131 H118:H120 H105:H107">
       <formula1>"Passed, Failed, Block, Not Applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I222:I224 I145 I51 I218:I220 I87:I90 I196 I98:I100 I78 I107:I108 I103:I104 I95 I21 I173 I41 I29 I151 I216 I93 I208 I159 I167 I179 I32 I134 I24 I54 I62 I70 I116 I125 I186 I191 I202 I111:I114 I15:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I147:I149 I88:I93 I47 I143:I145 I59:I62 I70:I72 I79:I80 I75:I76 I67 I21 I110:I112 I33:I36 I83:I86 I96:I98 I141 I65 I133:I138 I100:I102 I114:I116 I24:I30 I15:I19 I38:I44 I50:I57 I123:I131 I118:I120 I105:I107">
       <formula1>"Chau Le, Dao Khau, Khang Huynh, Huy Ngo, Huy Nguyen, Phu Ta"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E34" location="Parameter!A1" display="2. Điền thông tin tài khoản @Username"/>
-    <hyperlink ref="E35" location="Parameter!A1" display="3. Điền thông tin tài khoản @Password"/>
-    <hyperlink ref="E36" location="Parameter!A1" display="4. Điền thông tin Email @Email"/>
+    <hyperlink ref="E33" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
+    <hyperlink ref="E34" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
+    <hyperlink ref="E35" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11288,13 +10938,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="55">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -11304,11 +10954,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="55">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -11318,55 +10968,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="55">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="85" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="55">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="55">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="85" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="55">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="86" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="56">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
@@ -14593,178 +14243,178 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:H19 H52:H59 H61:H64 H22:H23">
-    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H19 H52:H59 H61:H64 H22:H23">
-    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="39" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="40" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 H32 H26:H29">
-    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 H32 H26:H29">
-    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="39" priority="30" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67 H78:H79 H82:H83 H149:H150 H153:H154 H69:H70 H146 H73:H75 H86:H88 H107:H112 H115:H117 H119:H121 H123:H125 H128:H136 H98:H100 H102:H104">
-    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67 H78:H79 H82:H83 H149:H150 H153:H154 H69:H70 H146 H73:H75 H86:H88 H107:H112 H115:H117 H119:H121 H123:H125 H128:H136 H98:H100 H102:H104">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148">
-    <cfRule type="containsText" dxfId="31" priority="22" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148">
-    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38 H40:H46">
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38 H40:H46">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H95">
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H95">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138:H143">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138:H143">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H138)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14808,22 +14458,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>743</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>744</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>742</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>739</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14842,7 +14492,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="71" t="s">
-        <v>740</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14850,7 +14500,7 @@
     </row>
     <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L13" s="71" t="s">
-        <v>741</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>

--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
@@ -26,11 +26,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Testcase Sprint 1'!$A$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="782">
   <si>
     <t>Expected results</t>
   </si>
@@ -2293,9 +2294,6 @@
     <t>Show list 'Available'</t>
   </si>
   <si>
-    <t>Show list 'Recent'</t>
-  </si>
-  <si>
     <t>Show list 'Delete'</t>
   </si>
   <si>
@@ -2308,12 +2306,6 @@
     <t>Pre-conditions: Users logged into the site. 
 1. Choose dictionary
 2. Select list Available
-3. Check data</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Users logged into the site. 
-1. Choose dictionary
-2. Select list Recent
 3. Check data</t>
   </si>
   <si>
@@ -2819,13 +2811,6 @@
 5. Confirming Add to dictionary</t>
   </si>
   <si>
-    <t>Pre-Conditions: In the list of questions answered 10 records available 
-1. Select  list-saved
-2. Choose a question (checkboxed) 
-4. Choose Add to dictionary 
-5. Confirming Add to dictionary</t>
-  </si>
-  <si>
     <t>The question was transferred to the available list. Show notification Putting the question in dictionaries success</t>
   </si>
   <si>
@@ -2846,22 +2831,6 @@
 5. Confirming Add to dictionary</t>
   </si>
   <si>
-    <t>Pre-Conditions: In the list of 'Available' of 10 dictionaries available records 
-1. Choose dictionaries 
-2. Select 'Available' 
-3. Choose a question (checkboxed) 
-4. Choose Add to dictionary 
-5. Confirming Add to dictionary</t>
-  </si>
-  <si>
-    <t>Pre-Conditions: In the list of 'Available' of 10 dictionaries available records 
-1. Choose dictionaries 
-2. Select 'Available' 
-3. Choose a question (checkboxed) ) 
-4. Choose Add to dictionary 
-5. Confirming Add to dictionary</t>
-  </si>
-  <si>
     <t>The question was transferred to the current list. Show notification Putting the question in dictionaries success</t>
   </si>
   <si>
@@ -2932,6 +2901,272 @@
 2. Choose all question  (checked box)  
 3. Choose Delete in detail interface question 
 4. Confirm Deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three question was transferred to the list-deleted. Show notification deleted successfully </t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Available in a list of 10 unanswered questions  
+1. Choose  list-tempsave
+2. Choose any question (do not select the check box) 
+3. Choose Delete in detail interface question 
+4. Confirm Deletion</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Available in a list of 10 unanswered questions  
+1. Choose  list-tempsave
+2. Choose any question (checked box) 
+3. Choose Delete in detail interface question 
+4. Confirm Deletion</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Available in a list of 10 unanswered questions  
+1. Choose  list-tempsave
+2. Choose 3 question  (checked box)  
+3. Choose Delete in detail interface question 
+4. Confirm Deletion</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Available in a list of 10 unanswered questions  
+1. Choose  list-saved
+2. Choose any question (do not select the check box) 
+3. Choose Delete in detail interface question 
+4. Confirm Deletion</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Available in a list of 10 unanswered questions  
+1. Choose  list-saved
+2. Choose any question (checked box) 
+3. Choose Delete in detail interface question 
+4. Confirm Deletion</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: Available in a list of 10 unanswered questions  
+1. Choose  list-saved
+2. Choose 3 question  (checked box)  
+3. Choose Delete in detail interface question 
+4. Confirm Deletion</t>
+  </si>
+  <si>
+    <t>The question was transferred to the list-unanswer. Show notification of successful recovery</t>
+  </si>
+  <si>
+    <t>The question was transferred to the list-tempsave . Show notification of successful recovery</t>
+  </si>
+  <si>
+    <t>The question was transferred to the list-tempsave. Show notification of successful recovery</t>
+  </si>
+  <si>
+    <t>The questions was transferred to the list-tempsave. Show notification of successful recovery</t>
+  </si>
+  <si>
+    <t>The question was transferred to the list-saved. Show notification of successful recovery</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-unanswered
+1. Choose deleted list 
+2. Choose a question (do not select the check box) 
+3. Choose restore questions 
+4. Verify recovery</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-unanswered
+1. Choose deleted list 
+2. Choose a question (checked box) 
+3. Choose restore questions 
+4. Verify recovery</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-unanswered
+1. Choose deleted list 
+2. Choose 2 questions (checked box) 
+3. Choose restore questions 
+4. Verify recovery</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-tempsave
+1. Choose deleted list 
+2. Choose a question (do not select the check box) 
+3. Choose restore questions 
+4. Verify recovery</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-tempsave
+1. Choose deleted list 
+2. Choose a question (checked box) 
+3. Choose restore questions 
+4. Verify recovery</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-tempsave
+1. Choose deleted list 
+2. Choose 2 questions (checked box) 
+3. Choose restore questions 
+4. Verify recovery</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-saved
+1. Choose deleted list 
+2. Choose a question (do not select the check box) 
+3. Choose restore questions 
+4. Verify recovery</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-saved
+1. Choose deleted list 
+2. Choose a question (checked box) 
+3. Choose restore questions 
+4. Verify recovery</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-saved
+1. Choose deleted list 
+2. Choose 2 questions (checked box) 
+3. Choose restore questions 
+4. Verify recovery</t>
+  </si>
+  <si>
+    <t>Restore a deleted question from the list-unanswered</t>
+  </si>
+  <si>
+    <t>Restore multi deleted question from the list-unanswered</t>
+  </si>
+  <si>
+    <t>Restore a deleted question from the list-unanswered with checkbox</t>
+  </si>
+  <si>
+    <t>Restore a deleted question from the list-tempsave</t>
+  </si>
+  <si>
+    <t>Restore a deleted question from the list-tempsave with checkbox</t>
+  </si>
+  <si>
+    <t>Restore multi deleted question from the list-tempsave</t>
+  </si>
+  <si>
+    <t>Restore a deleted question from the list-saved</t>
+  </si>
+  <si>
+    <t>Restore a deleted question from the list-saved with checkbox</t>
+  </si>
+  <si>
+    <t>Restore multi deleted question from the list-saved</t>
+  </si>
+  <si>
+    <t>The question was transferred to the Available list. Show notification successful recovery questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The question was transferred to the Current list. Show notification successful recovery questions </t>
+  </si>
+  <si>
+    <t>Show list 'Current'</t>
+  </si>
+  <si>
+    <t>Pre-conditions: Users logged into the site. 
+1. Choose dictionary
+2. Select list Current
+3. Check data</t>
+  </si>
+  <si>
+    <t>Mỗi trang trong danh sách 'Current' chỉ hiển thị 5 câu hỏi</t>
+  </si>
+  <si>
+    <t>Pre-conditions: Trong cơ sở dữ liệu có 20 records câu hỏi Current
+1. Chọn bộ từ điển
+2. Chọn danh sách Current
+3. Kiểm tra số câu hỏi của trang 1
+4. Chọn trang 2
+5. Kiểm tra số câu hỏi của trang 2</t>
+  </si>
+  <si>
+    <t>Hiển thị tối đa 5 trang ở danh sách 'Current'</t>
+  </si>
+  <si>
+    <t>Pre-conditions: Trong cơ sở dữ liệu có 40 records câu hỏi Current
+1. Chọn danh sách Current
+2. Chọn trang 2
+3. Chọn trang 3
+4. Chọn trang 4
+5. Chọn trang 5
+6. Chọn trang 6
+7. Chọn trang 7</t>
+  </si>
+  <si>
+    <t>Restore a question from the list Available</t>
+  </si>
+  <si>
+    <t>Restore a question from the list Available with checkbox</t>
+  </si>
+  <si>
+    <t>Restore multi question from the list Available</t>
+  </si>
+  <si>
+    <t>Restore a question from the list 'Current'</t>
+  </si>
+  <si>
+    <t>Restore a question from the list 'Current' with checkbox</t>
+  </si>
+  <si>
+    <t>Restore multi question from the list 'Current'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Conditions: In the list of 'Delete' dictionaries available 4 records are deleted from the list of 'Available' 
+1. Choose dictionaries 
+2. Select 'Deleted' 
+3. Choose a question (no checkbox) 
+4. Choose restore questions 
+5. Verify recovery
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Conditions: In the list of 'Delete' dictionaries available 4 records are deleted from the list of 'Available' 
+1. Choose dictionaries 
+2. Select 'Deleted' 
+3. Choose a question (checked box) 
+4. Choose restore questions 
+5. Verify recovery
+</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list of questions answered 10 records available 
+1. Select  list-saved
+2. Choose a question (checked box) 
+4. Choose Add to dictionary 
+5. Confirming Add to dictionary</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list of 'Available' of 10 dictionaries available records 
+1. Choose dictionaries 
+2. Select 'Available' 
+3. Choose a question (checked box) 
+4. Choose Add to dictionary 
+5. Confirming Add to dictionary</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the list of 'Available' of 10 dictionaries available records 
+1. Choose dictionaries 
+2. Select 'Available' 
+3. Choose a question (checked box) ) 
+4. Choose Add to dictionary 
+5. Confirming Add to dictionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Conditions: In the list of 'Delete' dictionaries available 4 records are deleted from the list of 'Current' 
+1. Choose dictionaries 
+2. Select 'Deleted' 
+3. Choose a question (no checkbox) 
+4. Choose restore questions 
+5. Verify recovery
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Conditions: In the list of 'Delete' dictionaries available 4 records are deleted from the list of 'Current' 
+1. Choose dictionaries 
+2. Select 'Deleted' 
+3. Choose a question (checked box) 
+4. Choose restore questions 
+5. Verify recovery
+</t>
   </si>
 </sst>
 </file>
@@ -6530,13 +6765,13 @@
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C26" s="19">
         <v>1.8</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19" t="s">
@@ -6784,7 +7019,7 @@
         <v>Check login</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D6" s="43"/>
     </row>
@@ -6830,7 +7065,7 @@
         <v>Check password</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D10" s="43"/>
     </row>
@@ -6852,7 +7087,7 @@
         <v>Check register</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D12" s="43"/>
     </row>
@@ -6865,7 +7100,7 @@
         <v>Show notification</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D13" s="43"/>
     </row>
@@ -6887,7 +7122,7 @@
         <v>Show user profile</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D15" s="43"/>
     </row>
@@ -6909,7 +7144,7 @@
         <v>Pagging</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D17" s="43"/>
     </row>
@@ -6922,7 +7157,7 @@
         <v>Content of List question</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D18" s="43"/>
     </row>
@@ -6944,7 +7179,7 @@
         <v>Check data</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D20" s="43"/>
     </row>
@@ -6957,7 +7192,7 @@
         <v>Implement search</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D21" s="43"/>
     </row>
@@ -6979,7 +7214,7 @@
         <v>Show detail question</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D23" s="43"/>
     </row>
@@ -7001,7 +7236,7 @@
         <v xml:space="preserve">Send answer </v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D25" s="43"/>
     </row>
@@ -7023,7 +7258,7 @@
         <v>Save question</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D27" s="43"/>
     </row>
@@ -7045,7 +7280,7 @@
         <v>Show dict</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D29" s="43"/>
     </row>
@@ -7058,7 +7293,7 @@
         <v>Paging for list-dictionary</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D30" s="43"/>
     </row>
@@ -7080,7 +7315,7 @@
         <v>put question into dict from list-save</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D32" s="43"/>
     </row>
@@ -7093,7 +7328,7 @@
         <v>Insert dict on internet from list-dict (available)</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D33" s="43"/>
     </row>
@@ -7115,7 +7350,7 @@
         <v>drop-dict</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D35" s="43"/>
     </row>
@@ -7137,7 +7372,7 @@
         <v>Delete question in list-unanswer</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D37" s="43"/>
     </row>
@@ -7150,7 +7385,7 @@
         <v>Delete question in list-tempsave</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D38" s="43"/>
     </row>
@@ -7163,7 +7398,7 @@
         <v>Delete question in list-saved</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D39" s="43"/>
     </row>
@@ -7185,7 +7420,7 @@
         <v>Recover question from list-deleted</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D41" s="43"/>
     </row>
@@ -7198,7 +7433,7 @@
         <v>Recover question from list-dict</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D42" s="43"/>
     </row>
@@ -7220,7 +7455,7 @@
         <v>Create question</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D44" s="43"/>
     </row>
@@ -7292,6 +7527,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A26:D26"/>
@@ -7302,14 +7545,6 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7324,8 +7559,8 @@
   </sheetPr>
   <dimension ref="A2:J149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N112" sqref="N112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -7529,13 +7764,13 @@
         <v>60</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G15" s="46" t="s">
         <v>97</v>
@@ -7558,13 +7793,13 @@
         <v>61</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G16" s="46" t="s">
         <v>97</v>
@@ -7585,13 +7820,13 @@
         <v>62</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>97</v>
@@ -7612,13 +7847,13 @@
         <v>63</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>97</v>
@@ -7639,13 +7874,13 @@
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>97</v>
@@ -7734,13 +7969,13 @@
         <v>65</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>97</v>
@@ -7761,13 +7996,13 @@
         <v>66</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>97</v>
@@ -7788,13 +8023,13 @@
         <v>67</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>97</v>
@@ -7815,13 +8050,13 @@
         <v>71</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>97</v>
@@ -7842,10 +8077,10 @@
         <v>68</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>250</v>
@@ -7869,13 +8104,13 @@
         <v>69</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -7896,13 +8131,13 @@
         <v>70</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>97</v>
@@ -7951,13 +8186,13 @@
         <v>73</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>97</v>
@@ -7978,13 +8213,13 @@
         <v>74</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>97</v>
@@ -8005,13 +8240,13 @@
         <v>75</v>
       </c>
       <c r="D35" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>667</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>669</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>97</v>
@@ -8032,13 +8267,13 @@
         <v>76</v>
       </c>
       <c r="D36" s="33" t="s">
+        <v>666</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>669</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>668</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>671</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>670</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>97</v>
@@ -8072,13 +8307,13 @@
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="33" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>97</v>
@@ -8097,13 +8332,13 @@
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="33" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>97</v>
@@ -8122,13 +8357,13 @@
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>97</v>
@@ -8147,13 +8382,13 @@
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>97</v>
@@ -8172,13 +8407,13 @@
       </c>
       <c r="C42" s="47"/>
       <c r="D42" s="33" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E42" s="65" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>97</v>
@@ -8197,13 +8432,13 @@
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="33" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>97</v>
@@ -8222,13 +8457,13 @@
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="33" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>97</v>
@@ -8332,13 +8567,13 @@
         <v>50</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>97</v>
@@ -8357,13 +8592,13 @@
       </c>
       <c r="C51" s="47"/>
       <c r="D51" s="33" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>97</v>
@@ -8382,13 +8617,13 @@
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="33" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E52" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="F52" s="33" t="s">
         <v>696</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>698</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>97</v>
@@ -8407,13 +8642,13 @@
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="33" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>97</v>
@@ -8432,13 +8667,13 @@
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="33" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G54" s="33" t="s">
         <v>97</v>
@@ -8457,13 +8692,13 @@
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="33" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G55" s="33" t="s">
         <v>97</v>
@@ -8482,13 +8717,13 @@
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="33" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E56" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="F56" s="33" t="s">
         <v>709</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>711</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>97</v>
@@ -8507,13 +8742,13 @@
       </c>
       <c r="C57" s="47"/>
       <c r="D57" s="33" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G57" s="33" t="s">
         <v>97</v>
@@ -8918,7 +9153,7 @@
         <v>96</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>584</v>
@@ -9058,7 +9293,7 @@
         <v>590</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F83" s="33" t="s">
         <v>558</v>
@@ -9082,10 +9317,10 @@
         <v>100</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>591</v>
+        <v>763</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>596</v>
+        <v>764</v>
       </c>
       <c r="F84" s="33" t="s">
         <v>558</v>
@@ -9109,10 +9344,10 @@
         <v>100</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>596</v>
+        <v>764</v>
       </c>
       <c r="F85" s="33" t="s">
         <v>558</v>
@@ -9130,16 +9365,16 @@
     </row>
     <row r="86" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="46" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C86" s="47">
         <v>101</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F86" s="33" t="s">
         <v>558</v>
@@ -9201,10 +9436,10 @@
       </c>
       <c r="C89" s="46"/>
       <c r="D89" s="33" t="s">
-        <v>325</v>
+        <v>765</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>335</v>
+        <v>766</v>
       </c>
       <c r="F89" s="33" t="s">
         <v>327</v>
@@ -9276,10 +9511,10 @@
       </c>
       <c r="C92" s="46"/>
       <c r="D92" s="33" t="s">
-        <v>329</v>
+        <v>767</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>337</v>
+        <v>768</v>
       </c>
       <c r="F92" s="33" t="s">
         <v>296</v>
@@ -9354,13 +9589,13 @@
       </c>
       <c r="C96" s="46"/>
       <c r="D96" s="33" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G96" s="33" t="s">
         <v>97</v>
@@ -9379,13 +9614,13 @@
       </c>
       <c r="C97" s="46"/>
       <c r="D97" s="33" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G97" s="33" t="s">
         <v>97</v>
@@ -9404,13 +9639,13 @@
       </c>
       <c r="C98" s="46"/>
       <c r="D98" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G98" s="33" t="s">
         <v>97</v>
@@ -9444,13 +9679,13 @@
       </c>
       <c r="C100" s="46"/>
       <c r="D100" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="E100" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="E100" s="33" t="s">
-        <v>718</v>
-      </c>
       <c r="F100" s="33" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G100" s="33" t="s">
         <v>97</v>
@@ -9469,13 +9704,13 @@
       </c>
       <c r="C101" s="46"/>
       <c r="D101" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F101" s="33" t="s">
         <v>716</v>
-      </c>
-      <c r="E101" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="F101" s="33" t="s">
-        <v>721</v>
       </c>
       <c r="G101" s="33" t="s">
         <v>97</v>
@@ -9494,13 +9729,13 @@
       </c>
       <c r="C102" s="46"/>
       <c r="D102" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>720</v>
+        <v>779</v>
       </c>
       <c r="F102" s="33" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G102" s="33" t="s">
         <v>97</v>
@@ -9547,13 +9782,13 @@
       </c>
       <c r="C105" s="46"/>
       <c r="D105" s="46" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F105" s="33" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G105" s="33" t="s">
         <v>97</v>
@@ -9572,13 +9807,13 @@
       </c>
       <c r="C106" s="46"/>
       <c r="D106" s="33" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E106" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="F106" s="33" t="s">
         <v>723</v>
-      </c>
-      <c r="F106" s="33" t="s">
-        <v>728</v>
       </c>
       <c r="G106" s="33" t="s">
         <v>97</v>
@@ -9597,13 +9832,13 @@
       </c>
       <c r="C107" s="46"/>
       <c r="D107" s="46" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G107" s="33" t="s">
         <v>97</v>
@@ -9629,7 +9864,7 @@
       <c r="I108" s="62"/>
       <c r="J108" s="62"/>
     </row>
-    <row r="109" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B109" s="49" t="s">
         <v>366</v>
       </c>
@@ -9644,19 +9879,19 @@
       <c r="I109" s="51"/>
       <c r="J109" s="52"/>
     </row>
-    <row r="110" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B110" s="46" t="s">
         <v>367</v>
       </c>
       <c r="C110" s="46"/>
       <c r="D110" s="33" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G110" s="46" t="s">
         <v>97</v>
@@ -9669,19 +9904,19 @@
       </c>
       <c r="J110" s="46"/>
     </row>
-    <row r="111" spans="2:10" ht="89.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" ht="89.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B111" s="46" t="s">
         <v>368</v>
       </c>
       <c r="C111" s="46"/>
       <c r="D111" s="33" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G111" s="46" t="s">
         <v>97</v>
@@ -9694,19 +9929,19 @@
       </c>
       <c r="J111" s="46"/>
     </row>
-    <row r="112" spans="2:10" ht="93.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" ht="93.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B112" s="46" t="s">
         <v>375</v>
       </c>
       <c r="C112" s="46"/>
       <c r="D112" s="33" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G112" s="46" t="s">
         <v>97</v>
@@ -9719,7 +9954,7 @@
       </c>
       <c r="J112" s="46"/>
     </row>
-    <row r="113" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B113" s="49" t="s">
         <v>370</v>
       </c>
@@ -9734,19 +9969,19 @@
       <c r="I113" s="51"/>
       <c r="J113" s="52"/>
     </row>
-    <row r="114" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B114" s="46" t="s">
         <v>371</v>
       </c>
       <c r="C114" s="46"/>
       <c r="D114" s="33" t="s">
-        <v>359</v>
+        <v>724</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>420</v>
+        <v>732</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>379</v>
+        <v>726</v>
       </c>
       <c r="G114" s="33" t="s">
         <v>97</v>
@@ -9759,19 +9994,19 @@
       </c>
       <c r="J114" s="46"/>
     </row>
-    <row r="115" spans="2:10" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" ht="96" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B115" s="46" t="s">
         <v>372</v>
       </c>
       <c r="C115" s="46"/>
       <c r="D115" s="33" t="s">
-        <v>416</v>
+        <v>727</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>421</v>
+        <v>733</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>379</v>
+        <v>726</v>
       </c>
       <c r="G115" s="33" t="s">
         <v>97</v>
@@ -9784,19 +10019,19 @@
       </c>
       <c r="J115" s="46"/>
     </row>
-    <row r="116" spans="2:10" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" ht="76.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B116" s="46" t="s">
         <v>374</v>
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="33" t="s">
-        <v>360</v>
+        <v>729</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>422</v>
+        <v>734</v>
       </c>
       <c r="F116" s="33" t="s">
-        <v>380</v>
+        <v>731</v>
       </c>
       <c r="G116" s="33" t="s">
         <v>97</v>
@@ -9809,7 +10044,7 @@
       </c>
       <c r="J116" s="46"/>
     </row>
-    <row r="117" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B117" s="49" t="s">
         <v>386</v>
       </c>
@@ -9824,19 +10059,19 @@
       <c r="I117" s="51"/>
       <c r="J117" s="52"/>
     </row>
-    <row r="118" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B118" s="46" t="s">
         <v>396</v>
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="33" t="s">
-        <v>359</v>
+        <v>724</v>
       </c>
       <c r="E118" s="33" t="s">
-        <v>423</v>
+        <v>735</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>379</v>
+        <v>726</v>
       </c>
       <c r="G118" s="33" t="s">
         <v>97</v>
@@ -9849,19 +10084,19 @@
       </c>
       <c r="J118" s="46"/>
     </row>
-    <row r="119" spans="2:10" ht="71.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" ht="84.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B119" s="46" t="s">
         <v>397</v>
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="33" t="s">
-        <v>416</v>
+        <v>727</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>424</v>
+        <v>736</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>379</v>
+        <v>726</v>
       </c>
       <c r="G119" s="33" t="s">
         <v>97</v>
@@ -9874,19 +10109,19 @@
       </c>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="2:10" ht="75.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" ht="75.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B120" s="46" t="s">
         <v>398</v>
       </c>
       <c r="C120" s="46"/>
       <c r="D120" s="33" t="s">
-        <v>360</v>
+        <v>729</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>425</v>
+        <v>737</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>380</v>
+        <v>731</v>
       </c>
       <c r="G120" s="33" t="s">
         <v>97</v>
@@ -9912,7 +10147,7 @@
       <c r="I121" s="62"/>
       <c r="J121" s="62"/>
     </row>
-    <row r="122" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B122" s="49" t="s">
         <v>387</v>
       </c>
@@ -9927,19 +10162,19 @@
       <c r="I122" s="51"/>
       <c r="J122" s="52"/>
     </row>
-    <row r="123" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B123" s="46" t="s">
         <v>453</v>
       </c>
       <c r="C123" s="46"/>
       <c r="D123" s="33" t="s">
-        <v>390</v>
+        <v>752</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>428</v>
+        <v>743</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>399</v>
+        <v>738</v>
       </c>
       <c r="G123" s="33" t="s">
         <v>97</v>
@@ -9952,19 +10187,19 @@
       </c>
       <c r="J123" s="46"/>
     </row>
-    <row r="124" spans="2:10" ht="87.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" ht="87.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B124" s="46" t="s">
         <v>454</v>
       </c>
       <c r="C124" s="46"/>
       <c r="D124" s="33" t="s">
-        <v>426</v>
+        <v>754</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>427</v>
+        <v>744</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>399</v>
+        <v>738</v>
       </c>
       <c r="G124" s="33" t="s">
         <v>97</v>
@@ -9977,19 +10212,19 @@
       </c>
       <c r="J124" s="46"/>
     </row>
-    <row r="125" spans="2:10" ht="109.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" ht="109.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B125" s="46" t="s">
         <v>455</v>
       </c>
       <c r="C125" s="46"/>
       <c r="D125" s="33" t="s">
-        <v>391</v>
+        <v>753</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>429</v>
+        <v>745</v>
       </c>
       <c r="F125" s="33" t="s">
-        <v>399</v>
+        <v>738</v>
       </c>
       <c r="G125" s="33" t="s">
         <v>97</v>
@@ -10002,19 +10237,19 @@
       </c>
       <c r="J125" s="46"/>
     </row>
-    <row r="126" spans="2:10" ht="97.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" ht="97.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B126" s="46" t="s">
         <v>456</v>
       </c>
       <c r="C126" s="46"/>
       <c r="D126" s="33" t="s">
-        <v>392</v>
+        <v>755</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>430</v>
+        <v>746</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>400</v>
+        <v>739</v>
       </c>
       <c r="G126" s="33" t="s">
         <v>97</v>
@@ -10027,19 +10262,19 @@
       </c>
       <c r="J126" s="46"/>
     </row>
-    <row r="127" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B127" s="46" t="s">
         <v>457</v>
       </c>
       <c r="C127" s="46"/>
       <c r="D127" s="33" t="s">
-        <v>432</v>
+        <v>756</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>431</v>
+        <v>747</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>400</v>
+        <v>740</v>
       </c>
       <c r="G127" s="33" t="s">
         <v>97</v>
@@ -10052,19 +10287,19 @@
       </c>
       <c r="J127" s="46"/>
     </row>
-    <row r="128" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B128" s="46" t="s">
         <v>458</v>
       </c>
       <c r="C128" s="46"/>
       <c r="D128" s="33" t="s">
-        <v>393</v>
+        <v>757</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>433</v>
+        <v>748</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>400</v>
+        <v>741</v>
       </c>
       <c r="G128" s="33" t="s">
         <v>97</v>
@@ -10077,19 +10312,19 @@
       </c>
       <c r="J128" s="46"/>
     </row>
-    <row r="129" spans="2:10" ht="96" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10" ht="96" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B129" s="46" t="s">
         <v>488</v>
       </c>
       <c r="C129" s="46"/>
       <c r="D129" s="33" t="s">
-        <v>394</v>
+        <v>758</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>434</v>
+        <v>749</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>401</v>
+        <v>742</v>
       </c>
       <c r="G129" s="33" t="s">
         <v>97</v>
@@ -10102,19 +10337,19 @@
       </c>
       <c r="J129" s="46"/>
     </row>
-    <row r="130" spans="2:10" ht="109.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" ht="109.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B130" s="46" t="s">
         <v>489</v>
       </c>
       <c r="C130" s="46"/>
       <c r="D130" s="33" t="s">
-        <v>435</v>
+        <v>759</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>436</v>
+        <v>750</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>401</v>
+        <v>742</v>
       </c>
       <c r="G130" s="33" t="s">
         <v>97</v>
@@ -10127,19 +10362,19 @@
       </c>
       <c r="J130" s="46"/>
     </row>
-    <row r="131" spans="2:10" ht="114" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" ht="114" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B131" s="46" t="s">
         <v>490</v>
       </c>
       <c r="C131" s="46"/>
       <c r="D131" s="33" t="s">
-        <v>395</v>
+        <v>760</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>437</v>
+        <v>751</v>
       </c>
       <c r="F131" s="33" t="s">
-        <v>401</v>
+        <v>742</v>
       </c>
       <c r="G131" s="33" t="s">
         <v>97</v>
@@ -10152,7 +10387,7 @@
       </c>
       <c r="J131" s="46"/>
     </row>
-    <row r="132" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B132" s="49" t="s">
         <v>451</v>
       </c>
@@ -10167,19 +10402,19 @@
       <c r="I132" s="51"/>
       <c r="J132" s="52"/>
     </row>
-    <row r="133" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B133" s="46" t="s">
         <v>459</v>
       </c>
       <c r="C133" s="46"/>
       <c r="D133" s="33" t="s">
-        <v>415</v>
+        <v>769</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>445</v>
+        <v>775</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>439</v>
+        <v>761</v>
       </c>
       <c r="G133" s="33" t="s">
         <v>97</v>
@@ -10192,19 +10427,19 @@
       </c>
       <c r="J133" s="46"/>
     </row>
-    <row r="134" spans="2:10" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B134" s="46" t="s">
         <v>491</v>
       </c>
       <c r="C134" s="46"/>
       <c r="D134" s="33" t="s">
-        <v>438</v>
+        <v>770</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>447</v>
+        <v>776</v>
       </c>
       <c r="F134" s="33" t="s">
-        <v>439</v>
+        <v>761</v>
       </c>
       <c r="G134" s="33" t="s">
         <v>97</v>
@@ -10217,19 +10452,19 @@
       </c>
       <c r="J134" s="46"/>
     </row>
-    <row r="135" spans="2:10" ht="111.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" ht="130.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B135" s="46" t="s">
         <v>492</v>
       </c>
       <c r="C135" s="46"/>
       <c r="D135" s="33" t="s">
-        <v>440</v>
+        <v>771</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>448</v>
+        <v>776</v>
       </c>
       <c r="F135" s="33" t="s">
-        <v>439</v>
+        <v>761</v>
       </c>
       <c r="G135" s="33" t="s">
         <v>97</v>
@@ -10242,19 +10477,19 @@
       </c>
       <c r="J135" s="46"/>
     </row>
-    <row r="136" spans="2:10" ht="114.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10" ht="114.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B136" s="46" t="s">
         <v>493</v>
       </c>
       <c r="C136" s="46"/>
       <c r="D136" s="33" t="s">
-        <v>441</v>
+        <v>772</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>446</v>
+        <v>780</v>
       </c>
       <c r="F136" s="33" t="s">
-        <v>444</v>
+        <v>762</v>
       </c>
       <c r="G136" s="33" t="s">
         <v>97</v>
@@ -10267,19 +10502,19 @@
       </c>
       <c r="J136" s="46"/>
     </row>
-    <row r="137" spans="2:10" ht="126" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:10" ht="126" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B137" s="46" t="s">
         <v>494</v>
       </c>
       <c r="C137" s="46"/>
       <c r="D137" s="33" t="s">
-        <v>442</v>
+        <v>773</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>449</v>
+        <v>781</v>
       </c>
       <c r="F137" s="33" t="s">
-        <v>444</v>
+        <v>762</v>
       </c>
       <c r="G137" s="33" t="s">
         <v>97</v>
@@ -10292,19 +10527,19 @@
       </c>
       <c r="J137" s="46"/>
     </row>
-    <row r="138" spans="2:10" ht="120.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10" ht="120.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B138" s="46" t="s">
         <v>495</v>
       </c>
       <c r="C138" s="46"/>
       <c r="D138" s="33" t="s">
-        <v>443</v>
+        <v>774</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>450</v>
+        <v>781</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>444</v>
+        <v>762</v>
       </c>
       <c r="G138" s="33" t="s">
         <v>97</v>
@@ -10330,7 +10565,7 @@
       <c r="I139" s="62"/>
       <c r="J139" s="62"/>
     </row>
-    <row r="140" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B140" s="49" t="s">
         <v>496</v>
       </c>
@@ -10345,19 +10580,19 @@
       <c r="I140" s="51"/>
       <c r="J140" s="52"/>
     </row>
-    <row r="141" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B141" s="46" t="s">
         <v>507</v>
       </c>
       <c r="C141" s="46"/>
       <c r="D141" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="F141" s="33" t="s">
         <v>598</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>600</v>
       </c>
       <c r="G141" s="46" t="s">
         <v>97</v>
@@ -14458,22 +14693,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14492,7 +14727,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="71" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14500,7 +14735,7 @@
     </row>
     <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L13" s="71" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
@@ -26,12 +26,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Testcase Sprint 1'!$A$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="809">
   <si>
     <t>Expected results</t>
   </si>
@@ -2023,18 +2022,12 @@
     <t>Dictionary</t>
   </si>
   <si>
-    <t>Insert-dict</t>
-  </si>
-  <si>
     <t>Drop-dict</t>
   </si>
   <si>
     <t>Delete question</t>
   </si>
   <si>
-    <t>Recover question</t>
-  </si>
-  <si>
     <t>Create question</t>
   </si>
   <si>
@@ -2095,9 +2088,6 @@
     <t>put question into dict from list-save</t>
   </si>
   <si>
-    <t>Insert dict on internet from list-dict (available)</t>
-  </si>
-  <si>
     <t>drop-dict</t>
   </si>
   <si>
@@ -2108,12 +2098,6 @@
   </si>
   <si>
     <t>Delete question in list-saved</t>
-  </si>
-  <si>
-    <t>Recover question from list-deleted</t>
-  </si>
-  <si>
-    <t>Recover question from list-dict</t>
   </si>
   <si>
     <t>Uses an account  login into homepage</t>
@@ -2948,84 +2932,6 @@
 4. Confirm Deletion</t>
   </si>
   <si>
-    <t>The question was transferred to the list-unanswer. Show notification of successful recovery</t>
-  </si>
-  <si>
-    <t>The question was transferred to the list-tempsave . Show notification of successful recovery</t>
-  </si>
-  <si>
-    <t>The question was transferred to the list-tempsave. Show notification of successful recovery</t>
-  </si>
-  <si>
-    <t>The questions was transferred to the list-tempsave. Show notification of successful recovery</t>
-  </si>
-  <si>
-    <t>The question was transferred to the list-saved. Show notification of successful recovery</t>
-  </si>
-  <si>
-    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-unanswered
-1. Choose deleted list 
-2. Choose a question (do not select the check box) 
-3. Choose restore questions 
-4. Verify recovery</t>
-  </si>
-  <si>
-    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-unanswered
-1. Choose deleted list 
-2. Choose a question (checked box) 
-3. Choose restore questions 
-4. Verify recovery</t>
-  </si>
-  <si>
-    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-unanswered
-1. Choose deleted list 
-2. Choose 2 questions (checked box) 
-3. Choose restore questions 
-4. Verify recovery</t>
-  </si>
-  <si>
-    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-tempsave
-1. Choose deleted list 
-2. Choose a question (do not select the check box) 
-3. Choose restore questions 
-4. Verify recovery</t>
-  </si>
-  <si>
-    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-tempsave
-1. Choose deleted list 
-2. Choose a question (checked box) 
-3. Choose restore questions 
-4. Verify recovery</t>
-  </si>
-  <si>
-    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-tempsave
-1. Choose deleted list 
-2. Choose 2 questions (checked box) 
-3. Choose restore questions 
-4. Verify recovery</t>
-  </si>
-  <si>
-    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-saved
-1. Choose deleted list 
-2. Choose a question (do not select the check box) 
-3. Choose restore questions 
-4. Verify recovery</t>
-  </si>
-  <si>
-    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-saved
-1. Choose deleted list 
-2. Choose a question (checked box) 
-3. Choose restore questions 
-4. Verify recovery</t>
-  </si>
-  <si>
-    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-saved
-1. Choose deleted list 
-2. Choose 2 questions (checked box) 
-3. Choose restore questions 
-4. Verify recovery</t>
-  </si>
-  <si>
     <t>Restore a deleted question from the list-unanswered</t>
   </si>
   <si>
@@ -3051,12 +2957,6 @@
   </si>
   <si>
     <t>Restore multi deleted question from the list-saved</t>
-  </si>
-  <si>
-    <t>The question was transferred to the Available list. Show notification successful recovery questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The question was transferred to the Current list. Show notification successful recovery questions </t>
   </si>
   <si>
     <t>Show list 'Current'</t>
@@ -3110,24 +3010,6 @@
     <t>Restore multi question from the list 'Current'</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-Conditions: In the list of 'Delete' dictionaries available 4 records are deleted from the list of 'Available' 
-1. Choose dictionaries 
-2. Select 'Deleted' 
-3. Choose a question (no checkbox) 
-4. Choose restore questions 
-5. Verify recovery
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Conditions: In the list of 'Delete' dictionaries available 4 records are deleted from the list of 'Available' 
-1. Choose dictionaries 
-2. Select 'Deleted' 
-3. Choose a question (checked box) 
-4. Choose restore questions 
-5. Verify recovery
-</t>
-  </si>
-  <si>
     <t>Pre-Conditions: In the list of questions answered 10 records available 
 1. Select  list-saved
 2. Choose a question (checked box) 
@@ -3151,13 +3033,127 @@
 5. Confirming Add to dictionary</t>
   </si>
   <si>
+    <t>Login with account name,password incorrect</t>
+  </si>
+  <si>
+    <t>restore question</t>
+  </si>
+  <si>
+    <t>restore question from list-deleted</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-unanswered
+1. Choose deleted list 
+2. Choose a question (do not select the check box) 
+3. Choose restore questions 
+4. Verify restorey</t>
+  </si>
+  <si>
+    <t>The question was transferred to the list-unanswer. Show notification of successful restorey</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-unanswered
+1. Choose deleted list 
+2. Choose a question (checked box) 
+3. Choose restore questions 
+4. Verify restorey</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-unanswered
+1. Choose deleted list 
+2. Choose 2 questions (checked box) 
+3. Choose restore questions 
+4. Verify restorey</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-tempsave
+1. Choose deleted list 
+2. Choose a question (do not select the check box) 
+3. Choose restore questions 
+4. Verify restorey</t>
+  </si>
+  <si>
+    <t>The question was transferred to the list-tempsave . Show notification of successful restorey</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-tempsave
+1. Choose deleted list 
+2. Choose a question (checked box) 
+3. Choose restore questions 
+4. Verify restorey</t>
+  </si>
+  <si>
+    <t>The question was transferred to the list-tempsave. Show notification of successful restorey</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-tempsave
+1. Choose deleted list 
+2. Choose 2 questions (checked box) 
+3. Choose restore questions 
+4. Verify restorey</t>
+  </si>
+  <si>
+    <t>The questions was transferred to the list-tempsave. Show notification of successful restorey</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-saved
+1. Choose deleted list 
+2. Choose a question (do not select the check box) 
+3. Choose restore questions 
+4. Verify restorey</t>
+  </si>
+  <si>
+    <t>The question was transferred to the list-saved. Show notification of successful restorey</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-saved
+1. Choose deleted list 
+2. Choose a question (checked box) 
+3. Choose restore questions 
+4. Verify restorey</t>
+  </si>
+  <si>
+    <t>Pre-Conditions: In the deleted list of 4 questions were deleted from the list-saved
+1. Choose deleted list 
+2. Choose 2 questions (checked box) 
+3. Choose restore questions 
+4. Verify restorey</t>
+  </si>
+  <si>
+    <t>restore question from list-dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Conditions: In the list of 'Delete' dictionaries available 4 records are deleted from the list of 'Available' 
+1. Choose dictionaries 
+2. Select 'Deleted' 
+3. Choose a question (no checkbox) 
+4. Choose restore questions 
+5. Verify restorey
+</t>
+  </si>
+  <si>
+    <t>The question was transferred to the Available list. Show notification successful restorey questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Conditions: In the list of 'Delete' dictionaries available 4 records are deleted from the list of 'Available' 
+1. Choose dictionaries 
+2. Select 'Deleted' 
+3. Choose a question (checked box) 
+4. Choose restore questions 
+5. Verify restorey
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pre-Conditions: In the list of 'Delete' dictionaries available 4 records are deleted from the list of 'Current' 
 1. Choose dictionaries 
 2. Select 'Deleted' 
 3. Choose a question (no checkbox) 
 4. Choose restore questions 
-5. Verify recovery
+5. Verify restorey
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The question was transferred to the Current list. Show notification successful restorey questions </t>
   </si>
   <si>
     <t xml:space="preserve">Pre-Conditions: In the list of 'Delete' dictionaries available 4 records are deleted from the list of 'Current' 
@@ -3165,8 +3161,92 @@
 2. Select 'Deleted' 
 3. Choose a question (checked box) 
 4. Choose restore questions 
-5. Verify recovery
+5. Verify restorey
 </t>
+  </si>
+  <si>
+    <t>Upload-dict</t>
+  </si>
+  <si>
+    <t>Upload dict on internet from list-dict (available)</t>
+  </si>
+  <si>
+    <t>TO.05</t>
+  </si>
+  <si>
+    <t>TC.05.1</t>
+  </si>
+  <si>
+    <t>TC.05.2</t>
+  </si>
+  <si>
+    <t>TC.05.3</t>
+  </si>
+  <si>
+    <t>TC.05.4</t>
+  </si>
+  <si>
+    <t>TC.06.5</t>
+  </si>
+  <si>
+    <t>TC.06.6</t>
+  </si>
+  <si>
+    <t>TC.06.7</t>
+  </si>
+  <si>
+    <t>TC.08.2</t>
+  </si>
+  <si>
+    <t>TC.08.3</t>
+  </si>
+  <si>
+    <t>TC.08.4</t>
+  </si>
+  <si>
+    <t>TC.08.5</t>
+  </si>
+  <si>
+    <t>TC.08.6</t>
+  </si>
+  <si>
+    <t>TC.08.7</t>
+  </si>
+  <si>
+    <t>TC.08.8</t>
+  </si>
+  <si>
+    <t>TC.12.3</t>
+  </si>
+  <si>
+    <t>TC.15.3</t>
+  </si>
+  <si>
+    <t>TC.15.4</t>
+  </si>
+  <si>
+    <t>TC.16.5</t>
+  </si>
+  <si>
+    <t>TC.16.6</t>
+  </si>
+  <si>
+    <t>TC.23.4</t>
+  </si>
+  <si>
+    <t>TC.23.5</t>
+  </si>
+  <si>
+    <t>TC.23.6</t>
+  </si>
+  <si>
+    <t>TC.23.7</t>
+  </si>
+  <si>
+    <t>TC.23.8</t>
+  </si>
+  <si>
+    <t>TC.23.9</t>
   </si>
 </sst>
 </file>
@@ -5116,7 +5196,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17</c:v>
@@ -6765,13 +6845,13 @@
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C26" s="19">
         <v>1.8</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19" t="s">
@@ -6975,7 +7055,7 @@
   <dimension ref="A4:D54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7019,7 +7099,7 @@
         <v>Check login</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D6" s="43"/>
     </row>
@@ -7032,7 +7112,7 @@
         <v>Check invalid login</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>528</v>
+        <v>757</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -7044,7 +7124,9 @@
         <f>'Testcase Specification'!C20</f>
         <v>Check login session</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="33" t="s">
+        <v>547</v>
+      </c>
       <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7065,7 +7147,7 @@
         <v>Check password</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D10" s="43"/>
     </row>
@@ -7080,27 +7162,27 @@
     </row>
     <row r="12" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>125</v>
+        <v>783</v>
       </c>
       <c r="B12" s="7" t="str">
         <f>'Testcase Specification'!C32</f>
         <v>Check register</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B13" s="7" t="str">
         <f>'Testcase Specification'!C37</f>
         <v>Show notification</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D13" s="43"/>
     </row>
@@ -7115,14 +7197,14 @@
     </row>
     <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B15" s="43" t="str">
         <f>'Testcase Specification'!C46</f>
         <v>Show user profile</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D15" s="43"/>
     </row>
@@ -7137,27 +7219,27 @@
     </row>
     <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B17" s="7" t="str">
         <f>'Testcase Specification'!C49</f>
         <v>Pagging</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B18" s="7" t="str">
         <f>'Testcase Specification'!C58</f>
         <v>Content of List question</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D18" s="43"/>
     </row>
@@ -7172,27 +7254,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B20" s="43" t="str">
         <f>'Testcase Specification'!C64</f>
         <v>Check data</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B21" s="43" t="str">
         <f>'Testcase Specification'!C66</f>
         <v>Implement search</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D21" s="43"/>
     </row>
@@ -7207,14 +7289,14 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B23" s="43" t="str">
         <f>'Testcase Specification'!C69</f>
         <v>Show detail question</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D23" s="43"/>
     </row>
@@ -7229,14 +7311,14 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B25" s="43" t="str">
         <f>'Testcase Specification'!C74</f>
         <v xml:space="preserve">Send answer </v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D25" s="43"/>
     </row>
@@ -7251,14 +7333,14 @@
     </row>
     <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B27" s="43" t="str">
         <f>'Testcase Specification'!C78</f>
         <v>Save question</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D27" s="43"/>
     </row>
@@ -7273,34 +7355,34 @@
     </row>
     <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B29" s="43" t="str">
         <f>'Testcase Specification'!C82</f>
         <v>Show dict</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D29" s="43"/>
     </row>
     <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="B30" s="43" t="str">
         <f>'Testcase Specification'!C87</f>
         <v>Paging for list-dictionary</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D30" s="43"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="str">
         <f>'Testcase Specification'!B94</f>
-        <v>Insert-dict</v>
+        <v>Upload-dict</v>
       </c>
       <c r="B31" s="81"/>
       <c r="C31" s="81"/>
@@ -7308,27 +7390,27 @@
     </row>
     <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B32" s="43" t="str">
         <f>'Testcase Specification'!C95</f>
         <v>put question into dict from list-save</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D32" s="43"/>
     </row>
     <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B33" s="43" t="str">
         <f>'Testcase Specification'!C99</f>
-        <v>Insert dict on internet from list-dict (available)</v>
+        <v>Upload dict on internet from list-dict (available)</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D33" s="43"/>
     </row>
@@ -7343,14 +7425,14 @@
     </row>
     <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B35" s="43" t="str">
         <f>'Testcase Specification'!C104</f>
         <v>drop-dict</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D35" s="43"/>
     </row>
@@ -7365,14 +7447,14 @@
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B37" s="43" t="str">
         <f>'Testcase Specification'!C109</f>
         <v>Delete question in list-unanswer</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D37" s="43"/>
     </row>
@@ -7385,27 +7467,27 @@
         <v>Delete question in list-tempsave</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B39" s="43" t="str">
         <f>'Testcase Specification'!C117</f>
         <v>Delete question in list-saved</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="81" t="str">
         <f>'Testcase Specification'!B121</f>
-        <v>Recover question</v>
+        <v>restore question</v>
       </c>
       <c r="B40" s="81"/>
       <c r="C40" s="81"/>
@@ -7413,27 +7495,27 @@
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B41" s="43" t="str">
         <f>'Testcase Specification'!C122</f>
-        <v>Recover question from list-deleted</v>
+        <v>restore question from list-deleted</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D41" s="43"/>
     </row>
     <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="B42" s="43" t="str">
         <f>'Testcase Specification'!C132</f>
-        <v>Recover question from list-dict</v>
+        <v>restore question from list-dict</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D42" s="43"/>
     </row>
@@ -7448,14 +7530,14 @@
     </row>
     <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="B44" s="43" t="str">
         <f>'Testcase Specification'!C140</f>
         <v>Create question</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D44" s="43"/>
     </row>
@@ -7527,14 +7609,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A26:D26"/>
@@ -7545,6 +7619,14 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7559,8 +7641,8 @@
   </sheetPr>
   <dimension ref="A2:J149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -7598,7 +7680,7 @@
       <c r="C3" s="83"/>
       <c r="D3" s="55">
         <f>SUM(D5:D6)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="64"/>
     </row>
@@ -7610,7 +7692,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="55">
         <f>D2-D3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7621,7 +7703,7 @@
       <c r="C5" s="84"/>
       <c r="D5" s="55">
         <f>COUNTIF(H12:H149,"Passed")</f>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7654,7 +7736,7 @@
       <c r="C8" s="85"/>
       <c r="D8" s="56">
         <f>1-(D4/D2)</f>
-        <v>0.96703296703296704</v>
+        <v>0.97802197802197799</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -7699,12 +7781,12 @@
       <c r="I11" s="54"/>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
@@ -7714,7 +7796,7 @@
       <c r="I12" s="51"/>
       <c r="J12" s="52"/>
     </row>
-    <row r="13" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>95</v>
       </c>
@@ -7722,13 +7804,13 @@
         <v>44</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>97</v>
@@ -7741,12 +7823,12 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
@@ -7756,7 +7838,7 @@
       <c r="I14" s="51"/>
       <c r="J14" s="52"/>
     </row>
-    <row r="15" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
         <v>234</v>
       </c>
@@ -7764,13 +7846,13 @@
         <v>60</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G15" s="46" t="s">
         <v>97</v>
@@ -7782,10 +7864,10 @@
         <v>16</v>
       </c>
       <c r="J15" s="75" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B16" s="46" t="s">
         <v>235</v>
       </c>
@@ -7793,13 +7875,13 @@
         <v>61</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G16" s="46" t="s">
         <v>97</v>
@@ -7812,7 +7894,7 @@
       </c>
       <c r="J16" s="76"/>
     </row>
-    <row r="17" spans="2:10" ht="75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
         <v>236</v>
       </c>
@@ -7820,13 +7902,13 @@
         <v>62</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>97</v>
@@ -7839,7 +7921,7 @@
       </c>
       <c r="J17" s="76"/>
     </row>
-    <row r="18" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
         <v>237</v>
       </c>
@@ -7847,13 +7929,13 @@
         <v>63</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>97</v>
@@ -7866,7 +7948,7 @@
       </c>
       <c r="J18" s="76"/>
     </row>
-    <row r="19" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
         <v>238</v>
       </c>
@@ -7874,13 +7956,13 @@
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>97</v>
@@ -7893,12 +7975,12 @@
       </c>
       <c r="J19" s="47"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="49" t="s">
         <v>90</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="51"/>
@@ -7908,7 +7990,7 @@
       <c r="I20" s="51"/>
       <c r="J20" s="52"/>
     </row>
-    <row r="21" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B21" s="46" t="s">
         <v>99</v>
       </c>
@@ -7916,18 +7998,20 @@
         <v>47</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G21" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="41"/>
+      <c r="H21" s="41" t="s">
+        <v>120</v>
+      </c>
       <c r="I21" s="33" t="s">
         <v>123</v>
       </c>
@@ -7946,12 +8030,12 @@
       <c r="I22" s="54"/>
       <c r="J22" s="54"/>
     </row>
-    <row r="23" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="49" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
@@ -7961,7 +8045,7 @@
       <c r="I23" s="51"/>
       <c r="J23" s="52"/>
     </row>
-    <row r="24" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
         <v>112</v>
       </c>
@@ -7969,13 +8053,13 @@
         <v>65</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>97</v>
@@ -7988,7 +8072,7 @@
       </c>
       <c r="J24" s="46"/>
     </row>
-    <row r="25" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="s">
         <v>204</v>
       </c>
@@ -7996,13 +8080,13 @@
         <v>66</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>97</v>
@@ -8015,7 +8099,7 @@
       </c>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="46" t="s">
         <v>205</v>
       </c>
@@ -8023,13 +8107,13 @@
         <v>67</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>97</v>
@@ -8042,7 +8126,7 @@
       </c>
       <c r="J26" s="46"/>
     </row>
-    <row r="27" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B27" s="46" t="s">
         <v>214</v>
       </c>
@@ -8050,13 +8134,13 @@
         <v>71</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>97</v>
@@ -8069,7 +8153,7 @@
       </c>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="2:10" ht="57.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="57.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
         <v>245</v>
       </c>
@@ -8077,10 +8161,10 @@
         <v>68</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>250</v>
@@ -8096,7 +8180,7 @@
       </c>
       <c r="J28" s="46"/>
     </row>
-    <row r="29" spans="2:10" ht="57.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="57.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="46" t="s">
         <v>246</v>
       </c>
@@ -8104,13 +8188,13 @@
         <v>69</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -8123,7 +8207,7 @@
       </c>
       <c r="J29" s="46"/>
     </row>
-    <row r="30" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
         <v>247</v>
       </c>
@@ -8131,13 +8215,13 @@
         <v>70</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>97</v>
@@ -8163,12 +8247,12 @@
       <c r="I31" s="54"/>
       <c r="J31" s="54"/>
     </row>
-    <row r="32" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="49" t="s">
-        <v>125</v>
+        <v>783</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
@@ -8178,21 +8262,21 @@
       <c r="I32" s="51"/>
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="2:10" ht="103.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="103.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B33" s="46" t="s">
-        <v>131</v>
+        <v>784</v>
       </c>
       <c r="C33" s="47">
         <v>73</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>97</v>
@@ -8205,21 +8289,21 @@
       </c>
       <c r="J33" s="46"/>
     </row>
-    <row r="34" spans="2:10" ht="100.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="100.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B34" s="46" t="s">
-        <v>270</v>
+        <v>785</v>
       </c>
       <c r="C34" s="47">
         <v>74</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>97</v>
@@ -8232,21 +8316,21 @@
       </c>
       <c r="J34" s="46"/>
     </row>
-    <row r="35" spans="2:10" ht="101.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="101.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>271</v>
+        <v>786</v>
       </c>
       <c r="C35" s="47">
         <v>75</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>97</v>
@@ -8259,21 +8343,21 @@
       </c>
       <c r="J35" s="46"/>
     </row>
-    <row r="36" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>272</v>
+        <v>787</v>
       </c>
       <c r="C36" s="47">
         <v>76</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E36" s="66" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>97</v>
@@ -8286,12 +8370,12 @@
       </c>
       <c r="J36" s="46"/>
     </row>
-    <row r="37" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="49" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
@@ -8301,19 +8385,19 @@
       <c r="I37" s="51"/>
       <c r="J37" s="52"/>
     </row>
-    <row r="38" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B38" s="46" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="33" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>97</v>
@@ -8326,19 +8410,19 @@
       </c>
       <c r="J38" s="46"/>
     </row>
-    <row r="39" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B39" s="46" t="s">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="33" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>97</v>
@@ -8351,19 +8435,19 @@
       </c>
       <c r="J39" s="46"/>
     </row>
-    <row r="40" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="90" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="46" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="33" t="s">
+        <v>677</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="F40" s="33" t="s">
         <v>682</v>
-      </c>
-      <c r="E40" s="65" t="s">
-        <v>675</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>687</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>97</v>
@@ -8376,19 +8460,19 @@
       </c>
       <c r="J40" s="46"/>
     </row>
-    <row r="41" spans="2:10" ht="94.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="94.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="46" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="F41" s="33" t="s">
         <v>683</v>
-      </c>
-      <c r="E41" s="65" t="s">
-        <v>676</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>688</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>97</v>
@@ -8401,19 +8485,19 @@
       </c>
       <c r="J41" s="46"/>
     </row>
-    <row r="42" spans="2:10" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>281</v>
+        <v>788</v>
       </c>
       <c r="C42" s="47"/>
       <c r="D42" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>672</v>
+      </c>
+      <c r="F42" s="33" t="s">
         <v>684</v>
-      </c>
-      <c r="E42" s="65" t="s">
-        <v>677</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>689</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>97</v>
@@ -8426,19 +8510,19 @@
       </c>
       <c r="J42" s="46"/>
     </row>
-    <row r="43" spans="2:10" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="46" t="s">
-        <v>462</v>
+        <v>789</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="33" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>97</v>
@@ -8451,19 +8535,19 @@
       </c>
       <c r="J43" s="46"/>
     </row>
-    <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>466</v>
+        <v>790</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="33" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>97</v>
@@ -8489,12 +8573,12 @@
       <c r="I45" s="54"/>
       <c r="J45" s="54"/>
     </row>
-    <row r="46" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="49" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="51"/>
@@ -8504,21 +8588,21 @@
       <c r="I46" s="51"/>
       <c r="J46" s="52"/>
     </row>
-    <row r="47" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B47" s="46" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C47" s="47">
         <v>85</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G47" s="46" t="s">
         <v>97</v>
@@ -8544,12 +8628,12 @@
       <c r="I48" s="54"/>
       <c r="J48" s="54"/>
     </row>
-    <row r="49" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="49" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C49" s="77" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="51"/>
@@ -8559,21 +8643,21 @@
       <c r="I49" s="51"/>
       <c r="J49" s="52"/>
     </row>
-    <row r="50" spans="2:10" ht="103.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" ht="103.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B50" s="46" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C50" s="47">
         <v>50</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>97</v>
@@ -8586,19 +8670,19 @@
       </c>
       <c r="J50" s="46"/>
     </row>
-    <row r="51" spans="2:10" ht="111.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" ht="111.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B51" s="46" t="s">
-        <v>159</v>
+        <v>791</v>
       </c>
       <c r="C51" s="47"/>
       <c r="D51" s="33" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>97</v>
@@ -8611,19 +8695,19 @@
       </c>
       <c r="J51" s="46"/>
     </row>
-    <row r="52" spans="2:10" ht="121.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" ht="121.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B52" s="46" t="s">
-        <v>291</v>
+        <v>792</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="33" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>97</v>
@@ -8636,19 +8720,19 @@
       </c>
       <c r="J52" s="46"/>
     </row>
-    <row r="53" spans="2:10" ht="93.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" ht="93.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="46" t="s">
-        <v>315</v>
+        <v>793</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="33" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>97</v>
@@ -8661,19 +8745,19 @@
       </c>
       <c r="J53" s="46"/>
     </row>
-    <row r="54" spans="2:10" ht="159" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" ht="159" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="46" t="s">
-        <v>316</v>
+        <v>794</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="33" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G54" s="33" t="s">
         <v>97</v>
@@ -8686,19 +8770,19 @@
       </c>
       <c r="J54" s="46"/>
     </row>
-    <row r="55" spans="2:10" ht="165" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" ht="165" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="46" t="s">
-        <v>317</v>
+        <v>795</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="33" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G55" s="33" t="s">
         <v>97</v>
@@ -8711,19 +8795,19 @@
       </c>
       <c r="J55" s="46"/>
     </row>
-    <row r="56" spans="2:10" ht="168" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" ht="168" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B56" s="46" t="s">
-        <v>318</v>
+        <v>796</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="33" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>97</v>
@@ -8736,19 +8820,19 @@
       </c>
       <c r="J56" s="46"/>
     </row>
-    <row r="57" spans="2:10" ht="144.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" ht="144.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" s="46" t="s">
-        <v>319</v>
+        <v>797</v>
       </c>
       <c r="C57" s="47"/>
       <c r="D57" s="33" t="s">
+        <v>699</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>703</v>
+      </c>
+      <c r="F57" s="33" t="s">
         <v>704</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>709</v>
       </c>
       <c r="G57" s="33" t="s">
         <v>97</v>
@@ -8761,12 +8845,12 @@
       </c>
       <c r="J57" s="46"/>
     </row>
-    <row r="58" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B58" s="49" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C58" s="61" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="51"/>
@@ -8776,21 +8860,21 @@
       <c r="I58" s="51"/>
       <c r="J58" s="52"/>
     </row>
-    <row r="59" spans="2:10" ht="123.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" ht="123.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B59" s="46" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C59" s="47">
         <v>51</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G59" s="46" t="s">
         <v>97</v>
@@ -8803,21 +8887,21 @@
       </c>
       <c r="J59" s="46"/>
     </row>
-    <row r="60" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B60" s="46" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C60" s="47">
         <v>52</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G60" s="46" t="s">
         <v>97</v>
@@ -8830,21 +8914,21 @@
       </c>
       <c r="J60" s="46"/>
     </row>
-    <row r="61" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B61" s="46" t="s">
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="C61" s="47">
         <v>53</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G61" s="46" t="s">
         <v>97</v>
@@ -8857,21 +8941,21 @@
       </c>
       <c r="J61" s="46"/>
     </row>
-    <row r="62" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B62" s="46" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C62" s="47">
         <v>93</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G62" s="46" t="s">
         <v>97</v>
@@ -8897,12 +8981,12 @@
       <c r="I63" s="54"/>
       <c r="J63" s="54"/>
     </row>
-    <row r="64" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B64" s="49" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C64" s="61" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="51"/>
@@ -8912,21 +8996,21 @@
       <c r="I64" s="51"/>
       <c r="J64" s="52"/>
     </row>
-    <row r="65" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B65" s="46" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C65" s="47">
         <v>54</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F65" s="63" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G65" s="46" t="s">
         <v>97</v>
@@ -8939,12 +9023,12 @@
       </c>
       <c r="J65" s="46"/>
     </row>
-    <row r="66" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="49" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C66" s="61" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D66" s="51"/>
       <c r="E66" s="51"/>
@@ -8954,21 +9038,21 @@
       <c r="I66" s="51"/>
       <c r="J66" s="52"/>
     </row>
-    <row r="67" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B67" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C67" s="47">
         <v>55</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G67" s="46" t="s">
         <v>97</v>
@@ -8994,12 +9078,12 @@
       <c r="I68" s="62"/>
       <c r="J68" s="62"/>
     </row>
-    <row r="69" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" s="49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C69" s="61" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D69" s="51"/>
       <c r="E69" s="51"/>
@@ -9009,21 +9093,21 @@
       <c r="I69" s="51"/>
       <c r="J69" s="52"/>
     </row>
-    <row r="70" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B70" s="46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C70" s="47">
         <v>57</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G70" s="46" t="s">
         <v>97</v>
@@ -9036,21 +9120,21 @@
       </c>
       <c r="J70" s="46"/>
     </row>
-    <row r="71" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B71" s="46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C71" s="47">
         <v>58</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G71" s="46" t="s">
         <v>97</v>
@@ -9063,21 +9147,21 @@
       </c>
       <c r="J71" s="46"/>
     </row>
-    <row r="72" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B72" s="46" t="s">
-        <v>196</v>
+        <v>798</v>
       </c>
       <c r="C72" s="47">
         <v>59</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G72" s="46" t="s">
         <v>97</v>
@@ -9103,12 +9187,12 @@
       <c r="I73" s="62"/>
       <c r="J73" s="62"/>
     </row>
-    <row r="74" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B74" s="49" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C74" s="61" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D74" s="51"/>
       <c r="E74" s="51"/>
@@ -9118,21 +9202,21 @@
       <c r="I74" s="51"/>
       <c r="J74" s="52"/>
     </row>
-    <row r="75" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B75" s="46" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C75" s="47">
         <v>95</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G75" s="46" t="s">
         <v>97</v>
@@ -9145,21 +9229,21 @@
       </c>
       <c r="J75" s="46"/>
     </row>
-    <row r="76" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B76" s="46" t="s">
-        <v>471</v>
+        <v>195</v>
       </c>
       <c r="C76" s="47">
         <v>96</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G76" s="46" t="s">
         <v>97</v>
@@ -9185,9 +9269,9 @@
       <c r="I77" s="62"/>
       <c r="J77" s="62"/>
     </row>
-    <row r="78" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B78" s="49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C78" s="61" t="s">
         <v>516</v>
@@ -9200,21 +9284,21 @@
       <c r="I78" s="51"/>
       <c r="J78" s="52"/>
     </row>
-    <row r="79" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B79" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C79" s="47">
         <v>97</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G79" s="46" t="s">
         <v>97</v>
@@ -9227,21 +9311,21 @@
       </c>
       <c r="J79" s="46"/>
     </row>
-    <row r="80" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B80" s="46" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C80" s="47">
         <v>98</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F80" s="63" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G80" s="46" t="s">
         <v>97</v>
@@ -9267,12 +9351,12 @@
       <c r="I81" s="62"/>
       <c r="J81" s="62"/>
     </row>
-    <row r="82" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B82" s="49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D82" s="51"/>
       <c r="E82" s="51"/>
@@ -9282,21 +9366,21 @@
       <c r="I82" s="51"/>
       <c r="J82" s="52"/>
     </row>
-    <row r="83" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B83" s="46" t="s">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c r="C83" s="47">
         <v>99</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G83" s="46" t="s">
         <v>97</v>
@@ -9309,21 +9393,21 @@
       </c>
       <c r="J83" s="46"/>
     </row>
-    <row r="84" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B84" s="46" t="s">
-        <v>308</v>
+        <v>473</v>
       </c>
       <c r="C84" s="47">
         <v>100</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G84" s="46" t="s">
         <v>97</v>
@@ -9336,21 +9420,21 @@
       </c>
       <c r="J84" s="46"/>
     </row>
-    <row r="85" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" s="46" t="s">
-        <v>309</v>
+        <v>799</v>
       </c>
       <c r="C85" s="47">
         <v>100</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G85" s="46" t="s">
         <v>97</v>
@@ -9363,21 +9447,21 @@
       </c>
       <c r="J85" s="46"/>
     </row>
-    <row r="86" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="46" t="s">
-        <v>592</v>
+        <v>800</v>
       </c>
       <c r="C86" s="47">
         <v>101</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G86" s="46" t="s">
         <v>97</v>
@@ -9390,12 +9474,12 @@
       </c>
       <c r="J86" s="46"/>
     </row>
-    <row r="87" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B87" s="49" t="s">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="C87" s="61" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D87" s="51"/>
       <c r="E87" s="51"/>
@@ -9405,9 +9489,9 @@
       <c r="I87" s="51"/>
       <c r="J87" s="52"/>
     </row>
-    <row r="88" spans="2:10" ht="134.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" ht="134.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B88" s="46" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="C88" s="33"/>
       <c r="D88" s="33" t="s">
@@ -9430,16 +9514,16 @@
       </c>
       <c r="J88" s="46"/>
     </row>
-    <row r="89" spans="2:10" ht="107.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" ht="107.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B89" s="46" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="C89" s="46"/>
       <c r="D89" s="33" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="F89" s="33" t="s">
         <v>327</v>
@@ -9455,9 +9539,9 @@
       </c>
       <c r="J89" s="46"/>
     </row>
-    <row r="90" spans="2:10" ht="105.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" ht="105.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B90" s="46" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="C90" s="46"/>
       <c r="D90" s="33" t="s">
@@ -9480,9 +9564,9 @@
       </c>
       <c r="J90" s="46"/>
     </row>
-    <row r="91" spans="2:10" ht="176.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" ht="176.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="46" t="s">
-        <v>342</v>
+        <v>587</v>
       </c>
       <c r="C91" s="46"/>
       <c r="D91" s="33" t="s">
@@ -9505,16 +9589,16 @@
       </c>
       <c r="J91" s="46"/>
     </row>
-    <row r="92" spans="2:10" ht="165.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" ht="165.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="46" t="s">
-        <v>343</v>
+        <v>801</v>
       </c>
       <c r="C92" s="46"/>
       <c r="D92" s="33" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="F92" s="33" t="s">
         <v>296</v>
@@ -9530,9 +9614,9 @@
       </c>
       <c r="J92" s="46"/>
     </row>
-    <row r="93" spans="2:10" ht="167.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" ht="167.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="46" t="s">
-        <v>344</v>
+        <v>802</v>
       </c>
       <c r="C93" s="46"/>
       <c r="D93" s="33" t="s">
@@ -9557,7 +9641,7 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="62" t="s">
-        <v>518</v>
+        <v>781</v>
       </c>
       <c r="C94" s="62"/>
       <c r="D94" s="62"/>
@@ -9568,12 +9652,12 @@
       <c r="I94" s="62"/>
       <c r="J94" s="62"/>
     </row>
-    <row r="95" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B95" s="49" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C95" s="61" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D95" s="51"/>
       <c r="E95" s="51"/>
@@ -9583,19 +9667,19 @@
       <c r="I95" s="51"/>
       <c r="J95" s="52"/>
     </row>
-    <row r="96" spans="2:10" ht="98.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" ht="98.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B96" s="46" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C96" s="46"/>
       <c r="D96" s="33" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G96" s="33" t="s">
         <v>97</v>
@@ -9608,19 +9692,19 @@
       </c>
       <c r="J96" s="46"/>
     </row>
-    <row r="97" spans="2:10" ht="122.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" ht="122.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B97" s="46" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C97" s="46"/>
       <c r="D97" s="33" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G97" s="33" t="s">
         <v>97</v>
@@ -9633,19 +9717,19 @@
       </c>
       <c r="J97" s="46"/>
     </row>
-    <row r="98" spans="2:10" ht="97.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" ht="97.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B98" s="46" t="s">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="C98" s="46"/>
       <c r="D98" s="33" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G98" s="33" t="s">
         <v>97</v>
@@ -9658,12 +9742,12 @@
       </c>
       <c r="J98" s="46"/>
     </row>
-    <row r="99" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B99" s="49" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C99" s="61" t="s">
-        <v>542</v>
+        <v>782</v>
       </c>
       <c r="D99" s="51"/>
       <c r="E99" s="51"/>
@@ -9673,19 +9757,19 @@
       <c r="I99" s="51"/>
       <c r="J99" s="52"/>
     </row>
-    <row r="100" spans="2:10" ht="111" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" ht="111" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B100" s="46" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C100" s="46"/>
       <c r="D100" s="33" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G100" s="33" t="s">
         <v>97</v>
@@ -9698,19 +9782,19 @@
       </c>
       <c r="J100" s="46"/>
     </row>
-    <row r="101" spans="2:10" ht="115.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" ht="115.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B101" s="46" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C101" s="46"/>
       <c r="D101" s="33" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="F101" s="33" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G101" s="33" t="s">
         <v>97</v>
@@ -9723,19 +9807,19 @@
       </c>
       <c r="J101" s="46"/>
     </row>
-    <row r="102" spans="2:10" ht="125.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" ht="125.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" s="46" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="C102" s="46"/>
       <c r="D102" s="33" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="F102" s="33" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G102" s="33" t="s">
         <v>97</v>
@@ -9750,7 +9834,7 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="62" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C103" s="62"/>
       <c r="D103" s="62"/>
@@ -9761,12 +9845,12 @@
       <c r="I103" s="62"/>
       <c r="J103" s="62"/>
     </row>
-    <row r="104" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B104" s="49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C104" s="61" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D104" s="51"/>
       <c r="E104" s="51"/>
@@ -9776,19 +9860,19 @@
       <c r="I104" s="51"/>
       <c r="J104" s="52"/>
     </row>
-    <row r="105" spans="2:10" ht="106.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" ht="106.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B105" s="46" t="s">
-        <v>485</v>
+        <v>353</v>
       </c>
       <c r="C105" s="46"/>
       <c r="D105" s="46" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F105" s="33" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G105" s="33" t="s">
         <v>97</v>
@@ -9801,19 +9885,19 @@
       </c>
       <c r="J105" s="46"/>
     </row>
-    <row r="106" spans="2:10" ht="145.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" ht="145.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B106" s="46" t="s">
-        <v>486</v>
+        <v>354</v>
       </c>
       <c r="C106" s="46"/>
       <c r="D106" s="33" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E106" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="F106" s="33" t="s">
         <v>718</v>
-      </c>
-      <c r="F106" s="33" t="s">
-        <v>723</v>
       </c>
       <c r="G106" s="33" t="s">
         <v>97</v>
@@ -9826,19 +9910,19 @@
       </c>
       <c r="J106" s="46"/>
     </row>
-    <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B107" s="46" t="s">
-        <v>487</v>
+        <v>404</v>
       </c>
       <c r="C107" s="46"/>
       <c r="D107" s="46" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G107" s="33" t="s">
         <v>97</v>
@@ -9853,7 +9937,7 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="62" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C108" s="62"/>
       <c r="D108" s="62"/>
@@ -9864,12 +9948,12 @@
       <c r="I108" s="62"/>
       <c r="J108" s="62"/>
     </row>
-    <row r="109" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B109" s="49" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C109" s="61" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D109" s="51"/>
       <c r="E109" s="51"/>
@@ -9879,19 +9963,19 @@
       <c r="I109" s="51"/>
       <c r="J109" s="52"/>
     </row>
-    <row r="110" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B110" s="46" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C110" s="46"/>
       <c r="D110" s="33" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G110" s="46" t="s">
         <v>97</v>
@@ -9904,19 +9988,19 @@
       </c>
       <c r="J110" s="46"/>
     </row>
-    <row r="111" spans="2:10" ht="89.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" ht="89.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B111" s="46" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C111" s="46"/>
       <c r="D111" s="33" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G111" s="46" t="s">
         <v>97</v>
@@ -9929,19 +10013,19 @@
       </c>
       <c r="J111" s="46"/>
     </row>
-    <row r="112" spans="2:10" ht="93.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" ht="93.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B112" s="46" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C112" s="46"/>
       <c r="D112" s="33" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G112" s="46" t="s">
         <v>97</v>
@@ -9954,12 +10038,12 @@
       </c>
       <c r="J112" s="46"/>
     </row>
-    <row r="113" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B113" s="49" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C113" s="61" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D113" s="51"/>
       <c r="E113" s="51"/>
@@ -9969,19 +10053,19 @@
       <c r="I113" s="51"/>
       <c r="J113" s="52"/>
     </row>
-    <row r="114" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B114" s="46" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C114" s="46"/>
       <c r="D114" s="33" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G114" s="33" t="s">
         <v>97</v>
@@ -9994,19 +10078,19 @@
       </c>
       <c r="J114" s="46"/>
     </row>
-    <row r="115" spans="2:10" ht="96" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" ht="96" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B115" s="46" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C115" s="46"/>
       <c r="D115" s="33" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G115" s="33" t="s">
         <v>97</v>
@@ -10019,19 +10103,19 @@
       </c>
       <c r="J115" s="46"/>
     </row>
-    <row r="116" spans="2:10" ht="76.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" ht="76.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B116" s="46" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="33" t="s">
+        <v>724</v>
+      </c>
+      <c r="E116" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="E116" s="33" t="s">
-        <v>734</v>
-      </c>
       <c r="F116" s="33" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G116" s="33" t="s">
         <v>97</v>
@@ -10044,12 +10128,12 @@
       </c>
       <c r="J116" s="46"/>
     </row>
-    <row r="117" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="49" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C117" s="61" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D117" s="51"/>
       <c r="E117" s="51"/>
@@ -10059,19 +10143,19 @@
       <c r="I117" s="51"/>
       <c r="J117" s="52"/>
     </row>
-    <row r="118" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B118" s="46" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="33" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E118" s="33" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G118" s="33" t="s">
         <v>97</v>
@@ -10084,19 +10168,19 @@
       </c>
       <c r="J118" s="46"/>
     </row>
-    <row r="119" spans="2:10" ht="84.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" ht="84.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B119" s="46" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="33" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G119" s="33" t="s">
         <v>97</v>
@@ -10109,19 +10193,19 @@
       </c>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="2:10" ht="75.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" ht="75.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B120" s="46" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="C120" s="46"/>
       <c r="D120" s="33" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G120" s="33" t="s">
         <v>97</v>
@@ -10136,7 +10220,7 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="62" t="s">
-        <v>521</v>
+        <v>758</v>
       </c>
       <c r="C121" s="62"/>
       <c r="D121" s="62"/>
@@ -10147,12 +10231,12 @@
       <c r="I121" s="62"/>
       <c r="J121" s="62"/>
     </row>
-    <row r="122" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B122" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C122" s="61" t="s">
-        <v>547</v>
+        <v>759</v>
       </c>
       <c r="D122" s="51"/>
       <c r="E122" s="51"/>
@@ -10162,19 +10246,19 @@
       <c r="I122" s="51"/>
       <c r="J122" s="52"/>
     </row>
-    <row r="123" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B123" s="46" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="C123" s="46"/>
       <c r="D123" s="33" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="G123" s="33" t="s">
         <v>97</v>
@@ -10187,19 +10271,19 @@
       </c>
       <c r="J123" s="46"/>
     </row>
-    <row r="124" spans="2:10" ht="87.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" ht="87.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B124" s="46" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="C124" s="46"/>
       <c r="D124" s="33" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="G124" s="33" t="s">
         <v>97</v>
@@ -10212,19 +10296,19 @@
       </c>
       <c r="J124" s="46"/>
     </row>
-    <row r="125" spans="2:10" ht="109.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" ht="109.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B125" s="46" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="C125" s="46"/>
       <c r="D125" s="33" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="F125" s="33" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="G125" s="33" t="s">
         <v>97</v>
@@ -10237,19 +10321,19 @@
       </c>
       <c r="J125" s="46"/>
     </row>
-    <row r="126" spans="2:10" ht="97.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" ht="97.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B126" s="46" t="s">
-        <v>456</v>
+        <v>803</v>
       </c>
       <c r="C126" s="46"/>
       <c r="D126" s="33" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="G126" s="33" t="s">
         <v>97</v>
@@ -10262,19 +10346,19 @@
       </c>
       <c r="J126" s="46"/>
     </row>
-    <row r="127" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B127" s="46" t="s">
-        <v>457</v>
+        <v>804</v>
       </c>
       <c r="C127" s="46"/>
       <c r="D127" s="33" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="G127" s="33" t="s">
         <v>97</v>
@@ -10287,19 +10371,19 @@
       </c>
       <c r="J127" s="46"/>
     </row>
-    <row r="128" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B128" s="46" t="s">
-        <v>458</v>
+        <v>805</v>
       </c>
       <c r="C128" s="46"/>
       <c r="D128" s="33" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="G128" s="33" t="s">
         <v>97</v>
@@ -10312,19 +10396,19 @@
       </c>
       <c r="J128" s="46"/>
     </row>
-    <row r="129" spans="2:10" ht="96" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10" ht="96" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B129" s="46" t="s">
-        <v>488</v>
+        <v>806</v>
       </c>
       <c r="C129" s="46"/>
       <c r="D129" s="33" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="G129" s="33" t="s">
         <v>97</v>
@@ -10337,19 +10421,19 @@
       </c>
       <c r="J129" s="46"/>
     </row>
-    <row r="130" spans="2:10" ht="109.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" ht="109.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B130" s="46" t="s">
-        <v>489</v>
+        <v>807</v>
       </c>
       <c r="C130" s="46"/>
       <c r="D130" s="33" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="G130" s="33" t="s">
         <v>97</v>
@@ -10362,19 +10446,19 @@
       </c>
       <c r="J130" s="46"/>
     </row>
-    <row r="131" spans="2:10" ht="114" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" ht="114" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B131" s="46" t="s">
-        <v>490</v>
+        <v>808</v>
       </c>
       <c r="C131" s="46"/>
       <c r="D131" s="33" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="F131" s="33" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="G131" s="33" t="s">
         <v>97</v>
@@ -10387,12 +10471,12 @@
       </c>
       <c r="J131" s="46"/>
     </row>
-    <row r="132" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B132" s="49" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="C132" s="61" t="s">
-        <v>548</v>
+        <v>774</v>
       </c>
       <c r="D132" s="51"/>
       <c r="E132" s="51"/>
@@ -10402,19 +10486,19 @@
       <c r="I132" s="51"/>
       <c r="J132" s="52"/>
     </row>
-    <row r="133" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B133" s="46" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C133" s="46"/>
       <c r="D133" s="33" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="E133" s="33" t="s">
         <v>775</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="G133" s="33" t="s">
         <v>97</v>
@@ -10427,19 +10511,19 @@
       </c>
       <c r="J133" s="46"/>
     </row>
-    <row r="134" spans="2:10" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B134" s="46" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="C134" s="46"/>
       <c r="D134" s="33" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="E134" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="F134" s="33" t="s">
         <v>776</v>
-      </c>
-      <c r="F134" s="33" t="s">
-        <v>761</v>
       </c>
       <c r="G134" s="33" t="s">
         <v>97</v>
@@ -10452,19 +10536,19 @@
       </c>
       <c r="J134" s="46"/>
     </row>
-    <row r="135" spans="2:10" ht="130.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" ht="130.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B135" s="46" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="C135" s="46"/>
       <c r="D135" s="33" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="E135" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="F135" s="33" t="s">
         <v>776</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>761</v>
       </c>
       <c r="G135" s="33" t="s">
         <v>97</v>
@@ -10477,19 +10561,19 @@
       </c>
       <c r="J135" s="46"/>
     </row>
-    <row r="136" spans="2:10" ht="114.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:10" ht="114.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B136" s="46" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="C136" s="46"/>
       <c r="D136" s="33" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F136" s="33" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="G136" s="33" t="s">
         <v>97</v>
@@ -10502,19 +10586,19 @@
       </c>
       <c r="J136" s="46"/>
     </row>
-    <row r="137" spans="2:10" ht="126" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:10" ht="126" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B137" s="46" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="C137" s="46"/>
       <c r="D137" s="33" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F137" s="33" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="G137" s="33" t="s">
         <v>97</v>
@@ -10527,19 +10611,19 @@
       </c>
       <c r="J137" s="46"/>
     </row>
-    <row r="138" spans="2:10" ht="120.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:10" ht="120.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B138" s="46" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="C138" s="46"/>
       <c r="D138" s="33" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="G138" s="33" t="s">
         <v>97</v>
@@ -10554,7 +10638,7 @@
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="62" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C139" s="62"/>
       <c r="D139" s="62"/>
@@ -10565,12 +10649,12 @@
       <c r="I139" s="62"/>
       <c r="J139" s="62"/>
     </row>
-    <row r="140" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B140" s="49" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="C140" s="61" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D140" s="51"/>
       <c r="E140" s="51"/>
@@ -10580,19 +10664,19 @@
       <c r="I140" s="51"/>
       <c r="J140" s="52"/>
     </row>
-    <row r="141" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B141" s="46" t="s">
-        <v>507</v>
+        <v>459</v>
       </c>
       <c r="C141" s="46"/>
       <c r="D141" s="33" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F141" s="33" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G141" s="46" t="s">
         <v>97</v>
@@ -10605,9 +10689,9 @@
       </c>
       <c r="J141" s="46"/>
     </row>
-    <row r="142" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="62" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C142" s="62"/>
       <c r="D142" s="62"/>
@@ -10618,7 +10702,7 @@
       <c r="I142" s="62"/>
       <c r="J142" s="62"/>
     </row>
-    <row r="143" spans="2:10" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B143" s="49" t="s">
         <v>173</v>
       </c>
@@ -10655,7 +10739,7 @@
     </row>
     <row r="146" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B146" s="62" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C146" s="62"/>
       <c r="D146" s="62"/>
@@ -14693,22 +14777,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14727,7 +14811,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="71" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14735,7 +14819,7 @@
     </row>
     <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L13" s="71" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
@@ -7054,7 +7054,7 @@
   </sheetPr>
   <dimension ref="A4:D54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -7609,6 +7609,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A26:D26"/>
@@ -7619,14 +7627,6 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7641,7 +7641,7 @@
   </sheetPr>
   <dimension ref="A2:J149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
@@ -7781,7 +7781,7 @@
       <c r="I11" s="54"/>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
         <v>88</v>
       </c>
@@ -7796,7 +7796,7 @@
       <c r="I12" s="51"/>
       <c r="J12" s="52"/>
     </row>
-    <row r="13" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>95</v>
       </c>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
         <v>89</v>
       </c>
@@ -7838,7 +7838,7 @@
       <c r="I14" s="51"/>
       <c r="J14" s="52"/>
     </row>
-    <row r="15" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
         <v>234</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B16" s="46" t="s">
         <v>235</v>
       </c>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="J16" s="76"/>
     </row>
-    <row r="17" spans="2:10" ht="75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
         <v>236</v>
       </c>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="J17" s="76"/>
     </row>
-    <row r="18" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
         <v>237</v>
       </c>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="J18" s="76"/>
     </row>
-    <row r="19" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
         <v>238</v>
       </c>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="J19" s="47"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B20" s="49" t="s">
         <v>90</v>
       </c>
@@ -7990,7 +7990,7 @@
       <c r="I20" s="51"/>
       <c r="J20" s="52"/>
     </row>
-    <row r="21" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B21" s="46" t="s">
         <v>99</v>
       </c>
@@ -8030,7 +8030,7 @@
       <c r="I22" s="54"/>
       <c r="J22" s="54"/>
     </row>
-    <row r="23" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B23" s="49" t="s">
         <v>111</v>
       </c>
@@ -8045,7 +8045,7 @@
       <c r="I23" s="51"/>
       <c r="J23" s="52"/>
     </row>
-    <row r="24" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B24" s="46" t="s">
         <v>112</v>
       </c>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="J24" s="46"/>
     </row>
-    <row r="25" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="s">
         <v>204</v>
       </c>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="46" t="s">
         <v>205</v>
       </c>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="J26" s="46"/>
     </row>
-    <row r="27" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B27" s="46" t="s">
         <v>214</v>
       </c>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="2:10" ht="57.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="57.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
         <v>245</v>
       </c>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="J28" s="46"/>
     </row>
-    <row r="29" spans="2:10" ht="57.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="57.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="46" t="s">
         <v>246</v>
       </c>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="J29" s="46"/>
     </row>
-    <row r="30" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B30" s="46" t="s">
         <v>247</v>
       </c>
@@ -8247,7 +8247,7 @@
       <c r="I31" s="54"/>
       <c r="J31" s="54"/>
     </row>
-    <row r="32" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B32" s="49" t="s">
         <v>783</v>
       </c>
@@ -8262,7 +8262,7 @@
       <c r="I32" s="51"/>
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="2:10" ht="103.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="103.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B33" s="46" t="s">
         <v>784</v>
       </c>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="J33" s="46"/>
     </row>
-    <row r="34" spans="2:10" ht="100.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="100.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B34" s="46" t="s">
         <v>785</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="J34" s="46"/>
     </row>
-    <row r="35" spans="2:10" ht="101.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="101.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
         <v>786</v>
       </c>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="J35" s="46"/>
     </row>
-    <row r="36" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
         <v>787</v>
       </c>
@@ -8370,7 +8370,7 @@
       </c>
       <c r="J36" s="46"/>
     </row>
-    <row r="37" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B37" s="49" t="s">
         <v>125</v>
       </c>
@@ -8385,7 +8385,7 @@
       <c r="I37" s="51"/>
       <c r="J37" s="52"/>
     </row>
-    <row r="38" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B38" s="46" t="s">
         <v>131</v>
       </c>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="J38" s="46"/>
     </row>
-    <row r="39" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B39" s="46" t="s">
         <v>270</v>
       </c>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="J39" s="46"/>
     </row>
-    <row r="40" spans="2:10" ht="90" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="46" t="s">
         <v>271</v>
       </c>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="J40" s="46"/>
     </row>
-    <row r="41" spans="2:10" ht="94.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="94.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="46" t="s">
         <v>272</v>
       </c>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="J41" s="46"/>
     </row>
-    <row r="42" spans="2:10" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
         <v>788</v>
       </c>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="J42" s="46"/>
     </row>
-    <row r="43" spans="2:10" ht="120" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="46" t="s">
         <v>789</v>
       </c>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="J43" s="46"/>
     </row>
-    <row r="44" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
         <v>790</v>
       </c>
@@ -8573,7 +8573,7 @@
       <c r="I45" s="54"/>
       <c r="J45" s="54"/>
     </row>
-    <row r="46" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B46" s="49" t="s">
         <v>133</v>
       </c>
@@ -8588,7 +8588,7 @@
       <c r="I46" s="51"/>
       <c r="J46" s="52"/>
     </row>
-    <row r="47" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B47" s="46" t="s">
         <v>135</v>
       </c>
@@ -8628,7 +8628,7 @@
       <c r="I48" s="54"/>
       <c r="J48" s="54"/>
     </row>
-    <row r="49" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B49" s="49" t="s">
         <v>141</v>
       </c>
@@ -8643,7 +8643,7 @@
       <c r="I49" s="51"/>
       <c r="J49" s="52"/>
     </row>
-    <row r="50" spans="2:10" ht="103.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" ht="103.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B50" s="46" t="s">
         <v>146</v>
       </c>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="J50" s="46"/>
     </row>
-    <row r="51" spans="2:10" ht="111.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" ht="111.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B51" s="46" t="s">
         <v>791</v>
       </c>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="J51" s="46"/>
     </row>
-    <row r="52" spans="2:10" ht="121.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" ht="121.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B52" s="46" t="s">
         <v>792</v>
       </c>
@@ -8720,7 +8720,7 @@
       </c>
       <c r="J52" s="46"/>
     </row>
-    <row r="53" spans="2:10" ht="93.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" ht="93.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="46" t="s">
         <v>793</v>
       </c>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="J53" s="46"/>
     </row>
-    <row r="54" spans="2:10" ht="159" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" ht="159" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="46" t="s">
         <v>794</v>
       </c>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="J54" s="46"/>
     </row>
-    <row r="55" spans="2:10" ht="165" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" ht="165" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="46" t="s">
         <v>795</v>
       </c>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="J55" s="46"/>
     </row>
-    <row r="56" spans="2:10" ht="168" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" ht="168" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B56" s="46" t="s">
         <v>796</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="J56" s="46"/>
     </row>
-    <row r="57" spans="2:10" ht="144.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" ht="144.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" s="46" t="s">
         <v>797</v>
       </c>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="J57" s="46"/>
     </row>
-    <row r="58" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B58" s="49" t="s">
         <v>156</v>
       </c>
@@ -8860,7 +8860,7 @@
       <c r="I58" s="51"/>
       <c r="J58" s="52"/>
     </row>
-    <row r="59" spans="2:10" ht="123.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" ht="123.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B59" s="46" t="s">
         <v>158</v>
       </c>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="J59" s="46"/>
     </row>
-    <row r="60" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B60" s="46" t="s">
         <v>159</v>
       </c>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="J60" s="46"/>
     </row>
-    <row r="61" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B61" s="46" t="s">
         <v>291</v>
       </c>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="J61" s="46"/>
     </row>
-    <row r="62" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B62" s="46" t="s">
         <v>315</v>
       </c>

--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1_ENG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -2388,22 +2388,13 @@
 Questions could be transferred to the Available list of dictionaries</t>
   </si>
   <si>
-    <t>testcase block: 2 (chiếm 2%)</t>
-  </si>
-  <si>
     <t>testcase Block: not thought out solutions, go to the next Sprint.</t>
   </si>
   <si>
     <t>testcase Failed: have solutions but not enough time, switch to Sprint next product improvements.</t>
   </si>
   <si>
-    <t>testcase failed: 20 (chiếm 22%)</t>
-  </si>
-  <si>
     <t>Testcase: 94</t>
-  </si>
-  <si>
-    <t>testcase passed: 72 (chiếm 76%)</t>
   </si>
   <si>
     <t>Show website notice incorrect account</t>
@@ -3247,6 +3238,15 @@
   </si>
   <si>
     <t>TC.23.9</t>
+  </si>
+  <si>
+    <t>testcase passed: 72 (occupy 76%)</t>
+  </si>
+  <si>
+    <t>testcase failed: 20 (occupy 22%)</t>
+  </si>
+  <si>
+    <t>testcase block: 2 (occupy 2%)</t>
   </si>
 </sst>
 </file>
@@ -4935,6 +4935,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5155,7 +5156,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5479,6 +5482,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7112,7 +7116,7 @@
         <v>Check invalid login</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -7162,7 +7166,7 @@
     </row>
     <row r="12" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B12" s="7" t="str">
         <f>'Testcase Specification'!C32</f>
@@ -7609,14 +7613,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A26:D26"/>
@@ -7627,6 +7623,14 @@
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7641,7 +7645,7 @@
   </sheetPr>
   <dimension ref="A2:J149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
@@ -7846,13 +7850,13 @@
         <v>60</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G15" s="46" t="s">
         <v>97</v>
@@ -7875,13 +7879,13 @@
         <v>61</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G16" s="46" t="s">
         <v>97</v>
@@ -7902,13 +7906,13 @@
         <v>62</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>97</v>
@@ -7929,13 +7933,13 @@
         <v>63</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>97</v>
@@ -7956,13 +7960,13 @@
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>97</v>
@@ -8053,13 +8057,13 @@
         <v>65</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>97</v>
@@ -8080,13 +8084,13 @@
         <v>66</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>97</v>
@@ -8107,13 +8111,13 @@
         <v>67</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>97</v>
@@ -8134,13 +8138,13 @@
         <v>71</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>97</v>
@@ -8161,10 +8165,10 @@
         <v>68</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>250</v>
@@ -8188,13 +8192,13 @@
         <v>69</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -8215,13 +8219,13 @@
         <v>70</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>97</v>
@@ -8249,7 +8253,7 @@
     </row>
     <row r="32" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B32" s="49" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C32" s="50" t="s">
         <v>528</v>
@@ -8264,19 +8268,19 @@
     </row>
     <row r="33" spans="2:10" ht="103.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B33" s="46" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C33" s="47">
         <v>73</v>
       </c>
       <c r="D33" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>659</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>662</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>97</v>
@@ -8291,7 +8295,7 @@
     </row>
     <row r="34" spans="2:10" ht="100.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B34" s="46" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C34" s="47">
         <v>74</v>
@@ -8300,10 +8304,10 @@
         <v>597</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>97</v>
@@ -8318,19 +8322,19 @@
     </row>
     <row r="35" spans="2:10" ht="101.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C35" s="47">
         <v>75</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>97</v>
@@ -8345,19 +8349,19 @@
     </row>
     <row r="36" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C36" s="47">
         <v>76</v>
       </c>
       <c r="D36" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="E36" s="66" t="s">
         <v>661</v>
       </c>
-      <c r="E36" s="66" t="s">
-        <v>664</v>
-      </c>
       <c r="F36" s="33" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>97</v>
@@ -8391,13 +8395,13 @@
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="33" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>97</v>
@@ -8416,13 +8420,13 @@
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="33" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>97</v>
@@ -8441,13 +8445,13 @@
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="33" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>97</v>
@@ -8466,13 +8470,13 @@
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="33" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>97</v>
@@ -8487,17 +8491,17 @@
     </row>
     <row r="42" spans="2:10" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C42" s="47"/>
       <c r="D42" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E42" s="65" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>97</v>
@@ -8512,17 +8516,17 @@
     </row>
     <row r="43" spans="2:10" ht="120" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="46" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="33" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>97</v>
@@ -8537,17 +8541,17 @@
     </row>
     <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="33" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>97</v>
@@ -8651,13 +8655,13 @@
         <v>50</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>97</v>
@@ -8672,17 +8676,17 @@
     </row>
     <row r="51" spans="2:10" ht="111.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B51" s="46" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C51" s="47"/>
       <c r="D51" s="33" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E51" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="F51" s="33" t="s">
         <v>688</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>691</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>97</v>
@@ -8697,17 +8701,17 @@
     </row>
     <row r="52" spans="2:10" ht="121.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B52" s="46" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>97</v>
@@ -8722,17 +8726,17 @@
     </row>
     <row r="53" spans="2:10" ht="93.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="46" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="33" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>97</v>
@@ -8747,17 +8751,17 @@
     </row>
     <row r="54" spans="2:10" ht="159" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="46" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="33" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G54" s="33" t="s">
         <v>97</v>
@@ -8772,17 +8776,17 @@
     </row>
     <row r="55" spans="2:10" ht="165" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="46" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="33" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E55" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="F55" s="33" t="s">
         <v>701</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>704</v>
       </c>
       <c r="G55" s="33" t="s">
         <v>97</v>
@@ -8797,17 +8801,17 @@
     </row>
     <row r="56" spans="2:10" ht="168" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B56" s="46" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="33" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>97</v>
@@ -8822,17 +8826,17 @@
     </row>
     <row r="57" spans="2:10" ht="144.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" s="46" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C57" s="47"/>
       <c r="D57" s="33" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G57" s="33" t="s">
         <v>97</v>
@@ -9149,7 +9153,7 @@
     </row>
     <row r="72" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B72" s="46" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C72" s="47">
         <v>59</v>
@@ -9237,7 +9241,7 @@
         <v>96</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>579</v>
@@ -9401,10 +9405,10 @@
         <v>100</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F84" s="33" t="s">
         <v>553</v>
@@ -9422,7 +9426,7 @@
     </row>
     <row r="85" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" s="46" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C85" s="47">
         <v>100</v>
@@ -9431,7 +9435,7 @@
         <v>588</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F85" s="33" t="s">
         <v>553</v>
@@ -9449,7 +9453,7 @@
     </row>
     <row r="86" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="46" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C86" s="47">
         <v>101</v>
@@ -9520,10 +9524,10 @@
       </c>
       <c r="C89" s="46"/>
       <c r="D89" s="33" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F89" s="33" t="s">
         <v>327</v>
@@ -9591,14 +9595,14 @@
     </row>
     <row r="92" spans="2:10" ht="165.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="46" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C92" s="46"/>
       <c r="D92" s="33" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F92" s="33" t="s">
         <v>296</v>
@@ -9616,7 +9620,7 @@
     </row>
     <row r="93" spans="2:10" ht="167.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="46" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C93" s="46"/>
       <c r="D93" s="33" t="s">
@@ -9641,7 +9645,7 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="62" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C94" s="62"/>
       <c r="D94" s="62"/>
@@ -9673,13 +9677,13 @@
       </c>
       <c r="C96" s="46"/>
       <c r="D96" s="33" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G96" s="33" t="s">
         <v>97</v>
@@ -9698,13 +9702,13 @@
       </c>
       <c r="C97" s="46"/>
       <c r="D97" s="33" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G97" s="33" t="s">
         <v>97</v>
@@ -9723,13 +9727,13 @@
       </c>
       <c r="C98" s="46"/>
       <c r="D98" s="33" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G98" s="33" t="s">
         <v>97</v>
@@ -9747,7 +9751,7 @@
         <v>345</v>
       </c>
       <c r="C99" s="61" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D99" s="51"/>
       <c r="E99" s="51"/>
@@ -9763,13 +9767,13 @@
       </c>
       <c r="C100" s="46"/>
       <c r="D100" s="33" t="s">
+        <v>704</v>
+      </c>
+      <c r="E100" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="E100" s="33" t="s">
-        <v>710</v>
-      </c>
       <c r="F100" s="33" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G100" s="33" t="s">
         <v>97</v>
@@ -9788,13 +9792,13 @@
       </c>
       <c r="C101" s="46"/>
       <c r="D101" s="33" t="s">
+        <v>705</v>
+      </c>
+      <c r="E101" s="33" t="s">
+        <v>752</v>
+      </c>
+      <c r="F101" s="33" t="s">
         <v>708</v>
-      </c>
-      <c r="E101" s="33" t="s">
-        <v>755</v>
-      </c>
-      <c r="F101" s="33" t="s">
-        <v>711</v>
       </c>
       <c r="G101" s="33" t="s">
         <v>97</v>
@@ -9813,13 +9817,13 @@
       </c>
       <c r="C102" s="46"/>
       <c r="D102" s="33" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F102" s="33" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G102" s="33" t="s">
         <v>97</v>
@@ -9866,13 +9870,13 @@
       </c>
       <c r="C105" s="46"/>
       <c r="D105" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="F105" s="33" t="s">
         <v>715</v>
-      </c>
-      <c r="E105" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="F105" s="33" t="s">
-        <v>718</v>
       </c>
       <c r="G105" s="33" t="s">
         <v>97</v>
@@ -9891,13 +9895,13 @@
       </c>
       <c r="C106" s="46"/>
       <c r="D106" s="33" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G106" s="33" t="s">
         <v>97</v>
@@ -9916,13 +9920,13 @@
       </c>
       <c r="C107" s="46"/>
       <c r="D107" s="46" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G107" s="33" t="s">
         <v>97</v>
@@ -9969,13 +9973,13 @@
       </c>
       <c r="C110" s="46"/>
       <c r="D110" s="33" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G110" s="46" t="s">
         <v>97</v>
@@ -9994,13 +9998,13 @@
       </c>
       <c r="C111" s="46"/>
       <c r="D111" s="33" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G111" s="46" t="s">
         <v>97</v>
@@ -10019,13 +10023,13 @@
       </c>
       <c r="C112" s="46"/>
       <c r="D112" s="33" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G112" s="46" t="s">
         <v>97</v>
@@ -10059,13 +10063,13 @@
       </c>
       <c r="C114" s="46"/>
       <c r="D114" s="33" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G114" s="33" t="s">
         <v>97</v>
@@ -10084,13 +10088,13 @@
       </c>
       <c r="C115" s="46"/>
       <c r="D115" s="33" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G115" s="33" t="s">
         <v>97</v>
@@ -10109,13 +10113,13 @@
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="33" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F116" s="33" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G116" s="33" t="s">
         <v>97</v>
@@ -10149,13 +10153,13 @@
       </c>
       <c r="C118" s="46"/>
       <c r="D118" s="33" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E118" s="33" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G118" s="33" t="s">
         <v>97</v>
@@ -10174,13 +10178,13 @@
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="33" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G119" s="33" t="s">
         <v>97</v>
@@ -10199,13 +10203,13 @@
       </c>
       <c r="C120" s="46"/>
       <c r="D120" s="33" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G120" s="33" t="s">
         <v>97</v>
@@ -10220,7 +10224,7 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="62" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C121" s="62"/>
       <c r="D121" s="62"/>
@@ -10236,7 +10240,7 @@
         <v>386</v>
       </c>
       <c r="C122" s="61" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D122" s="51"/>
       <c r="E122" s="51"/>
@@ -10252,13 +10256,13 @@
       </c>
       <c r="C123" s="46"/>
       <c r="D123" s="33" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G123" s="33" t="s">
         <v>97</v>
@@ -10277,13 +10281,13 @@
       </c>
       <c r="C124" s="46"/>
       <c r="D124" s="33" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G124" s="33" t="s">
         <v>97</v>
@@ -10302,13 +10306,13 @@
       </c>
       <c r="C125" s="46"/>
       <c r="D125" s="33" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F125" s="33" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G125" s="33" t="s">
         <v>97</v>
@@ -10323,17 +10327,17 @@
     </row>
     <row r="126" spans="2:10" ht="97.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B126" s="46" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C126" s="46"/>
       <c r="D126" s="33" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F126" s="33" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G126" s="33" t="s">
         <v>97</v>
@@ -10348,17 +10352,17 @@
     </row>
     <row r="127" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B127" s="46" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C127" s="46"/>
       <c r="D127" s="33" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F127" s="33" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G127" s="33" t="s">
         <v>97</v>
@@ -10373,17 +10377,17 @@
     </row>
     <row r="128" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B128" s="46" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C128" s="46"/>
       <c r="D128" s="33" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G128" s="33" t="s">
         <v>97</v>
@@ -10398,17 +10402,17 @@
     </row>
     <row r="129" spans="2:10" ht="96" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B129" s="46" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C129" s="46"/>
       <c r="D129" s="33" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G129" s="33" t="s">
         <v>97</v>
@@ -10423,17 +10427,17 @@
     </row>
     <row r="130" spans="2:10" ht="109.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B130" s="46" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C130" s="46"/>
       <c r="D130" s="33" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G130" s="33" t="s">
         <v>97</v>
@@ -10448,17 +10452,17 @@
     </row>
     <row r="131" spans="2:10" ht="114" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B131" s="46" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C131" s="46"/>
       <c r="D131" s="33" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F131" s="33" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G131" s="33" t="s">
         <v>97</v>
@@ -10476,7 +10480,7 @@
         <v>387</v>
       </c>
       <c r="C132" s="61" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D132" s="51"/>
       <c r="E132" s="51"/>
@@ -10492,13 +10496,13 @@
       </c>
       <c r="C133" s="46"/>
       <c r="D133" s="33" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G133" s="33" t="s">
         <v>97</v>
@@ -10517,13 +10521,13 @@
       </c>
       <c r="C134" s="46"/>
       <c r="D134" s="33" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F134" s="33" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G134" s="33" t="s">
         <v>97</v>
@@ -10542,13 +10546,13 @@
       </c>
       <c r="C135" s="46"/>
       <c r="D135" s="33" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F135" s="33" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G135" s="33" t="s">
         <v>97</v>
@@ -10567,13 +10571,13 @@
       </c>
       <c r="C136" s="46"/>
       <c r="D136" s="33" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F136" s="33" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G136" s="33" t="s">
         <v>97</v>
@@ -10592,13 +10596,13 @@
       </c>
       <c r="C137" s="46"/>
       <c r="D137" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F137" s="33" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G137" s="33" t="s">
         <v>97</v>
@@ -10617,13 +10621,13 @@
       </c>
       <c r="C138" s="46"/>
       <c r="D138" s="33" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="G138" s="33" t="s">
         <v>97</v>
@@ -14766,8 +14770,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14777,22 +14781,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>623</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>621</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>618</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14811,7 +14815,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="71" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14819,7 +14823,7 @@
     </row>
     <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L13" s="71" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
